--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas Obermann\Save\TDE app files\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas Obermann\Save\TDE app files\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="16" r:id="rId1"/>
@@ -2388,9 +2388,6 @@
     <t>White Mage</t>
   </si>
   <si>
-    <t>Gareth Academy of Sword and Staf</t>
-  </si>
-  <si>
     <t>{"id":"DISADV_34","tier":2,"sid":"protect the Middenrealm and the nobility, faith in the Twelvegods, truthfulness"}</t>
   </si>
   <si>
@@ -3616,6 +3613,9 @@
   </si>
   <si>
     <t>1?CT_1&amp;2?CT_2&amp;3?CT_14</t>
+  </si>
+  <si>
+    <t>Gareth Academy of Sword and Staff</t>
   </si>
 </sst>
 </file>
@@ -3737,7 +3737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -4270,7 +4270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4572,7 +4572,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.73046875" bestFit="1" customWidth="1"/>
@@ -4674,7 +4674,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.46484375" style="2" customWidth="1"/>
@@ -5736,7 +5736,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
@@ -5875,7 +5875,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.1328125" customWidth="1"/>
     <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
@@ -6666,7 +6666,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
@@ -6804,7 +6804,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.9296875" bestFit="1" customWidth="1"/>
@@ -7151,7 +7151,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
@@ -7270,11 +7270,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.1328125" customWidth="1"/>
     <col min="2" max="2" width="42.86328125" bestFit="1" customWidth="1"/>
@@ -7973,7 +7973,7 @@
         <v>247</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -8507,7 +8507,7 @@
       <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
@@ -8694,7 +8694,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -9031,7 +9031,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
@@ -9186,7 +9186,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
@@ -9269,7 +9269,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.19921875" bestFit="1" customWidth="1"/>
@@ -9288,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9296,7 +9296,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9304,7 +9304,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -9312,7 +9312,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -9320,7 +9320,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9328,7 +9328,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9344,7 +9344,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9360,7 +9360,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9368,7 +9368,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9376,7 +9376,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9384,7 +9384,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9392,7 +9392,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9400,7 +9400,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9408,7 +9408,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -9424,7 +9424,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -9432,7 +9432,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -9440,7 +9440,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -9448,7 +9448,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -9456,7 +9456,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -9464,7 +9464,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -9472,7 +9472,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -9480,7 +9480,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -9488,7 +9488,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -9496,7 +9496,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -9504,7 +9504,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -9512,7 +9512,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -9520,7 +9520,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -9528,7 +9528,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -9536,7 +9536,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -9552,7 +9552,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -9560,7 +9560,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -9568,7 +9568,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -9576,7 +9576,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -9584,7 +9584,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -9592,7 +9592,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -9608,7 +9608,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -9616,7 +9616,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -9624,7 +9624,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -9632,7 +9632,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -9640,7 +9640,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -9648,7 +9648,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -9656,7 +9656,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -9664,7 +9664,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -9672,7 +9672,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -9680,7 +9680,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -9688,7 +9688,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -9696,7 +9696,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -9704,7 +9704,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -9712,7 +9712,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -9720,7 +9720,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -9728,7 +9728,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -9744,7 +9744,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -9752,7 +9752,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -9760,7 +9760,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -9768,7 +9768,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -9784,7 +9784,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -9792,7 +9792,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -9800,7 +9800,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -9808,7 +9808,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -9816,7 +9816,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -9824,7 +9824,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -9832,7 +9832,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -9840,7 +9840,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -9848,7 +9848,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -9856,7 +9856,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -9864,7 +9864,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -9872,7 +9872,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -9880,7 +9880,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -9888,7 +9888,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -9896,7 +9896,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -9904,7 +9904,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -9912,7 +9912,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -9920,7 +9920,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -9928,7 +9928,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -9936,7 +9936,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -9952,7 +9952,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -9960,7 +9960,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -9968,7 +9968,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -9976,7 +9976,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -9984,7 +9984,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -9992,7 +9992,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -10000,7 +10000,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -10008,7 +10008,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -10016,7 +10016,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -10024,7 +10024,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -10032,7 +10032,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -10040,7 +10040,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -10048,7 +10048,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -10056,7 +10056,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -10064,7 +10064,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -10072,7 +10072,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -10080,7 +10080,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -10088,7 +10088,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -10096,7 +10096,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -10104,7 +10104,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -10112,7 +10112,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -10120,7 +10120,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -10128,7 +10128,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -10144,7 +10144,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -10152,7 +10152,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -10160,7 +10160,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -10168,7 +10168,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -10176,7 +10176,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -10184,7 +10184,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -10192,7 +10192,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -10200,7 +10200,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -10208,7 +10208,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -10216,7 +10216,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -10224,7 +10224,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -10232,7 +10232,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -10240,7 +10240,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -10248,7 +10248,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -10256,7 +10256,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -10264,7 +10264,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -10272,7 +10272,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -10280,7 +10280,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -10288,7 +10288,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -10296,7 +10296,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -10304,7 +10304,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -10312,7 +10312,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -10320,7 +10320,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -10328,7 +10328,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -10344,7 +10344,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -10352,7 +10352,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -10360,7 +10360,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -10368,7 +10368,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -10376,7 +10376,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -10384,7 +10384,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -10392,7 +10392,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -10400,7 +10400,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -10408,7 +10408,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -10416,7 +10416,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -10424,7 +10424,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -10432,7 +10432,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -10440,7 +10440,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -10448,7 +10448,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -10456,7 +10456,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -10464,7 +10464,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -10472,7 +10472,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -10480,7 +10480,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -10488,7 +10488,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -10496,7 +10496,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -10512,7 +10512,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -10520,7 +10520,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -10528,7 +10528,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -10536,7 +10536,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -10544,7 +10544,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -10552,7 +10552,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -10560,7 +10560,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -10568,7 +10568,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -10576,7 +10576,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -10584,7 +10584,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -10592,7 +10592,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -10600,7 +10600,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -10608,7 +10608,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -10616,7 +10616,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -10624,7 +10624,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -10632,7 +10632,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -10640,7 +10640,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -10648,7 +10648,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -10656,7 +10656,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -10664,7 +10664,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -10672,7 +10672,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -10680,7 +10680,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -10688,7 +10688,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -10696,7 +10696,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -10704,7 +10704,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -10712,7 +10712,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -10720,7 +10720,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -10728,7 +10728,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -10736,7 +10736,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -10744,7 +10744,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -10752,7 +10752,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -10760,7 +10760,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -10768,7 +10768,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -10776,7 +10776,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -10784,7 +10784,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -10792,7 +10792,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -10800,7 +10800,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -10808,7 +10808,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -10816,7 +10816,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
@@ -10824,7 +10824,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -10832,7 +10832,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
@@ -10840,7 +10840,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -10848,7 +10848,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -10856,7 +10856,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -10864,7 +10864,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -10872,7 +10872,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -10880,7 +10880,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -10888,7 +10888,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -10896,7 +10896,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
@@ -10904,7 +10904,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
@@ -10912,7 +10912,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -10920,7 +10920,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -10928,7 +10928,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
@@ -10936,7 +10936,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -10952,7 +10952,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -10960,7 +10960,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
@@ -10968,7 +10968,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
@@ -10976,7 +10976,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
@@ -10984,7 +10984,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -10992,7 +10992,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -11008,7 +11008,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -11016,7 +11016,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
@@ -11024,7 +11024,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -11032,7 +11032,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -11040,7 +11040,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -11048,7 +11048,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -11056,7 +11056,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -11064,7 +11064,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -11072,7 +11072,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
@@ -11080,7 +11080,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
@@ -11088,7 +11088,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -11096,7 +11096,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
@@ -11104,7 +11104,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
@@ -11112,7 +11112,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
@@ -11120,7 +11120,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
@@ -11128,7 +11128,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
@@ -11136,7 +11136,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
@@ -11144,7 +11144,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -11152,7 +11152,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -11160,7 +11160,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -11168,7 +11168,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
@@ -11176,7 +11176,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
@@ -11184,7 +11184,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
@@ -11200,7 +11200,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -11208,7 +11208,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -11216,7 +11216,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -11224,7 +11224,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -11232,7 +11232,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
@@ -11240,7 +11240,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -11248,7 +11248,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -11256,7 +11256,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -11264,7 +11264,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -11272,7 +11272,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -11280,7 +11280,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -11288,7 +11288,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -11296,7 +11296,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -11304,7 +11304,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -11312,7 +11312,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -11320,7 +11320,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
@@ -11328,7 +11328,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
@@ -11344,7 +11344,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
@@ -11360,7 +11360,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
@@ -11368,7 +11368,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
@@ -11376,7 +11376,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
@@ -11392,7 +11392,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
@@ -11400,7 +11400,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
@@ -11408,7 +11408,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
@@ -11416,7 +11416,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
@@ -11424,7 +11424,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
@@ -11432,7 +11432,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
@@ -11440,7 +11440,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
@@ -11448,7 +11448,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
@@ -11456,7 +11456,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
@@ -11464,7 +11464,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
@@ -11488,7 +11488,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
@@ -11496,7 +11496,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
@@ -11504,7 +11504,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
@@ -11512,7 +11512,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
@@ -11520,7 +11520,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
@@ -11528,7 +11528,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
@@ -11536,7 +11536,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
@@ -11544,7 +11544,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
@@ -11552,7 +11552,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
@@ -11560,7 +11560,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -11568,7 +11568,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -11576,7 +11576,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -11584,7 +11584,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -11592,7 +11592,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -11600,7 +11600,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -11608,7 +11608,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -11616,7 +11616,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -11640,7 +11640,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -11648,7 +11648,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -11656,7 +11656,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -11672,7 +11672,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
@@ -11680,7 +11680,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
@@ -11688,7 +11688,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
@@ -11720,7 +11720,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
@@ -11760,7 +11760,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -11768,7 +11768,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -11784,7 +11784,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -11800,7 +11800,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -11808,7 +11808,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -11824,7 +11824,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -11832,7 +11832,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
@@ -11840,7 +11840,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -11848,7 +11848,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -11856,7 +11856,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -11864,7 +11864,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -11872,7 +11872,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -11880,7 +11880,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -11904,7 +11904,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -11912,7 +11912,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -11920,7 +11920,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -11928,7 +11928,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -11936,7 +11936,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -11944,7 +11944,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -11952,7 +11952,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -11960,7 +11960,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -11968,7 +11968,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -11976,7 +11976,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -11984,7 +11984,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -11992,7 +11992,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -12000,7 +12000,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
@@ -12008,7 +12008,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
@@ -12016,7 +12016,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
@@ -12024,7 +12024,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
@@ -12032,7 +12032,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
@@ -12040,7 +12040,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
@@ -12048,7 +12048,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
@@ -12056,7 +12056,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
@@ -12064,7 +12064,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
@@ -12072,7 +12072,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
@@ -12080,7 +12080,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
@@ -12088,7 +12088,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
@@ -12096,7 +12096,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
@@ -12104,7 +12104,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
@@ -12112,7 +12112,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
@@ -12120,7 +12120,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
@@ -12128,7 +12128,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
@@ -12136,7 +12136,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
@@ -12144,7 +12144,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -12152,7 +12152,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.45">
@@ -12160,7 +12160,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -12168,7 +12168,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -12176,7 +12176,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -12184,7 +12184,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -12200,7 +12200,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.45">
@@ -12208,7 +12208,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="23" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.45">
@@ -12216,7 +12216,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.45">
@@ -12224,7 +12224,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="23" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.45">
@@ -12232,7 +12232,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="23" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.45">
@@ -12240,7 +12240,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.45">
@@ -12248,7 +12248,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.45">
@@ -12256,7 +12256,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.45">
@@ -12264,7 +12264,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.45">
@@ -12272,7 +12272,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.45">
@@ -12280,7 +12280,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.45">
@@ -12288,7 +12288,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.45">
@@ -12296,7 +12296,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="24" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.45">
@@ -12304,7 +12304,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="24" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.45">
@@ -12312,7 +12312,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="24" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.45">
@@ -12320,7 +12320,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="24" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.45">
@@ -12328,7 +12328,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="24" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -12344,7 +12344,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
@@ -12467,7 +12467,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
@@ -12690,11 +12690,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
@@ -13037,10 +13037,10 @@
         <v>780</v>
       </c>
       <c r="C25" s="21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>781</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>782</v>
       </c>
       <c r="E25" s="16">
         <v>153</v>
@@ -13051,11 +13051,11 @@
         <v>26</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E26" s="16">
         <v>154</v>
@@ -13066,11 +13066,11 @@
         <v>27</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E27" s="16">
         <v>155</v>
@@ -13081,11 +13081,11 @@
         <v>28</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E28" s="16">
         <v>156</v>
@@ -13096,11 +13096,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E29" s="16">
         <v>157</v>
@@ -13111,11 +13111,11 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E30" s="16">
         <v>158</v>
@@ -13126,11 +13126,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E31" s="16">
         <v>159</v>
@@ -13150,7 +13150,7 @@
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.53125" bestFit="1" customWidth="1"/>
@@ -13169,7 +13169,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -13185,7 +13185,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -13193,7 +13193,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -13201,7 +13201,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -13209,7 +13209,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -13217,7 +13217,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -13225,7 +13225,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -13233,7 +13233,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -13241,7 +13241,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -13249,7 +13249,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -13257,7 +13257,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -13265,7 +13265,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -13273,7 +13273,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -13281,7 +13281,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -13289,7 +13289,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -13297,7 +13297,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -13305,7 +13305,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -13313,7 +13313,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -13329,7 +13329,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -13337,7 +13337,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -13345,7 +13345,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -13361,7 +13361,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -13369,7 +13369,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -13377,7 +13377,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -13385,7 +13385,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -13393,7 +13393,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -13401,7 +13401,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -13409,7 +13409,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -13417,7 +13417,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -13425,7 +13425,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -13441,7 +13441,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -13449,7 +13449,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -13457,7 +13457,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -13465,7 +13465,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -13473,7 +13473,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -13481,7 +13481,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -13489,7 +13489,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -13497,7 +13497,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -13505,7 +13505,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -13513,7 +13513,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -13521,7 +13521,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -13529,7 +13529,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -13537,7 +13537,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -13545,7 +13545,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -13553,7 +13553,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -13585,7 +13585,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -13593,7 +13593,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -13609,7 +13609,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -13617,7 +13617,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -13625,7 +13625,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -13633,7 +13633,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -13641,7 +13641,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -13649,7 +13649,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -13665,7 +13665,7 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.1328125" style="11" customWidth="1"/>
     <col min="2" max="2" width="35.796875" style="11" bestFit="1" customWidth="1"/>
@@ -13976,7 +13976,7 @@
         <v>523</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -14240,7 +14240,7 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.1328125" customWidth="1"/>
     <col min="2" max="2" width="35.796875" bestFit="1" customWidth="1"/>
@@ -14634,7 +14634,7 @@
         <v>590</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>591</v>
@@ -14882,7 +14882,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>

--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="16" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1199">
   <si>
     <t>id</t>
   </si>
@@ -3616,13 +3616,37 @@
   </si>
   <si>
     <t>Gareth Academy of Sword and Staff</t>
+  </si>
+  <si>
+    <t>attributeAdjustments</t>
+  </si>
+  <si>
+    <t>automaticAdvantages</t>
+  </si>
+  <si>
+    <t>stronglyRecommendedAdvantages</t>
+  </si>
+  <si>
+    <t>stronglyRecommendedDisadvantages</t>
+  </si>
+  <si>
+    <t>commonAdvantages</t>
+  </si>
+  <si>
+    <t>commonDisadvantages</t>
+  </si>
+  <si>
+    <t>uncommonAdvantages</t>
+  </si>
+  <si>
+    <t>uncommonDisadvantages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3644,8 +3668,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3655,6 +3687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3671,7 +3709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3735,6 +3773,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -12338,27 +12380,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -12366,7 +12436,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -12374,7 +12444,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -12382,7 +12452,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -12390,7 +12460,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -12398,7 +12468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -12406,7 +12476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -12414,7 +12484,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -12422,7 +12492,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -12430,7 +12500,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -12438,7 +12508,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -12446,7 +12516,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -12690,7 +12760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="16" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1198">
   <si>
     <t>id</t>
   </si>
@@ -1395,45 +1395,27 @@
     <t>US25003</t>
   </si>
   <si>
-    <t>Aventurisches Kompendium</t>
-  </si>
-  <si>
     <t>US25004</t>
   </si>
   <si>
-    <t>Aventurische Magie I</t>
-  </si>
-  <si>
     <t>US25005</t>
   </si>
   <si>
-    <t>Aventurisches Götterwirken I</t>
-  </si>
-  <si>
     <t>US25101</t>
   </si>
   <si>
     <t>US25102</t>
   </si>
   <si>
-    <t>Die Siebenwindküste</t>
-  </si>
-  <si>
     <t>US25201</t>
   </si>
   <si>
     <t>US25208</t>
   </si>
   <si>
-    <t>Aventurische Rüstkammer</t>
-  </si>
-  <si>
     <t>US25526</t>
   </si>
   <si>
-    <t>Aventurische Namen</t>
-  </si>
-  <si>
     <t>Blind</t>
   </si>
   <si>
@@ -3592,6 +3574,69 @@
   </si>
   <si>
     <t>Powerful Throw</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>ACO</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>WKD</t>
+  </si>
+  <si>
+    <t>The Coast of the Seven Winds</t>
+  </si>
+  <si>
+    <t>CSW</t>
+  </si>
+  <si>
+    <t>ABE</t>
+  </si>
+  <si>
+    <t>AAR</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>US25002</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>Aventuria Almanac</t>
+  </si>
+  <si>
+    <t>Aventurian Compendium</t>
+  </si>
+  <si>
+    <t>Aventurian Magic I</t>
+  </si>
+  <si>
+    <t>Aventurian Work of the Gods</t>
+  </si>
+  <si>
+    <t>US25006</t>
+  </si>
+  <si>
+    <t>Aventurian Magic II</t>
+  </si>
+  <si>
+    <t>AMII</t>
+  </si>
+  <si>
+    <t>Aventurian Armory</t>
+  </si>
+  <si>
+    <t>Aventurian Names</t>
   </si>
 </sst>
 </file>
@@ -3733,7 +3778,10 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3998,7 +4046,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4111,21 +4159,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:B10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="A2:B10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C12" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:C12" xr:uid="{00000000-0009-0000-0100-000003000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <sortState ref="A2:C12">
     <sortCondition ref="A1"/>
   </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="31"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{F4A0BFC1-E4B4-4E30-BD3A-41CC3BEACB5D}" name="short" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:D54" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:D54" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:D54" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4133,17 +4186,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:D56" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4151,17 +4204,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4178,23 +4231,23 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:I93" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:I93" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:I93" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4207,8 +4260,8 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="effect"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="castingtime"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="aecost"/>
@@ -4222,7 +4275,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:P114" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:P114" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:P114" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4245,9 +4298,9 @@
     <sortCondition ref="A96"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="input"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="rules"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="effect"/>
@@ -4563,96 +4616,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="14" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B9" s="14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="B10" s="14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="B11" s="14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>462</v>
+      <c r="B12" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
   </sheetData>
@@ -4693,22 +4799,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4719,7 +4825,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -4736,7 +4842,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -4753,7 +4859,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -4770,7 +4876,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -4787,7 +4893,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -4804,7 +4910,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -4821,7 +4927,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -4838,7 +4944,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -4855,7 +4961,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -4872,7 +4978,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -4889,7 +4995,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -4906,7 +5012,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -4923,7 +5029,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -4940,7 +5046,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -4957,7 +5063,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -4974,7 +5080,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -4991,7 +5097,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -5008,7 +5114,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -5025,7 +5131,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -5042,7 +5148,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -5059,7 +5165,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -5076,7 +5182,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -5093,7 +5199,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -5110,7 +5216,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -5127,7 +5233,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -5144,7 +5250,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -5161,7 +5267,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -5178,7 +5284,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -5195,7 +5301,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -5212,7 +5318,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -5229,7 +5335,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -5246,7 +5352,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -5263,7 +5369,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -5280,7 +5386,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>397</v>
@@ -5300,7 +5406,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -5317,7 +5423,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -5334,7 +5440,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -5351,7 +5457,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -5368,7 +5474,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -5385,7 +5491,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -5402,7 +5508,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -5419,7 +5525,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -5436,7 +5542,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -5453,7 +5559,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -5470,7 +5576,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -5487,7 +5593,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -5504,7 +5610,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -5521,7 +5627,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -5538,7 +5644,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -5555,7 +5661,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -5572,7 +5678,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -5589,7 +5695,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -5606,7 +5712,7 @@
         <v>56</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -5623,7 +5729,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -5640,7 +5746,7 @@
         <v>58</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -5657,7 +5763,7 @@
         <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -5674,7 +5780,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -5691,7 +5797,7 @@
         <v>61</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -5708,7 +5814,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -5887,25 +5993,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -6677,19 +6783,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7267,7 +7373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
@@ -7291,40 +7397,40 @@
         <v>122</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>724</v>
-      </c>
       <c r="P1" s="13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -7368,7 +7474,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -7583,7 +7689,7 @@
         <v>202</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -7699,7 +7805,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -7708,7 +7814,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C43" s="5"/>
     </row>
@@ -7762,7 +7868,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -7789,7 +7895,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -7824,7 +7930,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -7832,7 +7938,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -7848,7 +7954,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -7867,7 +7973,7 @@
         <v>226</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -7899,7 +8005,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -7923,7 +8029,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C68" s="5"/>
     </row>
@@ -8248,7 +8354,7 @@
         <v>196</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="C103" s="5"/>
     </row>
@@ -8338,7 +8444,7 @@
         <v>221</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C113" s="5"/>
     </row>
@@ -8386,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -8394,7 +8500,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -8402,7 +8508,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -8410,7 +8516,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -8418,7 +8524,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -8426,7 +8532,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -8434,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -8442,7 +8548,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -8450,7 +8556,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -8458,7 +8564,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -8466,7 +8572,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -8482,7 +8588,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -8490,7 +8596,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -8506,7 +8612,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -8514,7 +8620,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -8522,7 +8628,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -8530,7 +8636,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -8538,7 +8644,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -8616,7 +8722,7 @@
         <v>408</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -8638,7 +8744,7 @@
         <v>410</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D7" s="18"/>
     </row>
@@ -8647,11 +8753,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8662,7 +8768,7 @@
         <v>411</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D9" s="18"/>
     </row>
@@ -8671,11 +8777,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -8687,7 +8793,7 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -8695,11 +8801,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -8711,7 +8817,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -8719,7 +8825,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -8743,7 +8849,7 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -8751,7 +8857,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -8765,7 +8871,7 @@
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -8777,7 +8883,7 @@
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -8795,7 +8901,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -8805,10 +8911,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D22" s="18"/>
     </row>
@@ -8817,11 +8923,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -8832,7 +8938,7 @@
         <v>419</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D24" s="18"/>
     </row>
@@ -8841,11 +8947,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -8910,7 +9016,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -8918,7 +9024,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -8942,7 +9048,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -8950,7 +9056,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -8958,7 +9064,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -8966,7 +9072,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -8974,7 +9080,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -8982,7 +9088,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -8990,7 +9096,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -8998,7 +9104,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9006,7 +9112,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9014,7 +9120,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9022,7 +9128,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9030,7 +9136,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -9148,7 +9254,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9156,7 +9262,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9164,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -9172,7 +9278,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -9180,7 +9286,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9188,7 +9294,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9204,7 +9310,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9220,7 +9326,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9228,7 +9334,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9236,7 +9342,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9244,7 +9350,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9252,7 +9358,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9260,7 +9366,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9268,7 +9374,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -9284,7 +9390,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -9292,7 +9398,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -9300,7 +9406,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -9308,7 +9414,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -9316,7 +9422,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -9324,7 +9430,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -9332,7 +9438,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -9340,7 +9446,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -9348,7 +9454,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -9356,7 +9462,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -9364,7 +9470,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -9372,7 +9478,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -9380,7 +9486,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -9388,7 +9494,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -9396,7 +9502,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -9412,7 +9518,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -9420,7 +9526,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -9428,7 +9534,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -9436,7 +9542,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -9444,7 +9550,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -9452,7 +9558,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -9468,7 +9574,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -9476,7 +9582,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -9484,7 +9590,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -9492,7 +9598,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -9500,7 +9606,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -9508,7 +9614,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -9516,7 +9622,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -9524,7 +9630,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -9532,7 +9638,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -9540,7 +9646,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -9548,7 +9654,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -9556,7 +9662,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -9564,7 +9670,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -9572,7 +9678,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -9580,7 +9686,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -9588,7 +9694,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -9604,7 +9710,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -9612,7 +9718,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -9620,7 +9726,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -9628,7 +9734,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -9636,7 +9742,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -9644,7 +9750,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -9652,7 +9758,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -9660,7 +9766,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -9668,7 +9774,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -9676,7 +9782,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -9684,7 +9790,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -9692,7 +9798,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -9700,7 +9806,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -9708,7 +9814,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -9716,7 +9822,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -9724,7 +9830,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -9732,7 +9838,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -9740,7 +9846,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -9748,7 +9854,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -9756,7 +9862,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -9764,7 +9870,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -9772,7 +9878,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -9780,7 +9886,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -9788,7 +9894,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -9796,7 +9902,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -9812,7 +9918,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -9820,7 +9926,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -9828,7 +9934,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -9836,7 +9942,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -9844,7 +9950,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -9852,7 +9958,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -9860,7 +9966,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -9868,7 +9974,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -9876,7 +9982,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -9884,7 +9990,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -9892,7 +9998,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -9900,7 +10006,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -9908,7 +10014,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -9916,7 +10022,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -9924,7 +10030,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -9932,7 +10038,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -9940,7 +10046,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -9948,7 +10054,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -9956,7 +10062,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -9964,7 +10070,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -9972,7 +10078,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -9980,7 +10086,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -9988,7 +10094,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -9996,7 +10102,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -10004,7 +10110,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -10012,7 +10118,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -10020,7 +10126,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -10028,7 +10134,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -10036,7 +10142,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -10044,7 +10150,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -10052,7 +10158,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -10060,7 +10166,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -10068,7 +10174,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -10076,7 +10182,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -10084,7 +10190,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -10092,7 +10198,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -10100,7 +10206,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -10108,7 +10214,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -10116,7 +10222,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -10124,7 +10230,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -10132,7 +10238,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -10140,7 +10246,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -10148,7 +10254,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -10156,7 +10262,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -10164,7 +10270,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -10172,7 +10278,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -10180,7 +10286,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -10188,7 +10294,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -10204,7 +10310,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -10212,7 +10318,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -10220,7 +10326,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -10228,7 +10334,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -10236,7 +10342,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -10244,7 +10350,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -10252,7 +10358,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -10260,7 +10366,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -10268,7 +10374,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -10276,7 +10382,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -10284,7 +10390,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -10292,7 +10398,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -10300,7 +10406,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -10308,7 +10414,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -10316,7 +10422,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -10324,7 +10430,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -10332,7 +10438,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -10340,7 +10446,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -10348,7 +10454,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -10356,7 +10462,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -10372,7 +10478,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -10380,7 +10486,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -10388,7 +10494,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -10396,7 +10502,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -10404,7 +10510,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -10412,7 +10518,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -10420,7 +10526,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -10428,7 +10534,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -10436,7 +10542,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -10444,7 +10550,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -10452,7 +10558,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -10460,7 +10566,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -10468,7 +10574,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -10476,7 +10582,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -10484,7 +10590,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -10492,7 +10598,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -10500,7 +10606,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -10508,7 +10614,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -10516,7 +10622,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -10524,7 +10630,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -10532,7 +10638,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -10540,7 +10646,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -10548,7 +10654,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -10556,7 +10662,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -10564,7 +10670,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -10572,7 +10678,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -10580,7 +10686,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -10588,7 +10694,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -10596,7 +10702,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -10604,7 +10710,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -10612,7 +10718,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -10620,7 +10726,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -10628,7 +10734,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -10636,7 +10742,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -10644,7 +10750,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -10652,7 +10758,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -10660,7 +10766,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -10668,7 +10774,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -10676,7 +10782,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
@@ -10684,7 +10790,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -10692,7 +10798,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
@@ -10700,7 +10806,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -10708,7 +10814,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -10716,7 +10822,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -10724,7 +10830,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -10732,7 +10838,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -10740,7 +10846,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -10748,7 +10854,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -10756,7 +10862,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
@@ -10764,7 +10870,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
@@ -10772,7 +10878,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -10780,7 +10886,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -10788,7 +10894,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
@@ -10796,7 +10902,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -10812,7 +10918,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -10820,7 +10926,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
@@ -10828,7 +10934,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
@@ -10836,7 +10942,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
@@ -10844,7 +10950,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -10852,7 +10958,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -10868,7 +10974,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -10876,7 +10982,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
@@ -10884,7 +10990,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -10892,7 +10998,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -10900,7 +11006,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -10908,7 +11014,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -10916,7 +11022,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -10924,7 +11030,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -10932,7 +11038,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
@@ -10940,7 +11046,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
@@ -10948,7 +11054,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -10956,7 +11062,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
@@ -10964,7 +11070,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
@@ -10972,7 +11078,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
@@ -10980,7 +11086,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
@@ -10988,7 +11094,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
@@ -10996,7 +11102,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
@@ -11004,7 +11110,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -11012,7 +11118,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -11020,7 +11126,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -11028,7 +11134,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
@@ -11036,7 +11142,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
@@ -11044,7 +11150,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
@@ -11060,7 +11166,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -11068,7 +11174,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -11076,7 +11182,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -11084,7 +11190,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -11092,7 +11198,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
@@ -11100,7 +11206,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -11108,7 +11214,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -11116,7 +11222,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -11124,7 +11230,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -11132,7 +11238,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -11140,7 +11246,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -11148,7 +11254,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -11156,7 +11262,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -11164,7 +11270,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -11172,7 +11278,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -11180,7 +11286,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
@@ -11188,7 +11294,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
@@ -11204,7 +11310,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
@@ -11220,7 +11326,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
@@ -11228,7 +11334,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
@@ -11236,7 +11342,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
@@ -11252,7 +11358,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
@@ -11260,7 +11366,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
@@ -11268,7 +11374,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
@@ -11276,7 +11382,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
@@ -11284,7 +11390,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
@@ -11292,7 +11398,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
@@ -11300,7 +11406,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
@@ -11308,7 +11414,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
@@ -11316,7 +11422,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
@@ -11324,7 +11430,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
@@ -11348,7 +11454,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
@@ -11356,7 +11462,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
@@ -11364,7 +11470,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
@@ -11372,7 +11478,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
@@ -11380,7 +11486,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
@@ -11388,7 +11494,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
@@ -11396,7 +11502,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
@@ -11404,7 +11510,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
@@ -11412,7 +11518,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
@@ -11420,7 +11526,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -11428,7 +11534,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -11436,7 +11542,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -11444,7 +11550,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -11452,7 +11558,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -11460,7 +11566,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -11468,7 +11574,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -11476,7 +11582,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -11500,7 +11606,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -11508,7 +11614,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -11516,7 +11622,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -11524,7 +11630,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
@@ -11532,7 +11638,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
@@ -11540,7 +11646,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
@@ -11548,7 +11654,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
@@ -11556,7 +11662,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
@@ -11564,7 +11670,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
@@ -11572,7 +11678,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
@@ -11580,7 +11686,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
@@ -11620,7 +11726,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -11628,7 +11734,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -11644,7 +11750,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -11660,7 +11766,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -11668,7 +11774,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -11676,7 +11782,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
@@ -11684,7 +11790,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -11692,7 +11798,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
@@ -11700,7 +11806,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -11708,7 +11814,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -11716,7 +11822,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -11724,7 +11830,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -11732,7 +11838,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -11740,7 +11846,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -11748,7 +11854,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
@@ -11756,7 +11862,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
@@ -11764,7 +11870,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -11772,7 +11878,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -11780,7 +11886,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -11788,7 +11894,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -11796,7 +11902,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -11804,7 +11910,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -11812,7 +11918,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -11820,7 +11926,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -11828,7 +11934,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -11836,7 +11942,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -11844,7 +11950,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -11852,7 +11958,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -11860,7 +11966,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
@@ -11868,7 +11974,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
@@ -11876,7 +11982,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
@@ -11884,7 +11990,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
@@ -11892,7 +11998,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
@@ -11900,7 +12006,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
@@ -11908,7 +12014,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
@@ -11916,7 +12022,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
@@ -11924,7 +12030,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
@@ -11932,7 +12038,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
@@ -11940,7 +12046,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
@@ -11948,7 +12054,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
@@ -11956,7 +12062,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
@@ -11964,7 +12070,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
@@ -11972,7 +12078,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
@@ -11980,7 +12086,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
@@ -11988,7 +12094,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
@@ -11996,7 +12102,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
@@ -12004,7 +12110,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -12012,7 +12118,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.45">
@@ -12020,7 +12126,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -12028,7 +12134,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -12036,7 +12142,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -12044,7 +12150,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -12060,7 +12166,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.45">
@@ -12068,7 +12174,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="23" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.45">
@@ -12076,7 +12182,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.45">
@@ -12084,7 +12190,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="23" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.45">
@@ -12092,7 +12198,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="23" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.45">
@@ -12100,7 +12206,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.45">
@@ -12108,7 +12214,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.45">
@@ -12116,7 +12222,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.45">
@@ -12124,7 +12230,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.45">
@@ -12132,7 +12238,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.45">
@@ -12140,7 +12246,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.45">
@@ -12148,7 +12254,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.45">
@@ -12156,7 +12262,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="24" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.45">
@@ -12164,7 +12270,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="24" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.45">
@@ -12172,7 +12278,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="24" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.45">
@@ -12180,7 +12286,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="24" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.45">
@@ -12188,7 +12294,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="24" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -12219,31 +12325,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>1163</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>1164</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>1170</v>
-      </c>
       <c r="K1" s="25" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -12597,13 +12703,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -12611,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -12624,7 +12730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
@@ -12637,7 +12743,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
@@ -12650,7 +12756,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
@@ -12663,7 +12769,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
@@ -12676,7 +12782,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
@@ -12689,7 +12795,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -12715,7 +12821,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -12728,7 +12834,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -12741,7 +12847,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -12754,7 +12860,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -12767,7 +12873,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -12780,7 +12886,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
@@ -12793,7 +12899,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
@@ -12806,7 +12912,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
@@ -12819,7 +12925,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
@@ -12832,10 +12938,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="16">
@@ -12847,10 +12953,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="16">
@@ -12862,10 +12968,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="16">
@@ -12877,10 +12983,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="16">
@@ -12892,10 +12998,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="16">
@@ -12907,10 +13013,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="16">
@@ -12922,13 +13028,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E25" s="16">
         <v>153</v>
@@ -12939,11 +13045,11 @@
         <v>26</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E26" s="16">
         <v>154</v>
@@ -12954,11 +13060,11 @@
         <v>27</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="20" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E27" s="16">
         <v>155</v>
@@ -12969,11 +13075,11 @@
         <v>28</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="20" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E28" s="16">
         <v>156</v>
@@ -12984,11 +13090,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E29" s="16">
         <v>157</v>
@@ -12999,11 +13105,11 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="20" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E30" s="16">
         <v>158</v>
@@ -13014,11 +13120,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E31" s="16">
         <v>159</v>
@@ -13057,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -13065,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -13073,7 +13179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -13081,7 +13187,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -13089,7 +13195,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -13097,7 +13203,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -13105,7 +13211,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -13113,7 +13219,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -13121,7 +13227,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -13129,7 +13235,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -13137,7 +13243,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -13145,7 +13251,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -13153,7 +13259,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -13161,7 +13267,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -13169,7 +13275,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -13177,7 +13283,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -13185,7 +13291,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -13193,7 +13299,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -13201,7 +13307,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -13209,7 +13315,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -13217,7 +13323,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -13225,7 +13331,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -13233,7 +13339,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -13241,7 +13347,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -13249,7 +13355,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -13257,7 +13363,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -13265,7 +13371,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -13273,7 +13379,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -13281,7 +13387,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -13289,7 +13395,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -13297,7 +13403,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -13305,7 +13411,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -13313,7 +13419,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -13329,7 +13435,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -13337,7 +13443,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -13345,7 +13451,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -13353,7 +13459,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -13361,7 +13467,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -13369,7 +13475,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -13377,7 +13483,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -13385,7 +13491,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -13393,7 +13499,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -13401,7 +13507,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -13409,7 +13515,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -13417,7 +13523,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -13425,7 +13531,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -13433,7 +13539,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -13441,7 +13547,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -13449,7 +13555,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -13457,7 +13563,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -13465,7 +13571,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -13473,7 +13579,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -13481,7 +13587,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -13489,7 +13595,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -13497,7 +13603,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -13505,7 +13611,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -13513,7 +13619,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -13521,7 +13627,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -13529,7 +13635,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -13537,7 +13643,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -13579,7 +13685,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -13589,7 +13695,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -13599,7 +13705,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -13609,7 +13715,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -13619,7 +13725,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -13629,7 +13735,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -13639,7 +13745,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -13649,7 +13755,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -13659,7 +13765,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -13669,7 +13775,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -13679,7 +13785,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -13689,7 +13795,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -13699,7 +13805,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -13709,7 +13815,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -13719,7 +13825,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -13729,7 +13835,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -13739,7 +13845,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -13749,7 +13855,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -13759,7 +13865,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -13769,7 +13875,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -13779,7 +13885,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -13789,7 +13895,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -13799,7 +13905,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -13809,7 +13915,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -13819,7 +13925,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -13829,7 +13935,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -13839,7 +13945,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -13849,10 +13955,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -13861,10 +13967,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -13873,7 +13979,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -13883,7 +13989,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -13893,13 +13999,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -13907,7 +14013,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -13917,7 +14023,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -13927,7 +14033,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -13937,7 +14043,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -13947,7 +14053,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -13957,7 +14063,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -13967,7 +14073,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -13977,7 +14083,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -13987,7 +14093,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -13997,7 +14103,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -14007,7 +14113,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -14017,7 +14123,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -14027,7 +14133,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -14037,7 +14143,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -14047,7 +14153,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -14057,7 +14163,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -14067,7 +14173,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -14077,7 +14183,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -14087,7 +14193,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -14097,7 +14203,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -14107,7 +14213,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="9"/>
@@ -14153,13 +14259,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -14167,7 +14273,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -14177,7 +14283,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -14187,7 +14293,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -14197,7 +14303,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -14207,7 +14313,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -14217,7 +14323,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -14227,7 +14333,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -14237,7 +14343,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -14247,7 +14353,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -14257,7 +14363,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -14267,7 +14373,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -14277,7 +14383,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -14287,7 +14393,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -14297,7 +14403,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -14307,7 +14413,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -14317,7 +14423,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -14327,7 +14433,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -14337,7 +14443,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -14347,11 +14453,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -14359,7 +14465,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -14369,7 +14475,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -14379,7 +14485,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -14389,13 +14495,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -14403,7 +14509,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -14413,7 +14519,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -14423,7 +14529,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -14433,7 +14539,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -14443,7 +14549,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -14453,7 +14559,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -14473,7 +14579,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -14483,10 +14589,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -14495,13 +14601,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -14509,7 +14615,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -14519,13 +14625,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -14533,10 +14639,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -14545,7 +14651,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -14555,7 +14661,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -14565,7 +14671,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -14575,7 +14681,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -14585,7 +14691,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -14595,7 +14701,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -14605,7 +14711,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -14615,13 +14721,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -14629,7 +14735,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -14639,7 +14745,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -14649,7 +14755,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -14659,7 +14765,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -14669,13 +14775,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -14683,10 +14789,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D52" s="15"/>
     </row>
@@ -14695,7 +14801,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -14705,7 +14811,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -14715,7 +14821,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -14725,7 +14831,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>

--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1177">
   <si>
     <t>id</t>
   </si>
@@ -1392,30 +1392,12 @@
     <t>US25001</t>
   </si>
   <si>
-    <t>US25003</t>
-  </si>
-  <si>
-    <t>US25004</t>
-  </si>
-  <si>
-    <t>US25005</t>
-  </si>
-  <si>
     <t>US25101</t>
   </si>
   <si>
-    <t>US25102</t>
-  </si>
-  <si>
     <t>US25201</t>
   </si>
   <si>
-    <t>US25208</t>
-  </si>
-  <si>
-    <t>US25526</t>
-  </si>
-  <si>
     <t>Blind</t>
   </si>
   <si>
@@ -3579,33 +3561,12 @@
     <t>CR</t>
   </si>
   <si>
-    <t>AMI</t>
-  </si>
-  <si>
-    <t>ACO</t>
-  </si>
-  <si>
-    <t>AWG</t>
-  </si>
-  <si>
     <t>WKD</t>
   </si>
   <si>
-    <t>The Coast of the Seven Winds</t>
-  </si>
-  <si>
-    <t>CSW</t>
-  </si>
-  <si>
     <t>ABE</t>
   </si>
   <si>
-    <t>AAR</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
     <t>US25002</t>
   </si>
   <si>
@@ -3613,30 +3574,6 @@
   </si>
   <si>
     <t>Aventuria Almanac</t>
-  </si>
-  <si>
-    <t>Aventurian Compendium</t>
-  </si>
-  <si>
-    <t>Aventurian Magic I</t>
-  </si>
-  <si>
-    <t>Aventurian Work of the Gods</t>
-  </si>
-  <si>
-    <t>US25006</t>
-  </si>
-  <si>
-    <t>Aventurian Magic II</t>
-  </si>
-  <si>
-    <t>AMII</t>
-  </si>
-  <si>
-    <t>Aventurian Armory</t>
-  </si>
-  <si>
-    <t>Aventurian Names</t>
   </si>
 </sst>
 </file>
@@ -3779,9 +3716,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -4033,6 +3967,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4159,8 +4096,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C12" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:C12" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4170,15 +4107,15 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{F4A0BFC1-E4B4-4E30-BD3A-41CC3BEACB5D}" name="short" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{F4A0BFC1-E4B4-4E30-BD3A-41CC3BEACB5D}" name="short" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:D54" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:D54" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:D54" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4186,17 +4123,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:D56" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4204,17 +4141,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4231,23 +4168,23 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:I93" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:I93" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:I93" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4260,8 +4197,8 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="effect"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="castingtime"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="aecost"/>
@@ -4275,7 +4212,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:P114" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:P114" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:P114" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4298,9 +4235,9 @@
     <sortCondition ref="A96"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="input"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="rules"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="effect"/>
@@ -4619,7 +4556,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4645,21 +4582,21 @@
         <v>448</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4667,10 +4604,10 @@
         <v>449</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1190</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -4678,88 +4615,46 @@
         <v>450</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1191</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1192</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>1194</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>590</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1182</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>591</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1196</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1197</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4799,22 +4694,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4825,7 +4720,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -4842,7 +4737,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -4859,7 +4754,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -4876,7 +4771,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -4893,7 +4788,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -4910,7 +4805,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -4927,7 +4822,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -4944,7 +4839,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -4961,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -4978,7 +4873,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -4995,7 +4890,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -5012,7 +4907,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -5029,7 +4924,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -5046,7 +4941,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -5063,7 +4958,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -5080,7 +4975,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -5097,7 +4992,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -5114,7 +5009,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -5131,7 +5026,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -5148,7 +5043,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -5165,7 +5060,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -5182,7 +5077,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -5199,7 +5094,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -5216,7 +5111,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -5233,7 +5128,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -5250,7 +5145,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -5267,7 +5162,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -5284,7 +5179,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -5301,7 +5196,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -5318,7 +5213,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -5335,7 +5230,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -5352,7 +5247,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -5369,7 +5264,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -5386,7 +5281,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>397</v>
@@ -5406,7 +5301,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -5423,7 +5318,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -5440,7 +5335,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -5457,7 +5352,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -5474,7 +5369,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -5491,7 +5386,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -5508,7 +5403,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -5525,7 +5420,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -5542,7 +5437,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -5559,7 +5454,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -5576,7 +5471,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -5593,7 +5488,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -5610,7 +5505,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -5627,7 +5522,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -5644,7 +5539,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -5661,7 +5556,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -5678,7 +5573,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -5695,7 +5590,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -5712,7 +5607,7 @@
         <v>56</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -5729,7 +5624,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -5746,7 +5641,7 @@
         <v>58</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -5763,7 +5658,7 @@
         <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -5780,7 +5675,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -5797,7 +5692,7 @@
         <v>61</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -5814,7 +5709,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -5993,25 +5888,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -6783,19 +6678,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7397,40 +7292,40 @@
         <v>122</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>717</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>718</v>
-      </c>
       <c r="P1" s="13" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -7474,7 +7369,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -7689,7 +7584,7 @@
         <v>202</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -7805,7 +7700,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -7814,7 +7709,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C43" s="5"/>
     </row>
@@ -7868,7 +7763,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -7895,7 +7790,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -7930,7 +7825,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -7938,7 +7833,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -7954,7 +7849,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -7973,7 +7868,7 @@
         <v>226</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -8005,7 +7900,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -8029,7 +7924,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C68" s="5"/>
     </row>
@@ -8354,7 +8249,7 @@
         <v>196</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C103" s="5"/>
     </row>
@@ -8444,7 +8339,7 @@
         <v>221</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="C113" s="5"/>
     </row>
@@ -8492,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -8500,7 +8395,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -8508,7 +8403,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -8516,7 +8411,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -8524,7 +8419,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -8532,7 +8427,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -8540,7 +8435,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -8548,7 +8443,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -8556,7 +8451,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -8564,7 +8459,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -8572,7 +8467,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -8588,7 +8483,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -8596,7 +8491,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -8612,7 +8507,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -8620,7 +8515,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -8628,7 +8523,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -8636,7 +8531,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -8644,7 +8539,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -8722,7 +8617,7 @@
         <v>408</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -8744,7 +8639,7 @@
         <v>410</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D7" s="18"/>
     </row>
@@ -8753,11 +8648,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8768,7 +8663,7 @@
         <v>411</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D9" s="18"/>
     </row>
@@ -8777,11 +8672,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -8793,7 +8688,7 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -8801,11 +8696,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -8817,7 +8712,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -8825,7 +8720,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -8849,7 +8744,7 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -8857,7 +8752,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -8871,7 +8766,7 @@
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -8883,7 +8778,7 @@
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -8901,7 +8796,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -8911,10 +8806,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D22" s="18"/>
     </row>
@@ -8923,11 +8818,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -8938,7 +8833,7 @@
         <v>419</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D24" s="18"/>
     </row>
@@ -8947,11 +8842,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -9016,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9024,7 +8919,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9048,7 +8943,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9056,7 +8951,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9064,7 +8959,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -9072,7 +8967,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9080,7 +8975,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -9088,7 +8983,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9096,7 +8991,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9104,7 +8999,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9112,7 +9007,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9120,7 +9015,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9128,7 +9023,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9136,7 +9031,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -9254,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9262,7 +9157,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9270,7 +9165,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -9278,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -9286,7 +9181,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9294,7 +9189,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9310,7 +9205,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9326,7 +9221,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9334,7 +9229,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9342,7 +9237,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9350,7 +9245,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9358,7 +9253,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9366,7 +9261,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9374,7 +9269,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -9390,7 +9285,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -9398,7 +9293,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -9406,7 +9301,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -9414,7 +9309,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -9422,7 +9317,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -9430,7 +9325,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -9438,7 +9333,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -9446,7 +9341,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -9454,7 +9349,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -9462,7 +9357,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -9470,7 +9365,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -9478,7 +9373,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -9486,7 +9381,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -9494,7 +9389,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -9502,7 +9397,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -9518,7 +9413,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -9526,7 +9421,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -9534,7 +9429,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -9542,7 +9437,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -9550,7 +9445,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -9558,7 +9453,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -9574,7 +9469,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -9582,7 +9477,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -9590,7 +9485,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -9598,7 +9493,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -9606,7 +9501,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -9614,7 +9509,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -9622,7 +9517,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -9630,7 +9525,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -9638,7 +9533,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -9646,7 +9541,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -9654,7 +9549,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -9662,7 +9557,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -9670,7 +9565,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -9678,7 +9573,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -9686,7 +9581,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -9694,7 +9589,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -9710,7 +9605,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -9718,7 +9613,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -9726,7 +9621,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -9734,7 +9629,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -9742,7 +9637,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -9750,7 +9645,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -9758,7 +9653,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -9766,7 +9661,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -9774,7 +9669,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -9782,7 +9677,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -9790,7 +9685,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -9798,7 +9693,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -9806,7 +9701,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -9814,7 +9709,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -9822,7 +9717,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -9830,7 +9725,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -9838,7 +9733,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -9846,7 +9741,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -9854,7 +9749,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -9862,7 +9757,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -9870,7 +9765,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -9878,7 +9773,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -9886,7 +9781,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -9894,7 +9789,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -9902,7 +9797,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -9918,7 +9813,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -9926,7 +9821,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -9934,7 +9829,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -9942,7 +9837,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -9950,7 +9845,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -9958,7 +9853,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -9966,7 +9861,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -9974,7 +9869,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -9982,7 +9877,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -9990,7 +9885,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -9998,7 +9893,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -10006,7 +9901,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -10014,7 +9909,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -10022,7 +9917,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -10030,7 +9925,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -10038,7 +9933,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -10046,7 +9941,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -10054,7 +9949,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -10062,7 +9957,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -10070,7 +9965,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -10078,7 +9973,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -10086,7 +9981,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -10094,7 +9989,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -10102,7 +9997,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -10110,7 +10005,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -10118,7 +10013,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -10126,7 +10021,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -10134,7 +10029,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -10142,7 +10037,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -10150,7 +10045,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -10158,7 +10053,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -10166,7 +10061,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -10174,7 +10069,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -10182,7 +10077,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -10190,7 +10085,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -10198,7 +10093,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -10206,7 +10101,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -10214,7 +10109,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -10222,7 +10117,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -10230,7 +10125,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -10238,7 +10133,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -10246,7 +10141,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -10254,7 +10149,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -10262,7 +10157,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -10270,7 +10165,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -10278,7 +10173,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -10286,7 +10181,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -10294,7 +10189,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -10310,7 +10205,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -10318,7 +10213,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -10326,7 +10221,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -10334,7 +10229,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -10342,7 +10237,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -10350,7 +10245,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -10358,7 +10253,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -10366,7 +10261,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -10374,7 +10269,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -10382,7 +10277,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -10390,7 +10285,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -10398,7 +10293,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -10406,7 +10301,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -10414,7 +10309,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -10422,7 +10317,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -10430,7 +10325,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -10438,7 +10333,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -10446,7 +10341,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -10454,7 +10349,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -10462,7 +10357,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -10478,7 +10373,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -10486,7 +10381,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -10494,7 +10389,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -10502,7 +10397,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -10510,7 +10405,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -10518,7 +10413,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -10526,7 +10421,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -10534,7 +10429,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -10542,7 +10437,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -10550,7 +10445,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -10558,7 +10453,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -10566,7 +10461,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -10574,7 +10469,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -10582,7 +10477,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -10590,7 +10485,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -10598,7 +10493,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -10606,7 +10501,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -10614,7 +10509,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -10622,7 +10517,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -10630,7 +10525,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -10638,7 +10533,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -10646,7 +10541,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -10654,7 +10549,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -10662,7 +10557,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -10670,7 +10565,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -10678,7 +10573,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -10686,7 +10581,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -10694,7 +10589,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -10702,7 +10597,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -10710,7 +10605,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -10718,7 +10613,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -10726,7 +10621,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -10734,7 +10629,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -10742,7 +10637,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -10750,7 +10645,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -10758,7 +10653,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -10766,7 +10661,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -10774,7 +10669,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -10782,7 +10677,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
@@ -10790,7 +10685,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -10798,7 +10693,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
@@ -10806,7 +10701,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -10814,7 +10709,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -10822,7 +10717,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -10830,7 +10725,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -10838,7 +10733,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -10846,7 +10741,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -10854,7 +10749,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -10862,7 +10757,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
@@ -10870,7 +10765,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
@@ -10878,7 +10773,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -10886,7 +10781,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -10894,7 +10789,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
@@ -10902,7 +10797,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -10918,7 +10813,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -10926,7 +10821,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
@@ -10934,7 +10829,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
@@ -10942,7 +10837,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
@@ -10950,7 +10845,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -10958,7 +10853,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -10974,7 +10869,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -10982,7 +10877,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
@@ -10990,7 +10885,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -10998,7 +10893,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -11006,7 +10901,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -11014,7 +10909,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -11022,7 +10917,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -11030,7 +10925,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -11038,7 +10933,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
@@ -11046,7 +10941,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
@@ -11054,7 +10949,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -11062,7 +10957,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
@@ -11070,7 +10965,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
@@ -11078,7 +10973,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
@@ -11086,7 +10981,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
@@ -11094,7 +10989,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
@@ -11102,7 +10997,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
@@ -11110,7 +11005,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -11118,7 +11013,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -11126,7 +11021,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -11134,7 +11029,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
@@ -11142,7 +11037,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
@@ -11150,7 +11045,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
@@ -11166,7 +11061,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -11174,7 +11069,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -11182,7 +11077,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -11190,7 +11085,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -11198,7 +11093,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
@@ -11206,7 +11101,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -11214,7 +11109,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -11222,7 +11117,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -11230,7 +11125,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -11238,7 +11133,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -11246,7 +11141,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -11254,7 +11149,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -11262,7 +11157,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -11270,7 +11165,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -11278,7 +11173,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -11286,7 +11181,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
@@ -11294,7 +11189,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
@@ -11310,7 +11205,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
@@ -11326,7 +11221,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
@@ -11334,7 +11229,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
@@ -11342,7 +11237,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
@@ -11358,7 +11253,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
@@ -11366,7 +11261,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
@@ -11374,7 +11269,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
@@ -11382,7 +11277,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
@@ -11390,7 +11285,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
@@ -11398,7 +11293,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
@@ -11406,7 +11301,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
@@ -11414,7 +11309,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
@@ -11422,7 +11317,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
@@ -11430,7 +11325,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
@@ -11454,7 +11349,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
@@ -11462,7 +11357,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
@@ -11470,7 +11365,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
@@ -11478,7 +11373,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
@@ -11486,7 +11381,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
@@ -11494,7 +11389,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
@@ -11502,7 +11397,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
@@ -11510,7 +11405,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
@@ -11518,7 +11413,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
@@ -11526,7 +11421,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -11534,7 +11429,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -11542,7 +11437,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -11550,7 +11445,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -11558,7 +11453,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -11566,7 +11461,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -11574,7 +11469,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -11582,7 +11477,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -11606,7 +11501,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -11614,7 +11509,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -11622,7 +11517,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -11630,7 +11525,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
@@ -11638,7 +11533,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
@@ -11646,7 +11541,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
@@ -11654,7 +11549,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
@@ -11662,7 +11557,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
@@ -11670,7 +11565,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
@@ -11678,7 +11573,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
@@ -11686,7 +11581,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
@@ -11726,7 +11621,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -11734,7 +11629,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -11750,7 +11645,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -11766,7 +11661,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -11774,7 +11669,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -11782,7 +11677,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
@@ -11790,7 +11685,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -11798,7 +11693,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
@@ -11806,7 +11701,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -11814,7 +11709,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -11822,7 +11717,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -11830,7 +11725,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -11838,7 +11733,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -11846,7 +11741,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -11854,7 +11749,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
@@ -11862,7 +11757,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
@@ -11870,7 +11765,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -11878,7 +11773,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -11886,7 +11781,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -11894,7 +11789,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -11902,7 +11797,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -11910,7 +11805,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -11918,7 +11813,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -11926,7 +11821,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -11934,7 +11829,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -11942,7 +11837,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -11950,7 +11845,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -11958,7 +11853,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -11966,7 +11861,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
@@ -11974,7 +11869,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
@@ -11982,7 +11877,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
@@ -11990,7 +11885,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
@@ -11998,7 +11893,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
@@ -12006,7 +11901,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
@@ -12014,7 +11909,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
@@ -12022,7 +11917,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
@@ -12030,7 +11925,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
@@ -12038,7 +11933,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
@@ -12046,7 +11941,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
@@ -12054,7 +11949,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
@@ -12062,7 +11957,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
@@ -12070,7 +11965,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
@@ -12078,7 +11973,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
@@ -12086,7 +11981,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
@@ -12094,7 +11989,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
@@ -12102,7 +11997,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
@@ -12110,7 +12005,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -12118,7 +12013,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.45">
@@ -12126,7 +12021,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -12134,7 +12029,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -12142,7 +12037,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -12150,7 +12045,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -12166,7 +12061,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.45">
@@ -12174,7 +12069,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="23" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.45">
@@ -12182,7 +12077,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.45">
@@ -12190,7 +12085,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="23" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.45">
@@ -12198,7 +12093,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="23" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.45">
@@ -12206,7 +12101,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.45">
@@ -12214,7 +12109,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.45">
@@ -12222,7 +12117,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.45">
@@ -12230,7 +12125,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.45">
@@ -12238,7 +12133,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.45">
@@ -12246,7 +12141,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.45">
@@ -12254,7 +12149,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.45">
@@ -12262,7 +12157,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="24" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.45">
@@ -12270,7 +12165,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="24" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.45">
@@ -12278,7 +12173,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="24" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.45">
@@ -12286,7 +12181,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="24" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.45">
@@ -12294,7 +12189,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="24" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -12325,31 +12220,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>1158</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>1163</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>1164</v>
-      </c>
       <c r="K1" s="25" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -12703,13 +12598,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -12717,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -12730,7 +12625,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
@@ -12743,7 +12638,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
@@ -12756,7 +12651,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
@@ -12769,7 +12664,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
@@ -12782,7 +12677,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
@@ -12795,7 +12690,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -12821,7 +12716,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -12834,7 +12729,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -12847,7 +12742,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -12860,7 +12755,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -12873,7 +12768,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -12886,7 +12781,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
@@ -12899,7 +12794,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
@@ -12912,7 +12807,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
@@ -12925,7 +12820,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
@@ -12938,10 +12833,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="16">
@@ -12953,10 +12848,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="16">
@@ -12968,10 +12863,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="16">
@@ -12983,10 +12878,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="16">
@@ -12998,10 +12893,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="16">
@@ -13013,10 +12908,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="16">
@@ -13028,13 +12923,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E25" s="16">
         <v>153</v>
@@ -13045,11 +12940,11 @@
         <v>26</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E26" s="16">
         <v>154</v>
@@ -13060,11 +12955,11 @@
         <v>27</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="20" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E27" s="16">
         <v>155</v>
@@ -13075,11 +12970,11 @@
         <v>28</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="20" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E28" s="16">
         <v>156</v>
@@ -13090,11 +12985,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E29" s="16">
         <v>157</v>
@@ -13105,11 +13000,11 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="20" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E30" s="16">
         <v>158</v>
@@ -13120,11 +13015,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E31" s="16">
         <v>159</v>
@@ -13163,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -13171,7 +13066,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -13179,7 +13074,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -13187,7 +13082,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -13195,7 +13090,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -13203,7 +13098,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -13211,7 +13106,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -13219,7 +13114,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -13227,7 +13122,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -13235,7 +13130,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -13243,7 +13138,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -13251,7 +13146,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -13259,7 +13154,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -13267,7 +13162,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -13275,7 +13170,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -13283,7 +13178,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -13291,7 +13186,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -13299,7 +13194,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -13307,7 +13202,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -13315,7 +13210,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -13323,7 +13218,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -13331,7 +13226,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -13339,7 +13234,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -13347,7 +13242,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -13355,7 +13250,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -13363,7 +13258,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -13371,7 +13266,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -13379,7 +13274,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -13387,7 +13282,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -13395,7 +13290,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -13403,7 +13298,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -13411,7 +13306,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -13419,7 +13314,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -13435,7 +13330,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -13443,7 +13338,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -13451,7 +13346,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -13459,7 +13354,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -13467,7 +13362,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -13475,7 +13370,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -13483,7 +13378,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -13491,7 +13386,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -13499,7 +13394,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -13507,7 +13402,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -13515,7 +13410,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -13523,7 +13418,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -13531,7 +13426,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -13539,7 +13434,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -13547,7 +13442,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -13555,7 +13450,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -13563,7 +13458,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -13571,7 +13466,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -13579,7 +13474,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -13587,7 +13482,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -13595,7 +13490,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -13603,7 +13498,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -13611,7 +13506,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -13619,7 +13514,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -13627,7 +13522,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -13635,7 +13530,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -13643,7 +13538,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -13685,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -13695,7 +13590,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -13705,7 +13600,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -13715,7 +13610,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -13725,7 +13620,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -13735,7 +13630,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -13745,7 +13640,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -13755,7 +13650,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -13765,7 +13660,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -13775,7 +13670,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -13785,7 +13680,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -13795,7 +13690,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -13805,7 +13700,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -13815,7 +13710,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -13825,7 +13720,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -13835,7 +13730,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -13845,7 +13740,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -13855,7 +13750,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -13865,7 +13760,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -13875,7 +13770,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -13885,7 +13780,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -13895,7 +13790,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -13905,7 +13800,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -13915,7 +13810,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -13925,7 +13820,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -13935,7 +13830,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -13945,7 +13840,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -13955,10 +13850,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -13967,10 +13862,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -13979,7 +13874,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -13989,7 +13884,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -13999,13 +13894,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -14013,7 +13908,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -14023,7 +13918,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -14033,7 +13928,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -14043,7 +13938,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -14053,7 +13948,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -14063,7 +13958,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -14073,7 +13968,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -14083,7 +13978,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -14093,7 +13988,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -14103,7 +13998,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -14113,7 +14008,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -14123,7 +14018,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -14133,7 +14028,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -14143,7 +14038,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -14153,7 +14048,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -14163,7 +14058,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -14173,7 +14068,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -14183,7 +14078,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -14193,7 +14088,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -14203,7 +14098,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -14213,7 +14108,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="9"/>
@@ -14259,13 +14154,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -14273,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -14283,7 +14178,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -14293,7 +14188,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -14303,7 +14198,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -14313,7 +14208,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -14323,7 +14218,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -14333,7 +14228,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -14343,7 +14238,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -14353,7 +14248,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -14363,7 +14258,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -14373,7 +14268,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -14383,7 +14278,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -14393,7 +14288,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -14403,7 +14298,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -14413,7 +14308,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -14423,7 +14318,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -14433,7 +14328,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -14443,7 +14338,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -14453,11 +14348,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -14465,7 +14360,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -14475,7 +14370,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -14485,7 +14380,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -14495,13 +14390,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -14509,7 +14404,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -14519,7 +14414,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -14529,7 +14424,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -14539,7 +14434,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -14549,7 +14444,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -14559,7 +14454,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -14579,7 +14474,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -14589,10 +14484,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -14601,13 +14496,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -14615,7 +14510,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -14625,13 +14520,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -14639,10 +14534,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -14651,7 +14546,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -14661,7 +14556,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -14671,7 +14566,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -14681,7 +14576,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -14691,7 +14586,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -14701,7 +14596,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -14711,7 +14606,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -14721,13 +14616,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -14735,7 +14630,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -14745,7 +14640,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -14755,7 +14650,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -14765,7 +14660,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -14775,13 +14670,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -14789,10 +14684,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D52" s="15"/>
     </row>
@@ -14801,7 +14696,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -14811,7 +14706,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -14821,7 +14716,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -14831,7 +14726,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>

--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -9,29 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="16" r:id="rId1"/>
     <sheet name="EXPERIENCE_LEVELS" sheetId="10" r:id="rId2"/>
     <sheet name="RACES" sheetId="9" r:id="rId3"/>
-    <sheet name="CULTURES" sheetId="11" r:id="rId4"/>
-    <sheet name="PROFESSIONS" sheetId="20" r:id="rId5"/>
-    <sheet name="PROFESSION_VARIANTS" sheetId="19" r:id="rId6"/>
-    <sheet name="ADVANTAGES" sheetId="17" r:id="rId7"/>
-    <sheet name="DISADVANTAGES" sheetId="18" r:id="rId8"/>
-    <sheet name="ATTRIBUTES" sheetId="2" r:id="rId9"/>
-    <sheet name="SKILLS" sheetId="1" r:id="rId10"/>
-    <sheet name="COMBAT_TECHNIQUES" sheetId="3" r:id="rId11"/>
-    <sheet name="SPELLS" sheetId="5" r:id="rId12"/>
-    <sheet name="CANTRIPS" sheetId="7" r:id="rId13"/>
-    <sheet name="CHANTS" sheetId="6" r:id="rId14"/>
-    <sheet name="BLESSINGS" sheetId="8" r:id="rId15"/>
-    <sheet name="SPECIAL_ABILITIES" sheetId="4" r:id="rId16"/>
-    <sheet name="TradeSecr" sheetId="12" r:id="rId17"/>
-    <sheet name="Languages" sheetId="14" r:id="rId18"/>
-    <sheet name="Scripts" sheetId="13" r:id="rId19"/>
-    <sheet name="EQUIPMENT" sheetId="15" r:id="rId20"/>
+    <sheet name="RACE_VARIANTS" sheetId="21" r:id="rId4"/>
+    <sheet name="CULTURES" sheetId="11" r:id="rId5"/>
+    <sheet name="PROFESSIONS" sheetId="20" r:id="rId6"/>
+    <sheet name="PROFESSION_VARIANTS" sheetId="19" r:id="rId7"/>
+    <sheet name="ADVANTAGES" sheetId="17" r:id="rId8"/>
+    <sheet name="DISADVANTAGES" sheetId="18" r:id="rId9"/>
+    <sheet name="ATTRIBUTES" sheetId="2" r:id="rId10"/>
+    <sheet name="SKILLS" sheetId="1" r:id="rId11"/>
+    <sheet name="COMBAT_TECHNIQUES" sheetId="3" r:id="rId12"/>
+    <sheet name="SPELLS" sheetId="5" r:id="rId13"/>
+    <sheet name="CANTRIPS" sheetId="7" r:id="rId14"/>
+    <sheet name="CHANTS" sheetId="6" r:id="rId15"/>
+    <sheet name="BLESSINGS" sheetId="8" r:id="rId16"/>
+    <sheet name="SPECIAL_ABILITIES" sheetId="4" r:id="rId17"/>
+    <sheet name="TradeSecr" sheetId="12" r:id="rId18"/>
+    <sheet name="Languages" sheetId="14" r:id="rId19"/>
+    <sheet name="Scripts" sheetId="13" r:id="rId20"/>
+    <sheet name="EQUIPMENT" sheetId="15" r:id="rId21"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1179">
   <si>
     <t>id</t>
   </si>
@@ -3574,6 +3575,12 @@
   </si>
   <si>
     <t>Aventuria Almanac</t>
+  </si>
+  <si>
+    <t>Humans</t>
+  </si>
+  <si>
+    <t>Elves</t>
   </si>
 </sst>
 </file>
@@ -3603,7 +3610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3611,7 +3617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3621,12 +3627,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3643,7 +3643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3707,15 +3707,77 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="58">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3983,7 +4045,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="57"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4096,7 +4158,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C5" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4106,16 +4168,70 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{F4A0BFC1-E4B4-4E30-BD3A-41CC3BEACB5D}" name="short" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{F4A0BFC1-E4B4-4E30-BD3A-41CC3BEACB5D}" name="short" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:D54" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F4EBD66C-A1B8-452D-AD9B-ACF74E5B43E6}" name="Tabelle8" displayName="Tabelle8" ref="A1:K5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:K5" xr:uid="{2042C063-6EE1-4199-8137-84D9DFC135ED}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6AE0CB14-3327-4947-98ED-CEA440A0B5F8}" name="id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{363DF784-966B-448E-8A28-8828ACA07107}" name="name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{8C348FB4-DFA2-46DE-8A89-F41231DDC3DA}" name="attributeAdjustments" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{56F12FF2-B66C-4FBF-BCED-A62E30CDB8EC}" name="automaticAdvantages" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{75147358-64EC-4748-9263-EABAED81B180}" name="stronglyRecommendedAdvantages" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{793E6E81-D895-4B40-A0A1-DDF73E1D4C45}" name="stronglyRecommendedDisadvantages" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{3CC0AB04-E650-45AB-ACDF-22CC69D00395}" name="commonAdvantages" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{D90E1736-D85D-41C4-9065-CAF48E439D19}" name="commonDisadvantages" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{F02651AA-8503-4FB5-878B-1F401CDF18A6}" name="uncommonAdvantages" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E1E8E3E3-D4DA-4EAF-96AA-F33A8D043C28}" name="uncommonDisadvantages" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{5E6FC294-E694-4809-86E8-D958B84DC9F4}" name="src" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A541EFAE-C5B2-4AB4-97CD-96EE92FD7FE0}" name="Tabelle21" displayName="Tabelle21" ref="A1:F11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:F11" xr:uid="{2BDC1AAA-8414-4E56-BA93-7D2EA38F96D1}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0ECA6BE0-0C10-4446-9C9F-C8C4405ACD31}" name="id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{25BE1181-A8B7-4D44-B5EF-EB32A2F0F755}" name="name" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{7132A039-B49C-49BE-90DF-3B87C83B25C3}" name="commonAdvantages" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{33B4DB96-7E38-4A36-8B83-9DCCCC53F89B}" name="commonDisadvantages" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{E821E091-CB68-4B50-8B68-D1EB7023A272}" name="uncommonAdvantages" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{7BBB8EEB-E059-46DD-B8CC-9C182E5BBB93}" name="uncommonDisadvantages" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:D54" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A1:D54" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4123,17 +4239,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:D56" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4141,17 +4257,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4168,23 +4284,23 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:I93" totalsRowShown="0" headerRowDxfId="6">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:I93" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:I93" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4197,8 +4313,8 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="effect"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="castingtime"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="aecost"/>
@@ -4211,8 +4327,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:P114" totalsRowShown="0" headerRowDxfId="3">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:P114" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:P114" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4235,9 +4351,9 @@
     <sortCondition ref="A96"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="input"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="rules"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="effect"/>
@@ -4555,7 +4671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4665,6 +4781,125 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
@@ -5726,7 +5961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -5865,7 +6100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
@@ -6656,7 +6891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -6794,7 +7029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
@@ -7141,7 +7376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -7264,7 +7499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P114"/>
   <sheetViews>
@@ -8360,7 +8595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -8547,7 +8782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -8878,161 +9113,6 @@
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>636</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9123,6 +9203,161 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B382"/>
   <sheetViews>
@@ -12199,17 +12434,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="10.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -12219,31 +12454,31 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>1152</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>1153</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>1154</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="14" t="s">
         <v>1156</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="14" t="s">
         <v>1157</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="14" t="s">
         <v>1158</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="14" t="s">
         <v>697</v>
       </c>
     </row>
@@ -12252,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -12260,7 +12495,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -12268,7 +12503,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -12276,79 +12511,180 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5187F9-D1B7-4211-B41C-EDD9EE90F63D}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -12575,11 +12911,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -13031,7 +13367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
@@ -13546,7 +13882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -14121,7 +14457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
@@ -14761,123 +15097,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="2.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="16" r:id="rId1"/>
@@ -676,9 +676,6 @@
     <t>Improve Dodge</t>
   </si>
   <si>
-    <t>Imrpove Attribute</t>
-  </si>
-  <si>
     <t>Improve Ranged Combat</t>
   </si>
   <si>
@@ -3581,6 +3578,9 @@
   </si>
   <si>
     <t>Elves</t>
+  </si>
+  <si>
+    <t>Improve Attribute</t>
   </si>
 </sst>
 </file>
@@ -3715,69 +3715,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="58">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -4032,6 +3969,69 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4177,7 +4177,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F4EBD66C-A1B8-452D-AD9B-ACF74E5B43E6}" name="Tabelle8" displayName="Tabelle8" ref="A1:K5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F4EBD66C-A1B8-452D-AD9B-ACF74E5B43E6}" name="Tabelle8" displayName="Tabelle8" ref="A1:K5" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A1:K5" xr:uid="{2042C063-6EE1-4199-8137-84D9DFC135ED}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4192,24 +4192,24 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6AE0CB14-3327-4947-98ED-CEA440A0B5F8}" name="id" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{363DF784-966B-448E-8A28-8828ACA07107}" name="name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{8C348FB4-DFA2-46DE-8A89-F41231DDC3DA}" name="attributeAdjustments" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{56F12FF2-B66C-4FBF-BCED-A62E30CDB8EC}" name="automaticAdvantages" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{75147358-64EC-4748-9263-EABAED81B180}" name="stronglyRecommendedAdvantages" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{793E6E81-D895-4B40-A0A1-DDF73E1D4C45}" name="stronglyRecommendedDisadvantages" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{3CC0AB04-E650-45AB-ACDF-22CC69D00395}" name="commonAdvantages" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{D90E1736-D85D-41C4-9065-CAF48E439D19}" name="commonDisadvantages" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{F02651AA-8503-4FB5-878B-1F401CDF18A6}" name="uncommonAdvantages" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E1E8E3E3-D4DA-4EAF-96AA-F33A8D043C28}" name="uncommonDisadvantages" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{5E6FC294-E694-4809-86E8-D958B84DC9F4}" name="src" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6AE0CB14-3327-4947-98ED-CEA440A0B5F8}" name="id" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{363DF784-966B-448E-8A28-8828ACA07107}" name="name" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{8C348FB4-DFA2-46DE-8A89-F41231DDC3DA}" name="attributeAdjustments" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{56F12FF2-B66C-4FBF-BCED-A62E30CDB8EC}" name="automaticAdvantages" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{75147358-64EC-4748-9263-EABAED81B180}" name="stronglyRecommendedAdvantages" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{793E6E81-D895-4B40-A0A1-DDF73E1D4C45}" name="stronglyRecommendedDisadvantages" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{3CC0AB04-E650-45AB-ACDF-22CC69D00395}" name="commonAdvantages" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{D90E1736-D85D-41C4-9065-CAF48E439D19}" name="commonDisadvantages" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{F02651AA-8503-4FB5-878B-1F401CDF18A6}" name="uncommonAdvantages" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{E1E8E3E3-D4DA-4EAF-96AA-F33A8D043C28}" name="uncommonDisadvantages" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{5E6FC294-E694-4809-86E8-D958B84DC9F4}" name="src" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A541EFAE-C5B2-4AB4-97CD-96EE92FD7FE0}" name="Tabelle21" displayName="Tabelle21" ref="A1:F11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A541EFAE-C5B2-4AB4-97CD-96EE92FD7FE0}" name="Tabelle21" displayName="Tabelle21" ref="A1:F11" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:F11" xr:uid="{2BDC1AAA-8414-4E56-BA93-7D2EA38F96D1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4219,19 +4219,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0ECA6BE0-0C10-4446-9C9F-C8C4405ACD31}" name="id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{25BE1181-A8B7-4D44-B5EF-EB32A2F0F755}" name="name" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{7132A039-B49C-49BE-90DF-3B87C83B25C3}" name="commonAdvantages" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{33B4DB96-7E38-4A36-8B83-9DCCCC53F89B}" name="commonDisadvantages" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{E821E091-CB68-4B50-8B68-D1EB7023A272}" name="uncommonAdvantages" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{7BBB8EEB-E059-46DD-B8CC-9C182E5BBB93}" name="uncommonDisadvantages" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{0ECA6BE0-0C10-4446-9C9F-C8C4405ACD31}" name="id" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{25BE1181-A8B7-4D44-B5EF-EB32A2F0F755}" name="name" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{7132A039-B49C-49BE-90DF-3B87C83B25C3}" name="commonAdvantages" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{33B4DB96-7E38-4A36-8B83-9DCCCC53F89B}" name="commonDisadvantages" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{E821E091-CB68-4B50-8B68-D1EB7023A272}" name="uncommonAdvantages" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{7BBB8EEB-E059-46DD-B8CC-9C182E5BBB93}" name="uncommonDisadvantages" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:D54" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:D54" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:D54" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4239,17 +4239,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:D56" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4257,17 +4257,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4284,23 +4284,23 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:I93" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:I93" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:I93" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4313,8 +4313,8 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="effect"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="castingtime"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="aecost"/>
@@ -4328,7 +4328,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:P114" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:P114" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:P114" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4351,9 +4351,9 @@
     <sortCondition ref="A96"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="input"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="rules"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="effect"/>
@@ -4695,46 +4695,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>1175</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -4929,22 +4929,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4955,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -4972,7 +4972,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -4989,7 +4989,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -5006,7 +5006,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -5023,7 +5023,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -5040,7 +5040,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -5057,7 +5057,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -5074,7 +5074,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -5091,7 +5091,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -5108,7 +5108,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -5125,7 +5125,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -5142,7 +5142,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -5159,7 +5159,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -5176,7 +5176,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -5193,7 +5193,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -5210,7 +5210,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -5227,7 +5227,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -5244,7 +5244,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -5261,7 +5261,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -5278,7 +5278,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -5295,7 +5295,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -5312,7 +5312,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -5329,7 +5329,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -5346,7 +5346,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -5363,7 +5363,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -5380,7 +5380,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -5397,7 +5397,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -5414,7 +5414,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -5431,7 +5431,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -5448,7 +5448,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -5465,7 +5465,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -5482,7 +5482,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -5499,7 +5499,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -5516,10 +5516,10 @@
         <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -5536,7 +5536,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -5553,7 +5553,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -5570,7 +5570,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -5587,7 +5587,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -5604,7 +5604,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -5621,7 +5621,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -5638,7 +5638,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -5655,7 +5655,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -5672,7 +5672,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -5689,7 +5689,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -5706,7 +5706,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -5723,7 +5723,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -5740,7 +5740,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -5757,7 +5757,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -5774,7 +5774,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -5791,7 +5791,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -5808,7 +5808,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -5825,7 +5825,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -5842,7 +5842,7 @@
         <v>56</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -5859,7 +5859,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -5876,7 +5876,7 @@
         <v>58</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -5893,7 +5893,7 @@
         <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -5910,7 +5910,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -5927,7 +5927,7 @@
         <v>61</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -5944,7 +5944,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -6123,25 +6123,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="I1" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -6157,7 +6157,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -6197,7 +6197,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -6205,7 +6205,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -6237,7 +6237,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -6245,7 +6245,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -6269,7 +6269,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -6277,7 +6277,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -6285,7 +6285,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -6293,7 +6293,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -6325,7 +6325,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -6333,7 +6333,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -6365,7 +6365,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -6413,7 +6413,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -6437,7 +6437,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -6445,7 +6445,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -6469,7 +6469,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -6477,7 +6477,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -6501,7 +6501,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -6517,7 +6517,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -6525,7 +6525,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -6549,7 +6549,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -6557,7 +6557,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -6565,7 +6565,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -6573,7 +6573,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -6581,7 +6581,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -6589,7 +6589,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -6597,7 +6597,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -6605,7 +6605,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -6613,7 +6613,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -6621,7 +6621,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -6629,7 +6629,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -6637,7 +6637,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -6645,7 +6645,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -6653,7 +6653,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -6661,7 +6661,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -6669,7 +6669,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -6677,7 +6677,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -6685,7 +6685,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -6693,7 +6693,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -6701,7 +6701,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -6725,7 +6725,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -6741,7 +6741,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -6749,7 +6749,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -6757,7 +6757,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -6765,7 +6765,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -6773,7 +6773,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -6797,7 +6797,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -6805,7 +6805,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -6821,7 +6821,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -6829,7 +6829,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -6837,7 +6837,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -6845,7 +6845,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -6913,19 +6913,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="G1" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6933,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -6941,7 +6941,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6949,7 +6949,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -6957,7 +6957,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -6965,7 +6965,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -6973,7 +6973,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -6981,7 +6981,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -6989,7 +6989,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -6997,7 +6997,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -7005,7 +7005,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -7013,7 +7013,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -7021,7 +7021,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -7064,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -7072,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -7080,7 +7080,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -7088,7 +7088,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -7096,7 +7096,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -7104,7 +7104,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -7112,7 +7112,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -7120,7 +7120,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -7128,7 +7128,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -7136,7 +7136,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -7144,7 +7144,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -7152,7 +7152,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -7160,7 +7160,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -7168,7 +7168,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -7176,7 +7176,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -7184,7 +7184,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -7192,7 +7192,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -7200,7 +7200,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -7208,7 +7208,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -7216,7 +7216,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -7224,7 +7224,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -7232,7 +7232,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -7240,7 +7240,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -7248,7 +7248,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -7256,7 +7256,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -7264,7 +7264,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -7272,7 +7272,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -7280,7 +7280,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -7288,7 +7288,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -7296,7 +7296,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -7304,7 +7304,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -7312,7 +7312,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -7320,7 +7320,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -7328,7 +7328,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -7336,7 +7336,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -7344,7 +7344,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -7352,7 +7352,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -7360,7 +7360,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -7368,7 +7368,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -7403,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -7411,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -7419,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -7427,7 +7427,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -7435,7 +7435,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -7443,7 +7443,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -7451,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -7459,7 +7459,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -7467,7 +7467,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -7475,7 +7475,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -7483,7 +7483,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -7491,7 +7491,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7503,8 +7503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7527,40 +7527,40 @@
         <v>122</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>712</v>
-      </c>
       <c r="P1" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -7604,7 +7604,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -7670,7 +7670,7 @@
         <v>186</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -7819,7 +7819,7 @@
         <v>202</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -7890,7 +7890,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>210</v>
+        <v>1178</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -7899,7 +7899,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -7908,7 +7908,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C39" s="5"/>
     </row>
@@ -7917,7 +7917,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" s="5"/>
     </row>
@@ -7926,7 +7926,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="5"/>
     </row>
@@ -7935,7 +7935,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -7944,7 +7944,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C43" s="5"/>
     </row>
@@ -7953,7 +7953,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C44" s="5"/>
     </row>
@@ -7962,7 +7962,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="5"/>
     </row>
@@ -7971,7 +7971,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C46" s="5"/>
     </row>
@@ -7980,7 +7980,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C47" s="5"/>
     </row>
@@ -7989,7 +7989,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C48" s="5"/>
     </row>
@@ -7998,7 +7998,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -8007,7 +8007,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C50" s="5"/>
     </row>
@@ -8016,7 +8016,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" s="5"/>
     </row>
@@ -8025,7 +8025,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -8034,7 +8034,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="5"/>
     </row>
@@ -8043,7 +8043,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" s="5"/>
     </row>
@@ -8052,7 +8052,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -8060,7 +8060,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -8068,7 +8068,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -8084,7 +8084,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -8092,7 +8092,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -8100,10 +8100,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -8111,7 +8111,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -8119,7 +8119,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -8127,7 +8127,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -8135,7 +8135,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -8143,7 +8143,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -8151,7 +8151,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -8159,7 +8159,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C68" s="5"/>
     </row>
@@ -8168,7 +8168,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C69" s="5"/>
     </row>
@@ -8177,7 +8177,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C70" s="5"/>
     </row>
@@ -8189,7 +8189,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -8197,7 +8197,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C72" s="5"/>
     </row>
@@ -8206,10 +8206,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -8217,7 +8217,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C74" s="5"/>
     </row>
@@ -8226,7 +8226,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C75" s="5"/>
     </row>
@@ -8235,7 +8235,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" s="5"/>
     </row>
@@ -8244,7 +8244,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C77" s="5"/>
     </row>
@@ -8253,7 +8253,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C78" s="5"/>
     </row>
@@ -8262,7 +8262,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C79" s="5"/>
     </row>
@@ -8271,7 +8271,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C80" s="5"/>
     </row>
@@ -8280,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C81" s="5"/>
     </row>
@@ -8289,10 +8289,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -8300,7 +8300,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C83" s="5"/>
     </row>
@@ -8309,7 +8309,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C84" s="5"/>
     </row>
@@ -8318,7 +8318,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C85" s="5"/>
     </row>
@@ -8327,7 +8327,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C86" s="5"/>
     </row>
@@ -8339,7 +8339,7 @@
         <v>81</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -8347,10 +8347,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -8358,7 +8358,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C89" s="5"/>
     </row>
@@ -8367,7 +8367,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C90" s="5"/>
     </row>
@@ -8376,7 +8376,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" s="5"/>
     </row>
@@ -8385,7 +8385,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92" s="5"/>
     </row>
@@ -8394,7 +8394,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C93" s="5"/>
     </row>
@@ -8403,7 +8403,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C94" s="5"/>
     </row>
@@ -8412,7 +8412,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C95" s="5"/>
     </row>
@@ -8421,7 +8421,7 @@
         <v>176</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C96" s="5"/>
     </row>
@@ -8430,7 +8430,7 @@
         <v>177</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C97" s="5"/>
     </row>
@@ -8439,7 +8439,7 @@
         <v>180</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C98" s="5"/>
     </row>
@@ -8448,7 +8448,7 @@
         <v>181</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C99" s="5"/>
     </row>
@@ -8457,7 +8457,7 @@
         <v>187</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C100" s="5"/>
     </row>
@@ -8466,7 +8466,7 @@
         <v>188</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C101" s="5"/>
     </row>
@@ -8475,7 +8475,7 @@
         <v>191</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C102" s="5"/>
     </row>
@@ -8484,7 +8484,7 @@
         <v>196</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C103" s="5"/>
     </row>
@@ -8493,7 +8493,7 @@
         <v>197</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C104" s="5"/>
     </row>
@@ -8502,7 +8502,7 @@
         <v>199</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C105" s="5"/>
     </row>
@@ -8511,7 +8511,7 @@
         <v>204</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C106" s="5"/>
     </row>
@@ -8520,7 +8520,7 @@
         <v>207</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C107" s="5"/>
     </row>
@@ -8529,7 +8529,7 @@
         <v>209</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C108" s="5"/>
     </row>
@@ -8538,7 +8538,7 @@
         <v>212</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C109" s="5"/>
     </row>
@@ -8547,7 +8547,7 @@
         <v>216</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C110" s="5"/>
     </row>
@@ -8556,7 +8556,7 @@
         <v>219</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C111" s="5"/>
     </row>
@@ -8565,7 +8565,7 @@
         <v>220</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C112" s="5"/>
     </row>
@@ -8574,7 +8574,7 @@
         <v>221</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C113" s="5"/>
     </row>
@@ -8583,7 +8583,7 @@
         <v>223</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C114" s="5"/>
     </row>
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -8630,7 +8630,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -8638,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -8646,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -8654,7 +8654,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -8662,7 +8662,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -8670,7 +8670,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -8678,7 +8678,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -8686,7 +8686,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -8694,7 +8694,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -8702,7 +8702,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -8710,7 +8710,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -8718,7 +8718,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -8726,7 +8726,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -8734,7 +8734,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -8742,7 +8742,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -8750,7 +8750,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -8758,7 +8758,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -8766,7 +8766,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -8774,7 +8774,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -8807,7 +8807,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8815,10 +8815,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>403</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>404</v>
       </c>
       <c r="D2" s="18"/>
     </row>
@@ -8827,7 +8827,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -8837,10 +8837,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>406</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>407</v>
       </c>
       <c r="D4" s="18"/>
     </row>
@@ -8849,10 +8849,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -8861,7 +8861,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -8871,10 +8871,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D7" s="18"/>
     </row>
@@ -8883,11 +8883,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8895,10 +8895,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D9" s="18"/>
     </row>
@@ -8907,11 +8907,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -8919,11 +8919,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -8931,11 +8931,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -8943,11 +8943,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -8955,7 +8955,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -8965,7 +8965,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -8975,11 +8975,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -8987,7 +8987,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -8997,11 +8997,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -9009,11 +9009,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -9021,7 +9021,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -9031,7 +9031,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -9041,10 +9041,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>617</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>618</v>
       </c>
       <c r="D22" s="18"/>
     </row>
@@ -9053,11 +9053,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -9065,10 +9065,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D24" s="18"/>
     </row>
@@ -9077,11 +9077,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -9089,7 +9089,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -9099,7 +9099,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9237,7 +9237,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9245,7 +9245,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -9253,7 +9253,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -9261,7 +9261,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9269,7 +9269,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9277,7 +9277,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -9285,7 +9285,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9293,7 +9293,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -9301,7 +9301,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9309,7 +9309,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9317,7 +9317,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9325,7 +9325,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9333,7 +9333,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9341,7 +9341,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9349,7 +9349,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -9384,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9392,7 +9392,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9400,7 +9400,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -9408,7 +9408,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -9416,7 +9416,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9424,7 +9424,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9432,7 +9432,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -9440,7 +9440,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9448,7 +9448,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -9456,7 +9456,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9464,7 +9464,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9472,7 +9472,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9480,7 +9480,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9488,7 +9488,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9496,7 +9496,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9504,7 +9504,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -9512,7 +9512,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -9520,7 +9520,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -9528,7 +9528,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -9536,7 +9536,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -9544,7 +9544,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -9552,7 +9552,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -9560,7 +9560,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -9568,7 +9568,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -9576,7 +9576,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -9584,7 +9584,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -9592,7 +9592,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -9600,7 +9600,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -9608,7 +9608,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -9616,7 +9616,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -9624,7 +9624,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -9632,7 +9632,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -9640,7 +9640,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -9648,7 +9648,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -9656,7 +9656,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -9664,7 +9664,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -9672,7 +9672,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -9680,7 +9680,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -9688,7 +9688,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -9696,7 +9696,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -9704,7 +9704,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -9712,7 +9712,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -9720,7 +9720,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -9728,7 +9728,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -9736,7 +9736,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -9744,7 +9744,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -9752,7 +9752,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -9760,7 +9760,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -9768,7 +9768,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -9776,7 +9776,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -9784,7 +9784,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -9792,7 +9792,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -9800,7 +9800,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -9808,7 +9808,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -9816,7 +9816,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -9824,7 +9824,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -9832,7 +9832,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -9840,7 +9840,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -9848,7 +9848,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -9856,7 +9856,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -9864,7 +9864,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -9872,7 +9872,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -9880,7 +9880,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -9888,7 +9888,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -9896,7 +9896,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -9904,7 +9904,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -9912,7 +9912,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -9920,7 +9920,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -9928,7 +9928,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -9936,7 +9936,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -9944,7 +9944,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -9952,7 +9952,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -9960,7 +9960,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -9968,7 +9968,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -9976,7 +9976,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -9984,7 +9984,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -9992,7 +9992,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -10000,7 +10000,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -10008,7 +10008,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -10016,7 +10016,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -10024,7 +10024,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -10032,7 +10032,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -10040,7 +10040,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -10048,7 +10048,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -10056,7 +10056,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -10064,7 +10064,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -10072,7 +10072,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -10080,7 +10080,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -10088,7 +10088,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -10096,7 +10096,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -10104,7 +10104,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -10112,7 +10112,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -10120,7 +10120,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -10128,7 +10128,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -10136,7 +10136,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -10144,7 +10144,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -10152,7 +10152,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -10160,7 +10160,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -10168,7 +10168,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -10176,7 +10176,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -10184,7 +10184,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -10192,7 +10192,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -10200,7 +10200,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -10208,7 +10208,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -10216,7 +10216,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -10224,7 +10224,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -10232,7 +10232,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -10248,7 +10248,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -10256,7 +10256,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -10264,7 +10264,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -10272,7 +10272,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -10280,7 +10280,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -10288,7 +10288,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -10296,7 +10296,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -10304,7 +10304,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -10312,7 +10312,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -10320,7 +10320,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -10328,7 +10328,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -10336,7 +10336,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -10344,7 +10344,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -10352,7 +10352,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -10360,7 +10360,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -10368,7 +10368,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -10376,7 +10376,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -10384,7 +10384,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -10392,7 +10392,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -10400,7 +10400,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -10408,7 +10408,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -10416,7 +10416,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -10424,7 +10424,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -10432,7 +10432,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -10440,7 +10440,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -10448,7 +10448,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -10456,7 +10456,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -10464,7 +10464,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -10472,7 +10472,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -10480,7 +10480,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -10488,7 +10488,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -10496,7 +10496,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -10504,7 +10504,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -10512,7 +10512,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -10520,7 +10520,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -10528,7 +10528,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -10536,7 +10536,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -10544,7 +10544,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -10552,7 +10552,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -10560,7 +10560,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -10568,7 +10568,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -10576,7 +10576,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -10584,7 +10584,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -10592,7 +10592,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -10600,7 +10600,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
@@ -10608,7 +10608,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -10616,7 +10616,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -10624,7 +10624,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -10632,7 +10632,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -10640,7 +10640,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -10648,7 +10648,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -10656,7 +10656,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -10664,7 +10664,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -10672,7 +10672,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -10680,7 +10680,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -10688,7 +10688,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -10696,7 +10696,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -10704,7 +10704,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -10712,7 +10712,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -10720,7 +10720,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -10728,7 +10728,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -10736,7 +10736,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -10744,7 +10744,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -10752,7 +10752,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -10760,7 +10760,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -10768,7 +10768,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -10776,7 +10776,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -10784,7 +10784,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -10792,7 +10792,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -10800,7 +10800,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -10808,7 +10808,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -10816,7 +10816,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -10824,7 +10824,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -10832,7 +10832,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -10840,7 +10840,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -10848,7 +10848,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -10856,7 +10856,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -10864,7 +10864,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -10872,7 +10872,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -10880,7 +10880,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -10888,7 +10888,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -10896,7 +10896,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -10904,7 +10904,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -10912,7 +10912,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
@@ -10920,7 +10920,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -10928,7 +10928,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
@@ -10936,7 +10936,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -10944,7 +10944,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -10952,7 +10952,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -10960,7 +10960,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -10968,7 +10968,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -10976,7 +10976,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -10984,7 +10984,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -10992,7 +10992,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
@@ -11000,7 +11000,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
@@ -11008,7 +11008,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -11016,7 +11016,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -11024,7 +11024,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
@@ -11032,7 +11032,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -11040,7 +11040,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
@@ -11048,7 +11048,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -11056,7 +11056,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
@@ -11064,7 +11064,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
@@ -11072,7 +11072,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
@@ -11080,7 +11080,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -11088,7 +11088,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -11096,7 +11096,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
@@ -11104,7 +11104,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -11112,7 +11112,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
@@ -11120,7 +11120,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -11128,7 +11128,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -11136,7 +11136,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -11144,7 +11144,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -11152,7 +11152,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -11160,7 +11160,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -11168,7 +11168,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
@@ -11176,7 +11176,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
@@ -11184,7 +11184,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -11192,7 +11192,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
@@ -11200,7 +11200,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
@@ -11208,7 +11208,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
@@ -11216,7 +11216,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
@@ -11224,7 +11224,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
@@ -11232,7 +11232,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
@@ -11240,7 +11240,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -11248,7 +11248,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -11256,7 +11256,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -11264,7 +11264,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
@@ -11272,7 +11272,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
@@ -11280,7 +11280,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
@@ -11288,7 +11288,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.45">
@@ -11296,7 +11296,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -11304,7 +11304,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -11312,7 +11312,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -11320,7 +11320,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -11328,7 +11328,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
@@ -11336,7 +11336,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -11344,7 +11344,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -11352,7 +11352,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -11360,7 +11360,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -11368,7 +11368,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -11376,7 +11376,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -11384,7 +11384,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -11392,7 +11392,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -11400,7 +11400,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -11408,7 +11408,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -11416,7 +11416,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
@@ -11424,7 +11424,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
@@ -11432,7 +11432,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.45">
@@ -11440,7 +11440,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
@@ -11448,7 +11448,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.45">
@@ -11456,7 +11456,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
@@ -11464,7 +11464,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
@@ -11472,7 +11472,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
@@ -11480,7 +11480,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
@@ -11488,7 +11488,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
@@ -11496,7 +11496,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
@@ -11504,7 +11504,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
@@ -11512,7 +11512,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
@@ -11520,7 +11520,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
@@ -11528,7 +11528,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
@@ -11536,7 +11536,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
@@ -11544,7 +11544,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
@@ -11552,7 +11552,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
@@ -11560,7 +11560,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
@@ -11568,7 +11568,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.45">
@@ -11576,7 +11576,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.45">
@@ -11584,7 +11584,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
@@ -11592,7 +11592,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
@@ -11600,7 +11600,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
@@ -11608,7 +11608,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
@@ -11616,7 +11616,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
@@ -11624,7 +11624,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
@@ -11632,7 +11632,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
@@ -11640,7 +11640,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
@@ -11648,7 +11648,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
@@ -11656,7 +11656,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -11664,7 +11664,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -11672,7 +11672,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -11680,7 +11680,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -11688,7 +11688,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -11696,7 +11696,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -11704,7 +11704,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -11712,7 +11712,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -11720,7 +11720,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.45">
@@ -11728,7 +11728,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.45">
@@ -11736,7 +11736,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -11744,7 +11744,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -11752,7 +11752,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -11760,7 +11760,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
@@ -11768,7 +11768,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
@@ -11776,7 +11776,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
@@ -11784,7 +11784,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
@@ -11792,7 +11792,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
@@ -11800,7 +11800,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
@@ -11808,7 +11808,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
@@ -11816,7 +11816,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
@@ -11824,7 +11824,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.45">
@@ -11832,7 +11832,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.45">
@@ -11840,7 +11840,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.45">
@@ -11848,7 +11848,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.45">
@@ -11856,7 +11856,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -11864,7 +11864,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -11872,7 +11872,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.45">
@@ -11880,7 +11880,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -11888,7 +11888,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.45">
@@ -11896,7 +11896,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -11904,7 +11904,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -11912,7 +11912,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
@@ -11920,7 +11920,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -11928,7 +11928,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
@@ -11936,7 +11936,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -11944,7 +11944,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -11952,7 +11952,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -11960,7 +11960,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -11968,7 +11968,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -11976,7 +11976,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -11984,7 +11984,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
@@ -11992,7 +11992,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
@@ -12000,7 +12000,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -12008,7 +12008,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -12016,7 +12016,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -12024,7 +12024,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -12032,7 +12032,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -12040,7 +12040,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -12048,7 +12048,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -12056,7 +12056,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -12064,7 +12064,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -12072,7 +12072,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -12080,7 +12080,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -12088,7 +12088,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -12096,7 +12096,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
@@ -12104,7 +12104,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
@@ -12112,7 +12112,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
@@ -12120,7 +12120,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
@@ -12128,7 +12128,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
@@ -12136,7 +12136,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
@@ -12144,7 +12144,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
@@ -12152,7 +12152,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
@@ -12160,7 +12160,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
@@ -12168,7 +12168,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
@@ -12176,7 +12176,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
@@ -12184,7 +12184,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
@@ -12192,7 +12192,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
@@ -12200,7 +12200,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
@@ -12208,7 +12208,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
@@ -12216,7 +12216,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
@@ -12224,7 +12224,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
@@ -12232,7 +12232,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
@@ -12240,7 +12240,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -12248,7 +12248,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.45">
@@ -12256,7 +12256,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -12264,7 +12264,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -12272,7 +12272,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -12280,7 +12280,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -12288,7 +12288,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.45">
@@ -12296,7 +12296,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.45">
@@ -12304,7 +12304,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="23" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.45">
@@ -12312,7 +12312,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.45">
@@ -12320,7 +12320,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="23" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.45">
@@ -12328,7 +12328,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.45">
@@ -12336,7 +12336,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.45">
@@ -12344,7 +12344,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.45">
@@ -12352,7 +12352,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.45">
@@ -12360,7 +12360,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.45">
@@ -12368,7 +12368,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.45">
@@ -12376,7 +12376,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.45">
@@ -12384,7 +12384,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.45">
@@ -12392,7 +12392,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="24" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.45">
@@ -12400,7 +12400,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="24" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.45">
@@ -12408,7 +12408,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="24" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.45">
@@ -12416,7 +12416,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="24" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.45">
@@ -12424,7 +12424,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="24" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -12436,7 +12436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -12455,31 +12455,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>1151</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>1152</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>1153</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>1156</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>1157</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>1158</v>
-      </c>
       <c r="K1" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -12487,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -12495,7 +12495,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -12544,16 +12544,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>1156</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>1157</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -12934,13 +12934,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>581</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -12948,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -12961,7 +12961,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
@@ -12974,7 +12974,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
@@ -12987,7 +12987,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
@@ -13000,7 +13000,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
@@ -13013,7 +13013,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
@@ -13026,7 +13026,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -13052,7 +13052,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -13065,7 +13065,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -13078,7 +13078,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -13091,7 +13091,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -13104,7 +13104,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -13117,7 +13117,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
@@ -13130,7 +13130,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
@@ -13143,7 +13143,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
@@ -13156,7 +13156,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
@@ -13169,10 +13169,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>728</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>729</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="16">
@@ -13184,10 +13184,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>730</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>731</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="16">
@@ -13199,10 +13199,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>732</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>733</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="16">
@@ -13214,10 +13214,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>734</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>735</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="16">
@@ -13229,10 +13229,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>736</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>737</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="16">
@@ -13244,10 +13244,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>738</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>739</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="16">
@@ -13259,13 +13259,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>740</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>741</v>
       </c>
       <c r="E25" s="16">
         <v>153</v>
@@ -13276,11 +13276,11 @@
         <v>26</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E26" s="16">
         <v>154</v>
@@ -13291,11 +13291,11 @@
         <v>27</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E27" s="16">
         <v>155</v>
@@ -13306,11 +13306,11 @@
         <v>28</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E28" s="16">
         <v>156</v>
@@ -13321,11 +13321,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E29" s="16">
         <v>157</v>
@@ -13336,11 +13336,11 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E30" s="16">
         <v>158</v>
@@ -13351,11 +13351,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E31" s="16">
         <v>159</v>
@@ -13394,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -13402,7 +13402,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -13410,7 +13410,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -13418,7 +13418,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -13426,7 +13426,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -13434,7 +13434,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -13442,7 +13442,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -13450,7 +13450,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -13458,7 +13458,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -13466,7 +13466,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -13474,7 +13474,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -13482,7 +13482,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -13490,7 +13490,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -13498,7 +13498,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -13506,7 +13506,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -13514,7 +13514,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -13522,7 +13522,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -13530,7 +13530,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -13538,7 +13538,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -13546,7 +13546,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -13554,7 +13554,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -13562,7 +13562,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -13570,7 +13570,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -13578,7 +13578,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -13586,7 +13586,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -13594,7 +13594,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -13602,7 +13602,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -13610,7 +13610,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -13618,7 +13618,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -13626,7 +13626,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -13634,7 +13634,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -13642,7 +13642,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -13650,7 +13650,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -13666,7 +13666,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -13674,7 +13674,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -13682,7 +13682,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -13690,7 +13690,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -13698,7 +13698,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -13706,7 +13706,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -13714,7 +13714,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -13722,7 +13722,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -13730,7 +13730,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -13738,7 +13738,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -13746,7 +13746,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -13754,7 +13754,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -13762,7 +13762,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -13770,7 +13770,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -13778,7 +13778,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -13786,7 +13786,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -13794,7 +13794,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -13802,7 +13802,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -13810,7 +13810,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -13818,7 +13818,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -13826,7 +13826,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -13834,7 +13834,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -13842,7 +13842,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -13850,7 +13850,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -13858,7 +13858,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -13866,7 +13866,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -13874,7 +13874,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -13916,7 +13916,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -13926,7 +13926,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -13936,7 +13936,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -13946,7 +13946,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -13956,7 +13956,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -13966,7 +13966,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -13976,7 +13976,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -13986,7 +13986,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -13996,7 +13996,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -14006,7 +14006,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -14016,7 +14016,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -14026,7 +14026,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -14036,7 +14036,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -14046,7 +14046,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -14056,7 +14056,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -14066,7 +14066,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -14076,7 +14076,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -14086,7 +14086,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -14096,7 +14096,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -14106,7 +14106,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -14116,7 +14116,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -14126,7 +14126,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -14136,7 +14136,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -14146,7 +14146,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -14156,7 +14156,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -14166,7 +14166,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -14176,7 +14176,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -14186,10 +14186,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -14198,10 +14198,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -14210,7 +14210,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -14220,7 +14220,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -14230,13 +14230,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -14244,7 +14244,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -14254,7 +14254,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -14264,7 +14264,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -14274,7 +14274,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -14284,7 +14284,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -14294,7 +14294,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -14304,7 +14304,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -14314,7 +14314,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -14324,7 +14324,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -14334,7 +14334,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -14344,7 +14344,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -14354,7 +14354,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -14364,7 +14364,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -14374,7 +14374,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -14384,7 +14384,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -14394,7 +14394,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -14404,7 +14404,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -14414,7 +14414,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -14424,7 +14424,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -14434,7 +14434,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -14444,7 +14444,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="9"/>
@@ -14490,13 +14490,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>511</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -14514,7 +14514,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -14524,7 +14524,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -14534,7 +14534,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -14544,7 +14544,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -14554,7 +14554,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -14564,7 +14564,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -14574,7 +14574,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -14584,7 +14584,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -14594,7 +14594,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -14604,7 +14604,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -14614,7 +14614,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -14624,7 +14624,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -14634,7 +14634,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -14644,7 +14644,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -14654,7 +14654,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -14664,7 +14664,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -14674,7 +14674,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -14684,11 +14684,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -14696,7 +14696,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -14706,7 +14706,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -14716,7 +14716,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -14726,13 +14726,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>536</v>
-      </c>
       <c r="D25" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -14740,7 +14740,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -14750,7 +14750,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -14760,7 +14760,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -14770,7 +14770,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -14780,7 +14780,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -14790,7 +14790,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -14800,7 +14800,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -14810,7 +14810,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -14820,10 +14820,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>544</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -14832,13 +14832,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>547</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -14846,7 +14846,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -14856,13 +14856,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>550</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -14870,10 +14870,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>552</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>553</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -14882,7 +14882,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -14892,7 +14892,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -14902,7 +14902,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -14912,7 +14912,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -14922,7 +14922,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -14932,7 +14932,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -14942,7 +14942,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -14952,13 +14952,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -14966,7 +14966,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -14976,7 +14976,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -14986,7 +14986,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -14996,7 +14996,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -15006,13 +15006,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>567</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -15020,10 +15020,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>570</v>
       </c>
       <c r="D52" s="15"/>
     </row>
@@ -15032,7 +15032,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -15042,7 +15042,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -15052,7 +15052,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -15062,7 +15062,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>

--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="16" r:id="rId1"/>
@@ -1684,9 +1684,6 @@
     <t>Principles</t>
   </si>
   <si>
-    <t>1?99 Laws&amp;2?Code of the Church of Hesinde&amp;3?Code of the Church of Phex&amp;4?Code of the Church of Peraine&amp;5?99 Laws (Strict)&amp;6?Warrior's Honor&amp;7?Knight's Honor&amp;8?Elven worldview&amp;9?Code of the Church of Boron&amp;10?Code of the Church of Praios&amp;11?Code of the Church of Rondra&amp;12?Dwarven Code&amp;13?99 Laws (radical)&amp;14?Pacifism</t>
-  </si>
-  <si>
     <t>Principle</t>
   </si>
   <si>
@@ -1753,9 +1750,6 @@
     <t>Maimed</t>
   </si>
   <si>
-    <t>1?One-Armed?30&amp;2?One-Eyed?10&amp;3?One-Legged?30&amp;4?One-Handed?20&amp;5?One-Eared?5</t>
-  </si>
-  <si>
     <t>True Name</t>
   </si>
   <si>
@@ -3581,6 +3575,12 @@
   </si>
   <si>
     <t>Improve Attribute</t>
+  </si>
+  <si>
+    <t>1?99 Laws&amp;2?Code of the Church of Hesinde&amp;3?Code of the Church of Phex&amp;4?Code of the Church of Peraine&amp;5?Warrior's Honor&amp;6?Knight's Honor&amp;7?Elven worldview&amp;8?Code of the Church of Boron&amp;9?Code of the Church of Praios&amp;10?Code of the Church of Rondra&amp;11?Dwarven Code&amp;12?Pacifism</t>
+  </si>
+  <si>
+    <t>1?One-Armed&amp;2?One-Eyed&amp;3?One-Legged&amp;4?One-Handed&amp;5?One-Eared</t>
   </si>
 </sst>
 </file>
@@ -4698,21 +4698,21 @@
         <v>447</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>1173</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4720,10 +4720,10 @@
         <v>448</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -4731,10 +4731,10 @@
         <v>449</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -4929,22 +4929,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>694</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4955,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -4972,7 +4972,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -4989,7 +4989,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -5006,7 +5006,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -5023,7 +5023,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -5040,7 +5040,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -5057,7 +5057,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -5074,7 +5074,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -5091,7 +5091,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -5108,7 +5108,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -5125,7 +5125,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -5142,7 +5142,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -5159,7 +5159,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -5176,7 +5176,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -5193,7 +5193,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -5210,7 +5210,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -5227,7 +5227,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -5244,7 +5244,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -5261,7 +5261,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -5278,7 +5278,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -5295,7 +5295,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -5312,7 +5312,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -5329,7 +5329,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -5346,7 +5346,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -5363,7 +5363,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -5380,7 +5380,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -5397,7 +5397,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -5414,7 +5414,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -5431,7 +5431,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -5448,7 +5448,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -5465,7 +5465,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -5482,7 +5482,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -5499,7 +5499,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -5516,7 +5516,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>396</v>
@@ -5536,7 +5536,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -5553,7 +5553,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -5570,7 +5570,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -5587,7 +5587,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -5604,7 +5604,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -5621,7 +5621,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -5638,7 +5638,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -5655,7 +5655,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -5672,7 +5672,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -5689,7 +5689,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -5706,7 +5706,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -5723,7 +5723,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -5740,7 +5740,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -5757,7 +5757,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -5774,7 +5774,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -5791,7 +5791,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -5808,7 +5808,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -5825,7 +5825,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -5842,7 +5842,7 @@
         <v>56</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -5859,7 +5859,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -5876,7 +5876,7 @@
         <v>58</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -5893,7 +5893,7 @@
         <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -5910,7 +5910,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -5927,7 +5927,7 @@
         <v>61</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -5944,7 +5944,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -6123,25 +6123,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>702</v>
-      </c>
       <c r="I1" s="13" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -6913,19 +6913,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>702</v>
-      </c>
       <c r="G1" s="13" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7503,8 +7503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7527,40 +7527,40 @@
         <v>122</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>711</v>
-      </c>
       <c r="P1" s="13" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -7604,7 +7604,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -7890,7 +7890,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -7935,7 +7935,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -7944,7 +7944,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C43" s="5"/>
     </row>
@@ -7998,7 +7998,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -8025,7 +8025,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -8060,7 +8060,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -8068,7 +8068,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -8084,7 +8084,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -8103,7 +8103,7 @@
         <v>225</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -8135,7 +8135,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -8159,7 +8159,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C68" s="5"/>
     </row>
@@ -8484,7 +8484,7 @@
         <v>196</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C103" s="5"/>
     </row>
@@ -8574,7 +8574,7 @@
         <v>221</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C113" s="5"/>
     </row>
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -8630,7 +8630,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -8638,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -8646,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -8654,7 +8654,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -8662,7 +8662,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -8670,7 +8670,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -8678,7 +8678,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -8686,7 +8686,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -8694,7 +8694,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -8702,7 +8702,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -8718,7 +8718,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -8726,7 +8726,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -8742,7 +8742,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -8750,7 +8750,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -8758,7 +8758,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -8766,7 +8766,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -8774,7 +8774,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -8852,7 +8852,7 @@
         <v>407</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -8874,7 +8874,7 @@
         <v>409</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D7" s="18"/>
     </row>
@@ -8883,11 +8883,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8898,7 +8898,7 @@
         <v>410</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D9" s="18"/>
     </row>
@@ -8907,11 +8907,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -8931,11 +8931,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -8947,7 +8947,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -8955,7 +8955,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -8987,7 +8987,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -9031,7 +9031,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -9041,10 +9041,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D22" s="18"/>
     </row>
@@ -9053,11 +9053,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -9068,7 +9068,7 @@
         <v>418</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D24" s="18"/>
     </row>
@@ -9077,11 +9077,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9237,7 +9237,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9261,7 +9261,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9269,7 +9269,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9277,7 +9277,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -9285,7 +9285,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9293,7 +9293,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -9301,7 +9301,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9309,7 +9309,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9317,7 +9317,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9325,7 +9325,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9333,7 +9333,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9341,7 +9341,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9349,7 +9349,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -9361,8 +9361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9384,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9392,7 +9392,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9400,7 +9400,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -9408,7 +9408,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -9416,7 +9416,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9424,7 +9424,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9440,7 +9440,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9456,7 +9456,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9464,7 +9464,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9472,7 +9472,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9480,7 +9480,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9488,7 +9488,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9496,7 +9496,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9504,7 +9504,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -9520,7 +9520,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -9528,7 +9528,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -9536,7 +9536,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -9544,7 +9544,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -9552,7 +9552,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -9560,7 +9560,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -9568,7 +9568,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -9576,7 +9576,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -9584,7 +9584,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -9592,7 +9592,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -9600,7 +9600,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -9608,7 +9608,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -9616,7 +9616,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -9624,7 +9624,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -9632,7 +9632,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -9648,7 +9648,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -9656,7 +9656,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -9664,7 +9664,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -9672,7 +9672,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -9680,7 +9680,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -9688,7 +9688,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -9704,7 +9704,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -9712,7 +9712,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -9720,7 +9720,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -9728,7 +9728,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -9736,7 +9736,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -9744,7 +9744,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -9752,7 +9752,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -9760,7 +9760,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -9768,7 +9768,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -9776,7 +9776,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -9784,7 +9784,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -9792,7 +9792,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -9800,7 +9800,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -9808,7 +9808,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -9816,7 +9816,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -9824,7 +9824,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -9840,7 +9840,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -9848,7 +9848,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -9856,7 +9856,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -9864,7 +9864,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -9872,7 +9872,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -9880,7 +9880,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -9888,7 +9888,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -9896,7 +9896,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -9904,7 +9904,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -9912,7 +9912,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -9920,7 +9920,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -9928,7 +9928,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -9936,7 +9936,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -9944,7 +9944,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -9952,7 +9952,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -9960,7 +9960,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -9968,7 +9968,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -9976,7 +9976,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -9984,7 +9984,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -9992,7 +9992,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -10000,7 +10000,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -10008,7 +10008,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -10016,7 +10016,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -10024,7 +10024,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -10032,7 +10032,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -10048,7 +10048,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -10056,7 +10056,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -10064,7 +10064,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -10072,7 +10072,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -10080,7 +10080,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -10088,7 +10088,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -10096,7 +10096,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -10104,7 +10104,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -10112,7 +10112,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -10120,7 +10120,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -10128,7 +10128,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -10136,7 +10136,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -10144,7 +10144,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -10152,7 +10152,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -10160,7 +10160,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -10168,7 +10168,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -10176,7 +10176,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -10184,7 +10184,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -10192,7 +10192,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -10200,7 +10200,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -10208,7 +10208,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -10216,7 +10216,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -10224,7 +10224,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -10232,7 +10232,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -10248,7 +10248,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -10256,7 +10256,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -10264,7 +10264,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -10272,7 +10272,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -10280,7 +10280,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -10288,7 +10288,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -10296,7 +10296,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -10304,7 +10304,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -10312,7 +10312,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -10320,7 +10320,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -10328,7 +10328,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -10336,7 +10336,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -10344,7 +10344,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -10352,7 +10352,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -10360,7 +10360,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -10368,7 +10368,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -10376,7 +10376,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -10384,7 +10384,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -10392,7 +10392,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -10400,7 +10400,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -10408,7 +10408,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -10416,7 +10416,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -10424,7 +10424,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -10440,7 +10440,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -10448,7 +10448,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -10456,7 +10456,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -10464,7 +10464,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -10472,7 +10472,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -10480,7 +10480,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -10488,7 +10488,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -10496,7 +10496,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -10504,7 +10504,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -10512,7 +10512,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -10520,7 +10520,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -10528,7 +10528,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -10536,7 +10536,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -10544,7 +10544,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -10552,7 +10552,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -10560,7 +10560,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -10568,7 +10568,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -10576,7 +10576,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -10584,7 +10584,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -10592,7 +10592,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -10608,7 +10608,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -10616,7 +10616,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -10624,7 +10624,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -10632,7 +10632,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -10640,7 +10640,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -10648,7 +10648,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -10656,7 +10656,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -10664,7 +10664,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -10672,7 +10672,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -10680,7 +10680,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -10688,7 +10688,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -10696,7 +10696,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -10704,7 +10704,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -10712,7 +10712,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -10720,7 +10720,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -10728,7 +10728,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -10736,7 +10736,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -10744,7 +10744,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -10752,7 +10752,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -10760,7 +10760,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -10768,7 +10768,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -10776,7 +10776,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -10784,7 +10784,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -10792,7 +10792,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -10800,7 +10800,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -10808,7 +10808,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -10816,7 +10816,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -10824,7 +10824,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -10832,7 +10832,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -10840,7 +10840,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -10848,7 +10848,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -10856,7 +10856,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -10864,7 +10864,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -10872,7 +10872,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -10880,7 +10880,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -10888,7 +10888,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -10896,7 +10896,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -10904,7 +10904,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -10912,7 +10912,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
@@ -10920,7 +10920,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -10928,7 +10928,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
@@ -10936,7 +10936,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -10944,7 +10944,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -10952,7 +10952,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -10960,7 +10960,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -10968,7 +10968,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -10976,7 +10976,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -10984,7 +10984,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -10992,7 +10992,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
@@ -11000,7 +11000,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
@@ -11008,7 +11008,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -11016,7 +11016,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -11024,7 +11024,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
@@ -11032,7 +11032,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -11048,7 +11048,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -11056,7 +11056,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
@@ -11064,7 +11064,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
@@ -11072,7 +11072,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
@@ -11080,7 +11080,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -11088,7 +11088,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -11104,7 +11104,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -11112,7 +11112,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
@@ -11120,7 +11120,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -11128,7 +11128,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -11136,7 +11136,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -11144,7 +11144,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -11152,7 +11152,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -11160,7 +11160,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -11168,7 +11168,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
@@ -11176,7 +11176,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
@@ -11184,7 +11184,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -11192,7 +11192,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
@@ -11200,7 +11200,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
@@ -11208,7 +11208,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
@@ -11216,7 +11216,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
@@ -11224,7 +11224,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
@@ -11232,7 +11232,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
@@ -11240,7 +11240,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -11248,7 +11248,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -11256,7 +11256,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -11264,7 +11264,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
@@ -11272,7 +11272,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
@@ -11280,7 +11280,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
@@ -11296,7 +11296,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -11304,7 +11304,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -11312,7 +11312,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -11320,7 +11320,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -11328,7 +11328,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
@@ -11336,7 +11336,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -11344,7 +11344,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -11352,7 +11352,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -11360,7 +11360,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -11368,7 +11368,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -11376,7 +11376,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -11384,7 +11384,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -11392,7 +11392,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -11400,7 +11400,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -11408,7 +11408,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -11416,7 +11416,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
@@ -11424,7 +11424,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
@@ -11440,7 +11440,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
@@ -11456,7 +11456,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
@@ -11464,7 +11464,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
@@ -11472,7 +11472,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
@@ -11488,7 +11488,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
@@ -11496,7 +11496,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
@@ -11504,7 +11504,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
@@ -11512,7 +11512,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
@@ -11520,7 +11520,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
@@ -11528,7 +11528,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
@@ -11536,7 +11536,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
@@ -11544,7 +11544,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
@@ -11552,7 +11552,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
@@ -11560,7 +11560,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
@@ -11584,7 +11584,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
@@ -11592,7 +11592,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
@@ -11600,7 +11600,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
@@ -11608,7 +11608,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
@@ -11616,7 +11616,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
@@ -11624,7 +11624,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
@@ -11632,7 +11632,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
@@ -11640,7 +11640,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
@@ -11648,7 +11648,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
@@ -11656,7 +11656,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -11664,7 +11664,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -11672,7 +11672,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -11680,7 +11680,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -11688,7 +11688,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -11696,7 +11696,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -11704,7 +11704,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -11712,7 +11712,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -11736,7 +11736,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -11744,7 +11744,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -11752,7 +11752,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -11760,7 +11760,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
@@ -11768,7 +11768,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
@@ -11776,7 +11776,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
@@ -11784,7 +11784,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
@@ -11792,7 +11792,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
@@ -11800,7 +11800,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
@@ -11808,7 +11808,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
@@ -11816,7 +11816,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
@@ -11856,7 +11856,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -11864,7 +11864,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -11880,7 +11880,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -11896,7 +11896,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -11904,7 +11904,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -11912,7 +11912,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
@@ -11920,7 +11920,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -11928,7 +11928,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
@@ -11936,7 +11936,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -11944,7 +11944,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -11952,7 +11952,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -11960,7 +11960,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -11968,7 +11968,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -11976,7 +11976,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -11984,7 +11984,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
@@ -11992,7 +11992,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
@@ -12000,7 +12000,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -12008,7 +12008,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -12016,7 +12016,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -12024,7 +12024,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -12032,7 +12032,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -12040,7 +12040,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -12048,7 +12048,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -12056,7 +12056,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -12064,7 +12064,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -12072,7 +12072,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -12080,7 +12080,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -12088,7 +12088,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -12096,7 +12096,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
@@ -12104,7 +12104,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
@@ -12112,7 +12112,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
@@ -12120,7 +12120,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
@@ -12128,7 +12128,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
@@ -12136,7 +12136,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
@@ -12144,7 +12144,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
@@ -12152,7 +12152,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
@@ -12160,7 +12160,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
@@ -12168,7 +12168,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
@@ -12176,7 +12176,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
@@ -12184,7 +12184,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
@@ -12192,7 +12192,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
@@ -12200,7 +12200,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
@@ -12208,7 +12208,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
@@ -12216,7 +12216,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
@@ -12224,7 +12224,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
@@ -12232,7 +12232,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
@@ -12240,7 +12240,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -12248,7 +12248,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.45">
@@ -12256,7 +12256,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -12264,7 +12264,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -12272,7 +12272,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -12280,7 +12280,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -12296,7 +12296,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.45">
@@ -12304,7 +12304,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="23" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.45">
@@ -12312,7 +12312,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.45">
@@ -12320,7 +12320,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="23" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.45">
@@ -12328,7 +12328,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="23" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.45">
@@ -12336,7 +12336,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.45">
@@ -12344,7 +12344,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.45">
@@ -12352,7 +12352,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.45">
@@ -12360,7 +12360,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.45">
@@ -12368,7 +12368,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.45">
@@ -12376,7 +12376,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.45">
@@ -12384,7 +12384,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.45">
@@ -12392,7 +12392,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="24" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.45">
@@ -12400,7 +12400,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="24" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.45">
@@ -12408,7 +12408,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="24" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.45">
@@ -12416,7 +12416,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="24" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.45">
@@ -12424,7 +12424,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="24" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -12455,31 +12455,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>1150</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>1151</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="14" t="s">
         <v>1152</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" s="14" t="s">
         <v>1153</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>1157</v>
-      </c>
       <c r="K1" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -12487,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -12495,7 +12495,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -12544,16 +12544,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>1155</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -12915,7 +12915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -12934,13 +12934,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -12948,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -12961,7 +12961,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
@@ -12974,7 +12974,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
@@ -12987,7 +12987,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
@@ -13000,7 +13000,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
@@ -13013,7 +13013,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
@@ -13026,7 +13026,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -13052,7 +13052,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -13065,7 +13065,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -13078,7 +13078,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -13091,7 +13091,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -13104,7 +13104,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -13117,7 +13117,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
@@ -13130,7 +13130,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
@@ -13143,7 +13143,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
@@ -13156,7 +13156,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
@@ -13169,10 +13169,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="16">
@@ -13184,10 +13184,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="16">
@@ -13199,10 +13199,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="16">
@@ -13214,10 +13214,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="16">
@@ -13229,10 +13229,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="16">
@@ -13244,10 +13244,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="16">
@@ -13259,13 +13259,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E25" s="16">
         <v>153</v>
@@ -13276,11 +13276,11 @@
         <v>26</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E26" s="16">
         <v>154</v>
@@ -13291,11 +13291,11 @@
         <v>27</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="20" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E27" s="16">
         <v>155</v>
@@ -13306,11 +13306,11 @@
         <v>28</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="20" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E28" s="16">
         <v>156</v>
@@ -13321,11 +13321,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E29" s="16">
         <v>157</v>
@@ -13336,11 +13336,11 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="20" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E30" s="16">
         <v>158</v>
@@ -13351,11 +13351,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E31" s="16">
         <v>159</v>
@@ -13371,8 +13371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13394,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -13402,7 +13402,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -13410,7 +13410,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -13418,7 +13418,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -13426,7 +13426,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -13434,7 +13434,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -13442,7 +13442,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -13450,7 +13450,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -13458,7 +13458,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -13466,7 +13466,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -13474,7 +13474,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -13482,7 +13482,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -13490,7 +13490,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -13498,7 +13498,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -13506,7 +13506,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -13514,7 +13514,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -13522,7 +13522,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -13530,7 +13530,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -13538,7 +13538,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -13546,7 +13546,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -13554,7 +13554,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -13562,7 +13562,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -13570,7 +13570,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -13578,7 +13578,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -13586,7 +13586,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -13594,7 +13594,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -13602,7 +13602,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -13610,7 +13610,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -13618,7 +13618,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -13626,7 +13626,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -13634,7 +13634,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -13642,7 +13642,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -13650,7 +13650,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -13666,7 +13666,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -13674,7 +13674,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -13682,7 +13682,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -13690,7 +13690,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -13698,7 +13698,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -13706,7 +13706,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -13714,7 +13714,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -13722,7 +13722,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -13730,7 +13730,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -13738,7 +13738,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -13746,7 +13746,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -13754,7 +13754,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -13762,7 +13762,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -13770,7 +13770,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -13778,7 +13778,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -13786,7 +13786,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -13794,7 +13794,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -13802,7 +13802,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -13810,7 +13810,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -13818,7 +13818,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -13826,7 +13826,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -13834,7 +13834,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -13842,7 +13842,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -13850,7 +13850,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -13858,7 +13858,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -13866,7 +13866,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -13874,7 +13874,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -14201,7 +14201,7 @@
         <v>482</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -14461,8 +14461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14835,10 +14835,10 @@
         <v>545</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>546</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -14846,7 +14846,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -14856,13 +14856,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>549</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -14870,10 +14870,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>551</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>552</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -14882,7 +14882,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -14892,7 +14892,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -14902,7 +14902,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -14912,7 +14912,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -14922,7 +14922,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -14932,7 +14932,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -14942,7 +14942,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -14955,7 +14955,7 @@
         <v>451</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>451</v>
@@ -14966,7 +14966,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -14976,7 +14976,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -14986,7 +14986,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -14996,7 +14996,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -15006,13 +15006,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>566</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -15020,10 +15020,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>569</v>
+        <v>1178</v>
       </c>
       <c r="D52" s="15"/>
     </row>
@@ -15032,7 +15032,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -15042,7 +15042,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -15052,7 +15052,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -15062,7 +15062,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>

--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="16" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1179">
   <si>
     <t>id</t>
   </si>
@@ -1381,12 +1381,6 @@
     <t>US25001</t>
   </si>
   <si>
-    <t>US25101</t>
-  </si>
-  <si>
-    <t>US25201</t>
-  </si>
-  <si>
     <t>Blind</t>
   </si>
   <si>
@@ -1780,12 +1774,6 @@
     <t>Core Rules</t>
   </si>
   <si>
-    <t>The Warring Kingdoms</t>
-  </si>
-  <si>
-    <t>Aventurian Bestiary</t>
-  </si>
-  <si>
     <t>Antidote</t>
   </si>
   <si>
@@ -3542,12 +3530,6 @@
   </si>
   <si>
     <t>CR</t>
-  </si>
-  <si>
-    <t>WKD</t>
-  </si>
-  <si>
-    <t>ABE</t>
   </si>
   <si>
     <t>US25002</t>
@@ -4192,13 +4174,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C5" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C3" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
-  <sortState ref="A2:C12">
+  <sortState ref="A2:C10">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="3">
@@ -4703,9 +4685,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4732,44 +4714,32 @@
         <v>444</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>578</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>579</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
@@ -4777,9 +4747,9 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
@@ -4787,24 +4757,14 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="14"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4963,22 +4923,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>687</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4989,7 +4949,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -5006,7 +4966,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -5023,7 +4983,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -5040,7 +5000,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -5057,7 +5017,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -5074,7 +5034,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -5091,7 +5051,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -5108,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -5125,7 +5085,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -5142,7 +5102,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -5159,7 +5119,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -5176,7 +5136,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -5193,7 +5153,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -5210,7 +5170,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -5227,7 +5187,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -5244,7 +5204,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -5261,7 +5221,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -5278,7 +5238,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -5295,7 +5255,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -5312,7 +5272,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -5329,7 +5289,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -5346,7 +5306,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -5363,7 +5323,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -5380,7 +5340,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -5397,7 +5357,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -5414,7 +5374,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -5431,7 +5391,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -5448,7 +5408,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -5465,7 +5425,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -5482,7 +5442,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -5499,7 +5459,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -5516,7 +5476,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -5533,7 +5493,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -5550,7 +5510,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>393</v>
@@ -5570,7 +5530,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -5587,7 +5547,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -5604,7 +5564,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -5621,7 +5581,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -5638,7 +5598,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -5655,7 +5615,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -5672,7 +5632,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -5689,7 +5649,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -5706,7 +5666,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -5723,7 +5683,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -5740,7 +5700,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -5757,7 +5717,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -5774,7 +5734,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -5791,7 +5751,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -5808,7 +5768,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -5825,7 +5785,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -5842,7 +5802,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -5859,7 +5819,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -5876,7 +5836,7 @@
         <v>56</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -5893,7 +5853,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -5910,7 +5870,7 @@
         <v>58</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -5927,7 +5887,7 @@
         <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -5944,7 +5904,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -5961,7 +5921,7 @@
         <v>61</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -5978,7 +5938,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -6157,25 +6117,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>697</v>
-      </c>
       <c r="I1" s="13" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -6947,19 +6907,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>696</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7537,7 +7497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
@@ -7561,40 +7521,40 @@
         <v>121</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>706</v>
-      </c>
       <c r="P1" s="13" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -7638,7 +7598,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -7853,7 +7813,7 @@
         <v>201</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -7924,7 +7884,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -7969,7 +7929,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -7978,7 +7938,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C43" s="5"/>
     </row>
@@ -8032,7 +7992,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -8059,7 +8019,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -8094,7 +8054,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -8102,7 +8062,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -8118,7 +8078,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -8137,7 +8097,7 @@
         <v>224</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -8169,7 +8129,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -8193,7 +8153,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C68" s="5"/>
     </row>
@@ -8220,7 +8180,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C71" s="5"/>
     </row>
@@ -8368,7 +8328,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="C87" s="24"/>
     </row>
@@ -8514,7 +8474,7 @@
         <v>196</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C103" s="5"/>
     </row>
@@ -8604,7 +8564,7 @@
         <v>221</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C113" s="5"/>
     </row>
@@ -8622,7 +8582,7 @@
         <v>255</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="C115" s="24"/>
     </row>
@@ -8631,7 +8591,7 @@
         <v>345</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="C116" s="24"/>
     </row>
@@ -8640,7 +8600,7 @@
         <v>682</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C117" s="4"/>
     </row>
@@ -8649,7 +8609,7 @@
         <v>683</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="C118" s="24"/>
     </row>
@@ -8658,7 +8618,7 @@
         <v>684</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C119" s="24"/>
     </row>
@@ -8667,7 +8627,7 @@
         <v>685</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C120" s="24"/>
     </row>
@@ -8676,7 +8636,7 @@
         <v>686</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C121" s="24"/>
     </row>
@@ -8715,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -8723,7 +8683,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -8731,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -8739,7 +8699,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -8747,7 +8707,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -8755,7 +8715,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -8763,7 +8723,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -8771,7 +8731,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -8779,7 +8739,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -8787,7 +8747,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -8795,7 +8755,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -8811,7 +8771,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -8819,7 +8779,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -8835,7 +8795,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -8843,7 +8803,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -8851,7 +8811,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -8859,7 +8819,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -8867,7 +8827,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -8945,7 +8905,7 @@
         <v>404</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -8967,7 +8927,7 @@
         <v>406</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D7" s="18"/>
     </row>
@@ -8976,11 +8936,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8991,7 +8951,7 @@
         <v>407</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D9" s="18"/>
     </row>
@@ -9000,11 +8960,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -9016,7 +8976,7 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -9024,11 +8984,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -9040,7 +9000,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -9048,7 +9008,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -9072,7 +9032,7 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -9080,7 +9040,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -9094,7 +9054,7 @@
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -9106,7 +9066,7 @@
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -9124,7 +9084,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -9134,10 +9094,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D22" s="18"/>
     </row>
@@ -9146,11 +9106,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -9161,7 +9121,7 @@
         <v>415</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D24" s="18"/>
     </row>
@@ -9170,11 +9130,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -9322,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9330,7 +9290,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9354,7 +9314,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9362,7 +9322,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9370,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -9378,7 +9338,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9386,7 +9346,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -9394,7 +9354,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9402,7 +9362,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9410,7 +9370,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9418,7 +9378,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9426,7 +9386,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9434,7 +9394,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9442,7 +9402,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -9477,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9485,7 +9445,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -9493,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -9501,7 +9461,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -9509,7 +9469,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9517,7 +9477,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9533,7 +9493,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9549,7 +9509,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9557,7 +9517,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -9565,7 +9525,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -9573,7 +9533,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -9581,7 +9541,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -9589,7 +9549,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -9597,7 +9557,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -9613,7 +9573,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -9621,7 +9581,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -9629,7 +9589,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -9637,7 +9597,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -9645,7 +9605,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -9653,7 +9613,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -9661,7 +9621,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -9669,7 +9629,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -9677,7 +9637,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -9685,7 +9645,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -9693,7 +9653,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -9701,7 +9661,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -9709,7 +9669,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -9717,7 +9677,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -9725,7 +9685,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -9741,7 +9701,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -9749,7 +9709,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -9757,7 +9717,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -9765,7 +9725,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -9773,7 +9733,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -9781,7 +9741,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -9797,7 +9757,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -9805,7 +9765,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -9813,7 +9773,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -9821,7 +9781,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -9829,7 +9789,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -9837,7 +9797,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -9845,7 +9805,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -9853,7 +9813,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -9861,7 +9821,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -9869,7 +9829,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -9877,7 +9837,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -9885,7 +9845,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -9893,7 +9853,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -9901,7 +9861,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -9909,7 +9869,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -9917,7 +9877,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -9933,7 +9893,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -9941,7 +9901,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -9949,7 +9909,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -9957,7 +9917,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -9965,7 +9925,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -9973,7 +9933,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -9981,7 +9941,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -9989,7 +9949,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -9997,7 +9957,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -10005,7 +9965,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -10013,7 +9973,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -10021,7 +9981,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -10029,7 +9989,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -10037,7 +9997,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -10045,7 +10005,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -10053,7 +10013,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -10061,7 +10021,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -10069,7 +10029,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -10077,7 +10037,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -10085,7 +10045,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -10093,7 +10053,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -10101,7 +10061,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -10109,7 +10069,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -10117,7 +10077,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -10125,7 +10085,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -10141,7 +10101,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -10149,7 +10109,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -10157,7 +10117,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -10165,7 +10125,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -10173,7 +10133,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -10181,7 +10141,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -10189,7 +10149,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -10197,7 +10157,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -10205,7 +10165,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -10213,7 +10173,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -10221,7 +10181,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -10229,7 +10189,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -10237,7 +10197,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -10245,7 +10205,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -10253,7 +10213,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -10261,7 +10221,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -10269,7 +10229,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -10277,7 +10237,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -10285,7 +10245,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -10293,7 +10253,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -10301,7 +10261,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -10309,7 +10269,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -10317,7 +10277,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -10325,7 +10285,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -10333,7 +10293,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -10341,7 +10301,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -10349,7 +10309,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -10357,7 +10317,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -10365,7 +10325,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -10373,7 +10333,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -10381,7 +10341,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -10389,7 +10349,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -10397,7 +10357,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -10405,7 +10365,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -10413,7 +10373,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -10421,7 +10381,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -10429,7 +10389,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -10437,7 +10397,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -10445,7 +10405,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -10453,7 +10413,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -10461,7 +10421,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -10469,7 +10429,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -10477,7 +10437,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -10485,7 +10445,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -10493,7 +10453,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -10501,7 +10461,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -10509,7 +10469,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -10517,7 +10477,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -10533,7 +10493,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -10541,7 +10501,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
@@ -10549,7 +10509,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -10557,7 +10517,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -10565,7 +10525,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -10573,7 +10533,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -10581,7 +10541,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -10589,7 +10549,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -10597,7 +10557,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -10605,7 +10565,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -10613,7 +10573,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -10621,7 +10581,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -10629,7 +10589,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -10637,7 +10597,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -10645,7 +10605,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -10653,7 +10613,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -10661,7 +10621,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -10669,7 +10629,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -10677,7 +10637,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -10685,7 +10645,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -10701,7 +10661,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -10709,7 +10669,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -10717,7 +10677,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -10725,7 +10685,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -10733,7 +10693,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -10741,7 +10701,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -10749,7 +10709,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -10757,7 +10717,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -10765,7 +10725,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -10773,7 +10733,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -10781,7 +10741,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -10789,7 +10749,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -10797,7 +10757,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -10805,7 +10765,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -10813,7 +10773,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -10821,7 +10781,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -10829,7 +10789,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -10837,7 +10797,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -10845,7 +10805,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -10853,7 +10813,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -10861,7 +10821,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -10869,7 +10829,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -10877,7 +10837,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -10885,7 +10845,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -10893,7 +10853,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -10901,7 +10861,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -10909,7 +10869,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -10917,7 +10877,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -10925,7 +10885,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -10933,7 +10893,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -10941,7 +10901,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -10949,7 +10909,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -10957,7 +10917,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -10965,7 +10925,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -10973,7 +10933,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -10981,7 +10941,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -10989,7 +10949,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -10997,7 +10957,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
@@ -11005,7 +10965,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
@@ -11013,7 +10973,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
@@ -11021,7 +10981,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
@@ -11029,7 +10989,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
@@ -11037,7 +10997,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
@@ -11045,7 +11005,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
@@ -11053,7 +11013,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
@@ -11061,7 +11021,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
@@ -11069,7 +11029,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
@@ -11077,7 +11037,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
@@ -11085,7 +11045,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
@@ -11093,7 +11053,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
@@ -11101,7 +11061,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
@@ -11109,7 +11069,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
@@ -11117,7 +11077,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
@@ -11125,7 +11085,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -11141,7 +11101,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
@@ -11149,7 +11109,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
@@ -11157,7 +11117,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
@@ -11165,7 +11125,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
@@ -11173,7 +11133,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
@@ -11181,7 +11141,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
@@ -11197,7 +11157,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
@@ -11205,7 +11165,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
@@ -11213,7 +11173,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
@@ -11221,7 +11181,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
@@ -11229,7 +11189,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
@@ -11237,7 +11197,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
@@ -11245,7 +11205,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
@@ -11253,7 +11213,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -11261,7 +11221,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
@@ -11269,7 +11229,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.45">
@@ -11277,7 +11237,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.45">
@@ -11285,7 +11245,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.45">
@@ -11293,7 +11253,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
@@ -11301,7 +11261,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.45">
@@ -11309,7 +11269,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.45">
@@ -11317,7 +11277,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.45">
@@ -11325,7 +11285,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.45">
@@ -11333,7 +11293,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
@@ -11341,7 +11301,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.45">
@@ -11349,7 +11309,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.45">
@@ -11357,7 +11317,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.45">
@@ -11365,7 +11325,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.45">
@@ -11373,7 +11333,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
@@ -11389,7 +11349,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.45">
@@ -11397,7 +11357,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.45">
@@ -11405,7 +11365,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.45">
@@ -11413,7 +11373,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
@@ -11421,7 +11381,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.45">
@@ -11429,7 +11389,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.45">
@@ -11437,7 +11397,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.45">
@@ -11445,7 +11405,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.45">
@@ -11453,7 +11413,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
@@ -11461,7 +11421,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.45">
@@ -11469,7 +11429,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.45">
@@ -11477,7 +11437,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.45">
@@ -11485,7 +11445,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.45">
@@ -11493,7 +11453,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
@@ -11501,7 +11461,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.45">
@@ -11509,7 +11469,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.45">
@@ -11517,7 +11477,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.45">
@@ -11533,7 +11493,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
@@ -11549,7 +11509,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.45">
@@ -11557,7 +11517,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.45">
@@ -11565,7 +11525,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.45">
@@ -11581,7 +11541,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.45">
@@ -11589,7 +11549,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.45">
@@ -11597,7 +11557,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.45">
@@ -11605,7 +11565,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.45">
@@ -11613,7 +11573,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
@@ -11621,7 +11581,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.45">
@@ -11629,7 +11589,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.45">
@@ -11637,7 +11597,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.45">
@@ -11645,7 +11605,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.45">
@@ -11653,7 +11613,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.45">
@@ -11677,7 +11637,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.45">
@@ -11685,7 +11645,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.45">
@@ -11693,7 +11653,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.45">
@@ -11701,7 +11661,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.45">
@@ -11709,7 +11669,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.45">
@@ -11717,7 +11677,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.45">
@@ -11725,7 +11685,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.45">
@@ -11733,7 +11693,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.45">
@@ -11741,7 +11701,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.45">
@@ -11749,7 +11709,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.45">
@@ -11757,7 +11717,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.45">
@@ -11765,7 +11725,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.45">
@@ -11773,7 +11733,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.45">
@@ -11781,7 +11741,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.45">
@@ -11789,7 +11749,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.45">
@@ -11797,7 +11757,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.45">
@@ -11805,7 +11765,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.45">
@@ -11829,7 +11789,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.45">
@@ -11837,7 +11797,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.45">
@@ -11845,7 +11805,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.45">
@@ -11853,7 +11813,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.45">
@@ -11861,7 +11821,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.45">
@@ -11869,7 +11829,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.45">
@@ -11877,7 +11837,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.45">
@@ -11885,7 +11845,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.45">
@@ -11893,7 +11853,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.45">
@@ -11901,7 +11861,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.45">
@@ -11909,7 +11869,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.45">
@@ -11949,7 +11909,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.45">
@@ -11957,7 +11917,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.45">
@@ -11973,7 +11933,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.45">
@@ -11989,7 +11949,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.45">
@@ -11997,7 +11957,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.45">
@@ -12005,7 +11965,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.45">
@@ -12013,7 +11973,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.45">
@@ -12021,7 +11981,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.45">
@@ -12029,7 +11989,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.45">
@@ -12037,7 +11997,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.45">
@@ -12045,7 +12005,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.45">
@@ -12053,7 +12013,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.45">
@@ -12061,7 +12021,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.45">
@@ -12069,7 +12029,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.45">
@@ -12077,7 +12037,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.45">
@@ -12085,7 +12045,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.45">
@@ -12093,7 +12053,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.45">
@@ -12101,7 +12061,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.45">
@@ -12109,7 +12069,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.45">
@@ -12117,7 +12077,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.45">
@@ -12125,7 +12085,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.45">
@@ -12133,7 +12093,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.45">
@@ -12141,7 +12101,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.45">
@@ -12149,7 +12109,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.45">
@@ -12157,7 +12117,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.45">
@@ -12165,7 +12125,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.45">
@@ -12173,7 +12133,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.45">
@@ -12181,7 +12141,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.45">
@@ -12189,7 +12149,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.45">
@@ -12197,7 +12157,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.45">
@@ -12205,7 +12165,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.45">
@@ -12213,7 +12173,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.45">
@@ -12221,7 +12181,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.45">
@@ -12229,7 +12189,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.45">
@@ -12237,7 +12197,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.45">
@@ -12245,7 +12205,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.45">
@@ -12253,7 +12213,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.45">
@@ -12261,7 +12221,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.45">
@@ -12269,7 +12229,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.45">
@@ -12277,7 +12237,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.45">
@@ -12285,7 +12245,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.45">
@@ -12293,7 +12253,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.45">
@@ -12301,7 +12261,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.45">
@@ -12309,7 +12269,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.45">
@@ -12317,7 +12277,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.45">
@@ -12325,7 +12285,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.45">
@@ -12333,7 +12293,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.45">
@@ -12341,7 +12301,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.45">
@@ -12349,7 +12309,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.45">
@@ -12357,7 +12317,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.45">
@@ -12365,7 +12325,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.45">
@@ -12373,7 +12333,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.45">
@@ -12389,7 +12349,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.45">
@@ -12397,7 +12357,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="23" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.45">
@@ -12405,7 +12365,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.45">
@@ -12413,7 +12373,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="23" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.45">
@@ -12421,7 +12381,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="23" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.45">
@@ -12429,7 +12389,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.45">
@@ -12437,7 +12397,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.45">
@@ -12445,7 +12405,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.45">
@@ -12453,7 +12413,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.45">
@@ -12461,7 +12421,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.45">
@@ -12469,7 +12429,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.45">
@@ -12477,7 +12437,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.45">
@@ -12485,7 +12445,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="24" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.45">
@@ -12493,7 +12453,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="24" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.45">
@@ -12501,7 +12461,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="24" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.45">
@@ -12509,7 +12469,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="24" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.45">
@@ -12517,7 +12477,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="24" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
@@ -12548,31 +12508,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>1145</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="H1" s="14" t="s">
         <v>1146</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="I1" s="14" t="s">
         <v>1147</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="J1" s="14" t="s">
         <v>1148</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>1151</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>1152</v>
-      </c>
       <c r="K1" s="14" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -12580,7 +12540,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -12588,7 +12548,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -12637,16 +12597,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -13027,13 +12987,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -13041,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -13054,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
@@ -13067,7 +13027,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
@@ -13080,7 +13040,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
@@ -13093,7 +13053,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
@@ -13106,7 +13066,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
@@ -13119,7 +13079,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -13145,7 +13105,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -13158,7 +13118,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -13171,7 +13131,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -13184,7 +13144,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -13197,7 +13157,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -13210,7 +13170,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
@@ -13223,7 +13183,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
@@ -13236,7 +13196,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
@@ -13249,7 +13209,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
@@ -13262,10 +13222,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="16">
@@ -13277,10 +13237,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="16">
@@ -13292,10 +13252,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="16">
@@ -13307,10 +13267,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="16">
@@ -13322,10 +13282,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="16">
@@ -13337,10 +13297,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="16">
@@ -13352,13 +13312,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E25" s="16">
         <v>153</v>
@@ -13369,11 +13329,11 @@
         <v>26</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E26" s="16">
         <v>154</v>
@@ -13384,11 +13344,11 @@
         <v>27</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="20" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E27" s="16">
         <v>155</v>
@@ -13399,11 +13359,11 @@
         <v>28</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="20" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E28" s="16">
         <v>156</v>
@@ -13414,11 +13374,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E29" s="16">
         <v>157</v>
@@ -13429,11 +13389,11 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="20" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E30" s="16">
         <v>158</v>
@@ -13444,11 +13404,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E31" s="16">
         <v>159</v>
@@ -13487,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -13495,7 +13455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -13503,7 +13463,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -13511,7 +13471,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -13519,7 +13479,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -13527,7 +13487,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -13535,7 +13495,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -13543,7 +13503,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -13551,7 +13511,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -13559,7 +13519,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -13567,7 +13527,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -13575,7 +13535,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -13583,7 +13543,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -13591,7 +13551,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -13599,7 +13559,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -13607,7 +13567,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -13615,7 +13575,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -13623,7 +13583,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -13631,7 +13591,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -13639,7 +13599,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -13647,7 +13607,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -13655,7 +13615,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -13663,7 +13623,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -13671,7 +13631,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -13679,7 +13639,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -13687,7 +13647,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -13695,7 +13655,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -13703,7 +13663,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -13711,7 +13671,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -13719,7 +13679,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -13727,7 +13687,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -13735,7 +13695,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -13743,7 +13703,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -13759,7 +13719,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -13767,7 +13727,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -13775,7 +13735,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -13783,7 +13743,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -13791,7 +13751,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -13799,7 +13759,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -13807,7 +13767,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -13815,7 +13775,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -13823,7 +13783,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -13831,7 +13791,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -13839,7 +13799,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -13847,7 +13807,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -13855,7 +13815,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -13863,7 +13823,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -13871,7 +13831,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -13879,7 +13839,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -13887,7 +13847,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -13895,7 +13855,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -13903,7 +13863,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -13911,7 +13871,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -13919,7 +13879,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -13927,7 +13887,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -13935,7 +13895,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -13943,7 +13903,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -13951,7 +13911,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -13959,7 +13919,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -13967,7 +13927,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -14009,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -14019,7 +13979,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -14029,7 +13989,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -14039,7 +13999,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -14049,7 +14009,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -14059,7 +14019,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -14069,7 +14029,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -14079,7 +14039,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -14089,7 +14049,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -14099,7 +14059,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -14109,7 +14069,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -14119,7 +14079,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -14129,7 +14089,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -14139,7 +14099,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -14149,7 +14109,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -14159,7 +14119,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -14169,7 +14129,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -14179,7 +14139,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -14189,7 +14149,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -14199,7 +14159,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -14209,7 +14169,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -14219,7 +14179,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -14229,7 +14189,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -14239,7 +14199,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -14249,7 +14209,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -14259,7 +14219,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -14269,7 +14229,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -14279,10 +14239,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -14291,10 +14251,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -14303,7 +14263,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -14313,7 +14273,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -14323,13 +14283,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -14337,7 +14297,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -14347,7 +14307,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -14357,7 +14317,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -14367,7 +14327,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -14377,7 +14337,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -14387,7 +14347,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -14397,7 +14357,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -14407,7 +14367,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -14417,7 +14377,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -14427,7 +14387,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -14437,7 +14397,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -14447,7 +14407,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -14457,7 +14417,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -14467,7 +14427,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -14477,7 +14437,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -14487,7 +14447,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -14497,7 +14457,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -14507,7 +14467,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -14517,7 +14477,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -14527,7 +14487,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -14537,7 +14497,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="9"/>
@@ -14583,13 +14543,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -14597,7 +14557,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -14607,7 +14567,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -14617,7 +14577,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -14627,7 +14587,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -14637,7 +14597,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -14647,7 +14607,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -14657,7 +14617,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -14667,7 +14627,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -14677,7 +14637,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -14687,7 +14647,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -14697,7 +14657,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -14707,7 +14667,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -14717,7 +14677,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -14727,7 +14687,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -14737,7 +14697,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -14747,7 +14707,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -14757,7 +14717,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -14767,7 +14727,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -14777,11 +14737,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -14789,7 +14749,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -14799,7 +14759,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -14809,7 +14769,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -14819,13 +14779,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -14833,7 +14793,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -14843,7 +14803,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -14853,7 +14813,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -14863,7 +14823,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -14873,7 +14833,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -14883,7 +14843,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -14903,7 +14863,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -14913,10 +14873,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -14925,13 +14885,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -14939,7 +14899,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -14949,13 +14909,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -14963,10 +14923,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -14975,7 +14935,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -14985,7 +14945,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -14995,7 +14955,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -15005,7 +14965,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -15015,7 +14975,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -15025,7 +14985,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -15035,7 +14995,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -15045,13 +15005,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -15059,7 +15019,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -15069,7 +15029,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -15079,7 +15039,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -15089,7 +15049,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -15099,13 +15059,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>561</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -15113,10 +15073,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D52" s="15"/>
     </row>
@@ -15125,7 +15085,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -15135,7 +15095,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -15145,7 +15105,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -15155,7 +15115,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>

--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="2745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="2744">
   <si>
     <t>id</t>
   </si>
@@ -9727,9 +9727,6 @@
     <t>Ranged Combat 10</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>Improve your *Spirit* by one per level (and suffer an action penalty of one per level) as long as you concentrate and remain focused. When in doubt, make a *Self-Control* check (see **Core Rules** page **192**).\nIron Will has no effect if you go to sleep, receive the condition *Unconscious*, or stop concentrating. When the effect ends, you suffer a level of the condition *Confusion* (see **Core Rules** page **32**).</t>
   </si>
   <si>
@@ -9925,9 +9922,6 @@
   </si>
   <si>
     <t>Each level in this special ability improves your dodge by 1. To use this special ability, you can wear nothing heavier than normal clothes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A hero with this SA suffers armor *Encumbrance* penalties as if wearing lighter armor. Use the penalties for armor that is 2 steps (on the Armor chart—see **Core Rules** page **237**) lighter per level of Inured to Encumbrance. For example, a character with Inured to Encumbrance II who puts on a suit of plate armor suffers penalties (to ENC, MOV, and INI) as if wearing Cloth armor or gambeson instead (Cloth armor or gambeson is four steps lighter than plate armor on the Armor chart—see **Core Rules** page **237**). The PRO of the armor does not change.</t>
   </si>
   <si>
     <t>Shots suffer no penalties when the archer’s mount is moving at a walk. If the mount is galloping, the penalty is only 4. Only lucky shots hit their mark when the mount is moving at a trot, requiring a 1 on 1D20 to hit, as usual (see **Core Rules** page **242**). Also, this SA allows the archer to fire to the rear while the mount is moving at a gallop.</t>
@@ -10228,27 +10222,15 @@
     <t>The first horned demon with up to 5 horns that comes within 7 yards of the circle is drawn into it and cannot leave it for the duration.</t>
   </si>
   <si>
-    <t>Tradition (Elves)</t>
-  </si>
-  <si>
     <t>- Spells from the elven Tradition require magical gestures and line of sight to the target. In addition, the spellcaster must sing or speak any necessary formula.\n- Spells from the elven Tradition last twice the stated duration when cast by an elf.\n- Elves can learn and use elven magical songs (elves meet the prerequisite of *Two-Voiced Singing*).\n- The primary attribute of this Tradition is Intuition.</t>
   </si>
   <si>
-    <t>Tradition (Witches)</t>
-  </si>
-  <si>
     <t>- A spell cast in the guild mage’s Tradition requires line of sight to the target, magical gestures, and a magical incantation intoned openly and obviously.\n- Guild mages can choose one spell from an unfamiliar Tradition during Hero Creation. They can then cast this spell as if it were a spell from the mage’s own Tradition. Translating a spell in this manner takes a great deal of effort and can be achieved only at an academy.\n- Guild Mage spells can be written down in spell books and scrolls. Mages can then learn the spell from this written source without the assistance of a tutor.\n- Guild mages can create and use special guild mage Tradition artifacts (like mage’s staves).\n- The primary attribute of this Tradition is Sagacity.</t>
   </si>
   <si>
-    <t>- Spells in the witch’s Tradition require line of sight and mostly inconspicuous gestures and incantations.\n- Witches must have contact with the ground (but they do not have to go barefoot; wearing shoes while standing on the ground or on a floor is permitted). Spellcasting suffers a penalty of 1 per yard of distance from the ground, with a maximum penalty of 8. While over large bodies of water, the surface of the water counts as ground. Buildings, towers, and bridges also count as ground.\n- When witch spells fail, witches must pay one third the AE (not half the AE, as with mages).\n- When witches feel strong emotions befitting the spell, they receive a bonus of at most 2 points. When their feelings are artificially dampened (with ilmen leaf, for example), or when they cast spells in contradiction to their feelings, they suffer a penalty of no more than 2. Witches can work themselves into a frenzy of emotion for one or two combat rounds to gain a bonus of 1 per round, up to a maximum of 2. This requires concentration (see **Core Rules** page **285**) and a free action.\n- HWitches can bind familiars, learn curses, and create Satuarian Tradition artifacts (such as flying instruments).\n- The primary attribute of this Tradition is Charisma.</t>
-  </si>
-  <si>
     <t>- Blessed Ones of Boron inflict double damage against undead opponents (roll for damage, multiply the result by two, and then subtract PRO).\n- *Used to the Darkness:* Reduce the effect of darkness visibility modifiers by one level (treat Level II like Level I, and so on). Note that you still cannot see in total darkness.\n- Blessed Ones of Boron must adhere to their Church’s moral code (Principles)—see below. You must take this disadvantage if you want to play a Blessed One of the Church of Boron.\n- Favored Skills: Astronomy, Carousing, Empathy, Intimidation, Religions, Self-Control, Sphere Lore, Stealth, Treat Disease, Treat Poison, Treat Soul, Treat Wounds, Willpower\n- The primary attribute of this Tradition is Courage.</t>
   </si>
   <si>
-    <t>- Blessed Ones of Hesinde receive a bonus of 1 for *Perception* checks to spot illusions.\n- *Clear Mind:* The Blessed One reduces the effect of the condition *Confusion* by one level (treat *Confusion* II like *Confusion* I, and so on). You still suffer incapacitation at Level IV of *Confusion*.\n- EBlessed Ones of Hesinde must adhere to their Church’s moral code (Principles)—see below. You must take this disadvantage if you want to play a Blessed One of the Church of Hesinde.\n- Favored Skills: Alchemy, Animal Lore, Astronomy, Geography, History, Law, Magical Lore, Math, Mechanics, Myths &amp; Legends, Perception, Persuasion, Plant Lore, Religions, Sphere Lore, Willpower\n- The primary attribute of the Tradition is Sagacity.</t>
-  </si>
-  <si>
     <t>- When administering Minor Healing Blessings, recipients receive 2 LP instead of 1.\n- *Resistant to Disease:* Even if a disease check against the Blessed One is successful, the disease inflicts its milder progression. If the check fails, the Blessed One does not catch the disease.\n- Blessed Ones of Peraine must adhere to their Church’s moral code (Principles)—see below. You must take this disadvantage if you want to play a Blessed One of the Church of Peraine.\n- Favored Skills: Animal Lore, Carousing, Empathy, Fishing, Myths &amp; Legends, Persuasion, Plant Lore, Religions, Treat Disease, Treat Poison, Treat Soul, Treat Wounds, Willpower\n- The primary attribute of the Tradition is Intuition.</t>
   </si>
   <si>
@@ -10355,6 +10337,21 @@
   </si>
   <si>
     <t>-2 (to Parry)</t>
+  </si>
+  <si>
+    <t>A hero with this SA suffers armor *Encumbrance* penalties as if wearing lighter armor. Use the penalties for armor that is 2 steps (on the Armor chart—see **Core Rules** page **237**) lighter per level of Inured to Encumbrance. For example, a character with Inured to Encumbrance II who puts on a suit of plate armor suffers penalties (to ENC, MOV, and INI) as if wearing Cloth armor or gambeson instead (Cloth armor or gambeson is four steps lighter than plate armor on the Armor chart—see **Core Rules** page **237**). The PRO of the armor does not change.</t>
+  </si>
+  <si>
+    <t>- Blessed Ones of Hesinde receive a bonus of 1 for *Perception* checks to spot illusions.\n- *Clear Mind:* The Blessed One reduces the effect of the condition *Confusion* by one level (treat *Confusion* II like *Confusion* I, and so on). You still suffer incapacitation at Level IV of *Confusion*.\n- Blessed Ones of Hesinde must adhere to their Church’s moral code (Principles)—see below. You must take this disadvantage if you want to play a Blessed One of the Church of Hesinde.\n- Favored Skills: Alchemy, Animal Lore, Astronomy, Geography, History, Law, Magical Lore, Math, Mechanics, Myths &amp; Legends, Perception, Persuasion, Plant Lore, Religions, Sphere Lore, Willpower\n- The primary attribute of the Tradition is Sagacity.</t>
+  </si>
+  <si>
+    <t>Tradition (Witch)</t>
+  </si>
+  <si>
+    <t>Tradition (Elf)</t>
+  </si>
+  <si>
+    <t>- Spells in the witch’s Tradition require line of sight and mostly inconspicuous gestures and incantations.\n- Witches must have contact with the ground (but they do not have to go barefoot; wearing shoes while standing on the ground or on a floor is permitted). Spellcasting suffers a penalty of 1 per yard of distance from the ground, with a maximum penalty of 8. While over large bodies of water, the surface of the water counts as ground. Buildings, towers, and bridges also count as ground.\n- When witch spells fail, witches must pay one third the AE (not half the AE, as with mages).\n- When witches feel strong emotions befitting the spell, they receive a bonus of at most 2 points. When their feelings are artificially dampened (with ilmen leaf, for example), or when they cast spells in contradiction to their feelings, they suffer a penalty of no more than 2. Witches can work themselves into a frenzy of emotion for one or two combat rounds to gain a bonus of 1 per round, up to a maximum of 2. This requires concentration (see **Core Rules** page **285**) and a free action.\n- Witches can bind familiars, learn curses, and create Satuarian Tradition artifacts (such as flying instruments).\n- The primary attribute of this Tradition is Charisma.</t>
   </si>
 </sst>
 </file>
@@ -10586,7 +10583,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{3F62BF4F-0F52-4DDA-A66D-D96FCAAA1927}"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="106">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -10645,15 +10642,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -11283,7 +11271,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="106"/>
+      <tableStyleElement type="headerRow" dxfId="105"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -11298,7 +11286,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C3" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table17" displayName="Table17" ref="A1:C3" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11308,19 +11296,20 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{F4A0BFC1-E4B4-4E30-BD3A-41CC3BEACB5D}" name="short" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{F4A0BFC1-E4B4-4E30-BD3A-41CC3BEACB5D}" name="short" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:X121" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:X121" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:W121" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:W121" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
@@ -11341,15 +11330,10 @@
     <filterColumn colId="20" hiddenButton="1"/>
     <filterColumn colId="21" hiddenButton="1"/>
     <filterColumn colId="22" hiddenButton="1"/>
-    <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
-  <sortState ref="A2:X121">
-    <sortCondition ref="C1:C121"/>
-  </sortState>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{BAC555A9-56F3-40DD-BD4C-8CF57720E98B}" name="gr" dataDxfId="9"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="input"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="nameInWiki"/>
@@ -11396,7 +11380,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F4EBD66C-A1B8-452D-AD9B-ACF74E5B43E6}" name="Tabelle8" displayName="Tabelle8" ref="A1:K5" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F4EBD66C-A1B8-452D-AD9B-ACF74E5B43E6}" name="Tabelle8" displayName="Tabelle8" ref="A1:K5" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="A1:K5" xr:uid="{2042C063-6EE1-4199-8137-84D9DFC135ED}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11411,24 +11395,24 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6AE0CB14-3327-4947-98ED-CEA440A0B5F8}" name="id" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{363DF784-966B-448E-8A28-8828ACA07107}" name="name" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{8C348FB4-DFA2-46DE-8A89-F41231DDC3DA}" name="attributeAdjustments" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{56F12FF2-B66C-4FBF-BCED-A62E30CDB8EC}" name="automaticAdvantages" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{75147358-64EC-4748-9263-EABAED81B180}" name="stronglyRecommendedAdvantages" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{793E6E81-D895-4B40-A0A1-DDF73E1D4C45}" name="stronglyRecommendedDisadvantages" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{3CC0AB04-E650-45AB-ACDF-22CC69D00395}" name="commonAdvantages" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{D90E1736-D85D-41C4-9065-CAF48E439D19}" name="commonDisadvantages" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{F02651AA-8503-4FB5-878B-1F401CDF18A6}" name="uncommonAdvantages" dataDxfId="90"/>
-    <tableColumn id="10" xr3:uid="{E1E8E3E3-D4DA-4EAF-96AA-F33A8D043C28}" name="uncommonDisadvantages" dataDxfId="89"/>
-    <tableColumn id="11" xr3:uid="{5E6FC294-E694-4809-86E8-D958B84DC9F4}" name="src" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{6AE0CB14-3327-4947-98ED-CEA440A0B5F8}" name="id" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{363DF784-966B-448E-8A28-8828ACA07107}" name="name" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{8C348FB4-DFA2-46DE-8A89-F41231DDC3DA}" name="attributeAdjustments" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{56F12FF2-B66C-4FBF-BCED-A62E30CDB8EC}" name="automaticAdvantages" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{75147358-64EC-4748-9263-EABAED81B180}" name="stronglyRecommendedAdvantages" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{793E6E81-D895-4B40-A0A1-DDF73E1D4C45}" name="stronglyRecommendedDisadvantages" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{3CC0AB04-E650-45AB-ACDF-22CC69D00395}" name="commonAdvantages" dataDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{D90E1736-D85D-41C4-9065-CAF48E439D19}" name="commonDisadvantages" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{F02651AA-8503-4FB5-878B-1F401CDF18A6}" name="uncommonAdvantages" dataDxfId="89"/>
+    <tableColumn id="10" xr3:uid="{E1E8E3E3-D4DA-4EAF-96AA-F33A8D043C28}" name="uncommonDisadvantages" dataDxfId="88"/>
+    <tableColumn id="11" xr3:uid="{5E6FC294-E694-4809-86E8-D958B84DC9F4}" name="src" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A541EFAE-C5B2-4AB4-97CD-96EE92FD7FE0}" name="Tabelle21" displayName="Tabelle21" ref="A1:F11" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A541EFAE-C5B2-4AB4-97CD-96EE92FD7FE0}" name="Tabelle21" displayName="Tabelle21" ref="A1:F11" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:F11" xr:uid="{2BDC1AAA-8414-4E56-BA93-7D2EA38F96D1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11438,19 +11422,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0ECA6BE0-0C10-4446-9C9F-C8C4405ACD31}" name="id" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{25BE1181-A8B7-4D44-B5EF-EB32A2F0F755}" name="name" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{7132A039-B49C-49BE-90DF-3B87C83B25C3}" name="commonAdvantages" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{33B4DB96-7E38-4A36-8B83-9DCCCC53F89B}" name="commonDisadvantages" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{E821E091-CB68-4B50-8B68-D1EB7023A272}" name="uncommonAdvantages" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{7BBB8EEB-E059-46DD-B8CC-9C182E5BBB93}" name="uncommonDisadvantages" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{0ECA6BE0-0C10-4446-9C9F-C8C4405ACD31}" name="id" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{25BE1181-A8B7-4D44-B5EF-EB32A2F0F755}" name="name" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{7132A039-B49C-49BE-90DF-3B87C83B25C3}" name="commonAdvantages" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{33B4DB96-7E38-4A36-8B83-9DCCCC53F89B}" name="commonDisadvantages" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{E821E091-CB68-4B50-8B68-D1EB7023A272}" name="uncommonAdvantages" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{7BBB8EEB-E059-46DD-B8CC-9C182E5BBB93}" name="uncommonDisadvantages" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6D30E82-93C1-4B1A-B41F-4CDCDACBCBF8}" name="Tabelle11" displayName="Tabelle11" ref="A1:K31" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6D30E82-93C1-4B1A-B41F-4CDCDACBCBF8}" name="Tabelle11" displayName="Tabelle11" ref="A1:K31" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A1:K31" xr:uid="{BCEE589D-2985-47F6-98C9-A3390BB1EB34}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11465,24 +11449,24 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D3093B79-ACD9-4ADF-AA96-C794B4ADD1BA}" name="id" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{4145DA5B-7BA2-455E-9153-E7C3F57A62A6}" name="name" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{90D991A2-6C67-4011-878C-21C91BAC285A}" name="subname" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{F8E16608-B0D2-4D6C-8DA2-05D7CCC5DDAD}" name="req" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{7C4FAAB3-5DD5-40D0-A787-730027DD45CE}" name="prerequisitesStart" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{FF7E1568-C5DA-4117-A93E-871D422D9304}" name="prerequisitesEnd" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{6E90F063-54B9-47C3-8422-3C9D72C22BE8}" name="suggestedAdvantages" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{8975274E-B271-494F-9704-868ED8076A6F}" name="suggestedDisadvantages" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{15E9434A-A3FB-4F47-B028-39D48988683F}" name="unsuitableAdvantages" dataDxfId="69"/>
-    <tableColumn id="10" xr3:uid="{B2E97E8A-C9AF-4BEE-928D-BD55772FE97A}" name="unsuitableDisadvantages" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{8CEBB709-9431-4FDF-8F8B-EB183251C63A}" name="src" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{D3093B79-ACD9-4ADF-AA96-C794B4ADD1BA}" name="id" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{4145DA5B-7BA2-455E-9153-E7C3F57A62A6}" name="name" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{90D991A2-6C67-4011-878C-21C91BAC285A}" name="subname" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{F8E16608-B0D2-4D6C-8DA2-05D7CCC5DDAD}" name="req" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{7C4FAAB3-5DD5-40D0-A787-730027DD45CE}" name="prerequisitesStart" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{FF7E1568-C5DA-4117-A93E-871D422D9304}" name="prerequisitesEnd" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{6E90F063-54B9-47C3-8422-3C9D72C22BE8}" name="suggestedAdvantages" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{8975274E-B271-494F-9704-868ED8076A6F}" name="suggestedDisadvantages" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{15E9434A-A3FB-4F47-B028-39D48988683F}" name="unsuitableAdvantages" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{B2E97E8A-C9AF-4BEE-928D-BD55772FE97A}" name="unsuitableDisadvantages" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{8CEBB709-9431-4FDF-8F8B-EB183251C63A}" name="src" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF21079A-4664-481B-9F32-35512D3C3669}" name="Tabelle9" displayName="Tabelle9" ref="A1:E62" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FF21079A-4664-481B-9F32-35512D3C3669}" name="Tabelle9" displayName="Tabelle9" ref="A1:E62" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:E62" xr:uid="{3CE28C1B-0A77-4D23-91AB-90CA3E174BFA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11491,18 +11475,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CE086BCD-1F26-4B5D-B299-0257B1D8F9AC}" name="id" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{0E2B3543-4BEF-45E8-992F-1255F906EB7D}" name="name" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{BB0D6BD0-B192-4630-BED6-76F329A9C057}" name="precedingText" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{E3685A37-CC89-4667-87A8-F620A609FC1E}" name="fullText" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{9C14D0B5-4AC8-4D7C-9C3C-DA8AAA282437}" name="concludingText" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{CE086BCD-1F26-4B5D-B299-0257B1D8F9AC}" name="id" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{0E2B3543-4BEF-45E8-992F-1255F906EB7D}" name="name" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{BB0D6BD0-B192-4630-BED6-76F329A9C057}" name="precedingText" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{E3685A37-CC89-4667-87A8-F620A609FC1E}" name="fullText" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{9C14D0B5-4AC8-4D7C-9C3C-DA8AAA282437}" name="concludingText" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:N54" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:N54" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:N54" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11523,27 +11507,27 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{CE4121D7-C0CD-4E5D-BAAC-BF718F20D2AD}" name="rules" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{F8BE2AEC-6371-4E6E-B34D-E15FA39C0F6D}" name="range" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{BB8EEBD1-D470-4A8D-BA2D-FBBD43FC6A8A}" name="actions" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{E2884072-92ED-4F3A-88F9-4B10AE3BB5D2}" name="apValue" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{CAE697C5-9A58-4A24-99B5-B8EE9EFB7B4B}" name="apValueAppend" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{BF3919D2-D768-409A-AA31-325924B20C58}" name="req" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{43117749-461E-454F-A39D-984BC04C6AFE}" name="reqIndex" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{C66D98F3-B252-45EF-B081-D991CC88AFF7}" name="reqStart" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{AF8E9ED2-C885-4D5E-8F65-92A515041AC4}" name="reqEnd" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{2C6AB6E4-4BB2-4700-BB82-1E1E817A9FBA}" name="src" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sel" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="input" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{CE4121D7-C0CD-4E5D-BAAC-BF718F20D2AD}" name="rules" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{F8BE2AEC-6371-4E6E-B34D-E15FA39C0F6D}" name="range" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{BB8EEBD1-D470-4A8D-BA2D-FBBD43FC6A8A}" name="actions" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{E2884072-92ED-4F3A-88F9-4B10AE3BB5D2}" name="apValue" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{CAE697C5-9A58-4A24-99B5-B8EE9EFB7B4B}" name="apValueAppend" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{BF3919D2-D768-409A-AA31-325924B20C58}" name="req" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{43117749-461E-454F-A39D-984BC04C6AFE}" name="reqIndex" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{C66D98F3-B252-45EF-B081-D991CC88AFF7}" name="reqStart" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{AF8E9ED2-C885-4D5E-8F65-92A515041AC4}" name="reqEnd" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{2C6AB6E4-4BB2-4700-BB82-1E1E817A9FBA}" name="src" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:N56" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:N56" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:N56" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11564,27 +11548,27 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{368C9E04-85C6-489F-BBD6-D360F826ABA0}" name="rules" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{CDAC8B95-B228-4C96-A645-1D625984C6CA}" name="range" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{E2DF9209-29A4-4C21-A9C8-73C368722007}" name="actions" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{B2926FC7-9220-4D1D-ACEA-2B56A7158AF1}" name="apValue" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{F2D7D6BE-856D-4C3E-B999-89A2E1101E7D}" name="apValueAppend" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{C0191254-D0F9-42B0-A628-DAB17908D3AF}" name="req" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{B514D30F-34CA-40E8-9534-FF4F825EF0A6}" name="reqIndex" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{6797EEDC-AE16-4071-8AC0-917824F9CC93}" name="reqStart" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{16BEFBB5-D191-4975-A55D-B9EC745A8D04}" name="reqEnd" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{3F216D42-7AD3-4806-ADEA-8BA44D96F479}" name="src" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sel" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="input" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{368C9E04-85C6-489F-BBD6-D360F826ABA0}" name="rules" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{CDAC8B95-B228-4C96-A645-1D625984C6CA}" name="range" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{E2DF9209-29A4-4C21-A9C8-73C368722007}" name="actions" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{B2926FC7-9220-4D1D-ACEA-2B56A7158AF1}" name="apValue" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{F2D7D6BE-856D-4C3E-B999-89A2E1101E7D}" name="apValueAppend" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{C0191254-D0F9-42B0-A628-DAB17908D3AF}" name="req" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{B514D30F-34CA-40E8-9534-FF4F825EF0A6}" name="reqIndex" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{6797EEDC-AE16-4071-8AC0-917824F9CC93}" name="reqStart" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{16BEFBB5-D191-4975-A55D-B9EC745A8D04}" name="reqEnd" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{3F216D42-7AD3-4806-ADEA-8BA44D96F479}" name="src" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:J60" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:J60" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11601,23 +11585,23 @@
     <sortCondition ref="A1:A60"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="name" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="spec" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="spec_input" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tools" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="quality" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="failed" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="critical" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="botch" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="src" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:N93" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:N93" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:N93" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11630,8 +11614,8 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="name" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="effect"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="castingtime"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="castingtimeShort"/>
@@ -20174,112 +20158,106 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:W121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.1328125" customWidth="1"/>
     <col min="2" max="2" width="23.1328125" customWidth="1"/>
-    <col min="3" max="3" width="4.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>2579</v>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="E1" s="12" t="s">
+        <v>1847</v>
+      </c>
       <c r="F1" s="12" t="s">
-        <v>1847</v>
+        <v>694</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>695</v>
+        <v>1848</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>1852</v>
+        <v>697</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>697</v>
+        <v>1853</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>1853</v>
+        <v>1190</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>1191</v>
+        <v>573</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>573</v>
+        <v>1192</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>1194</v>
-      </c>
-      <c r="X1" s="12" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25" t="s">
+      <c r="C2" s="5"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>2558</v>
       </c>
+      <c r="G2" s="25"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
@@ -20292,34 +20270,31 @@
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24">
+      <c r="W2" s="24">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="24">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>2559</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>2560</v>
       </c>
+      <c r="G3" s="25"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
@@ -20328,35 +20303,32 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>1854</v>
       </c>
+      <c r="T3" s="24"/>
       <c r="U3" s="24"/>
       <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24">
+      <c r="W3" s="24">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
         <v>19</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="24">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="25" t="s">
+      <c r="C4" s="5"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="25" t="s">
         <v>2561</v>
       </c>
+      <c r="G4" s="25"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
@@ -20369,29 +20341,26 @@
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24">
+      <c r="W4" s="24">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="13">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="s">
+      <c r="C5" s="5"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
         <v>2562</v>
       </c>
+      <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
@@ -20404,29 +20373,26 @@
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
       <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24">
+      <c r="W5" s="24">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="24">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25" t="s">
+      <c r="C6" s="5"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25" t="s">
         <v>2563</v>
       </c>
+      <c r="G6" s="25"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
@@ -20439,66 +20405,60 @@
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24">
+      <c r="W6" s="24">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="33">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25" t="s">
+      <c r="C7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25" t="s">
         <v>2564</v>
       </c>
+      <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="25" t="s">
+      <c r="S7" s="25" t="s">
         <v>2565</v>
       </c>
+      <c r="T7" s="24"/>
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24">
+      <c r="W7" s="24">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="24">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25" t="s">
+      <c r="C8" s="5"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25" t="s">
         <v>2566</v>
       </c>
+      <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -20511,29 +20471,26 @@
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24">
+      <c r="W8" s="24">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="13">
         <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25" t="s">
+      <c r="C9" s="5"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25" t="s">
         <v>2567</v>
       </c>
+      <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -20546,29 +20503,26 @@
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24">
+      <c r="W9" s="24">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="24">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25" t="s">
+      <c r="C10" s="5"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25" t="s">
         <v>2568</v>
       </c>
+      <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
@@ -20581,29 +20535,26 @@
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24">
+      <c r="W10" s="24">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="24">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25" t="s">
+      <c r="C11" s="5"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25" t="s">
         <v>2569</v>
       </c>
+      <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
@@ -20612,35 +20563,32 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="39" t="s">
+      <c r="S11" s="25"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="39" t="s">
         <v>2570</v>
       </c>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24">
+      <c r="V11" s="24"/>
+      <c r="W11" s="24">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="24">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="25" t="s">
+      <c r="C12" s="5"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="25" t="s">
         <v>2571</v>
       </c>
+      <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -20653,29 +20601,26 @@
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24">
+      <c r="W12" s="24">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="24">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25" t="s">
+      <c r="C13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25" t="s">
         <v>2572</v>
       </c>
+      <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
@@ -20688,29 +20633,26 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24">
+      <c r="W13" s="24">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="13">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="24">
-        <v>1</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25" t="s">
+      <c r="C14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25" t="s">
         <v>2573</v>
       </c>
+      <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
@@ -20723,29 +20665,26 @@
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24">
+      <c r="W14" s="24">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="13">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="24">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="F15" s="24"/>
-      <c r="G15" t="s">
+      <c r="C15" s="5"/>
+      <c r="E15" s="24"/>
+      <c r="F15" t="s">
         <v>2574</v>
       </c>
+      <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
@@ -20758,29 +20697,26 @@
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24">
+      <c r="W15" s="24">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="13">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="24">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25" t="s">
+      <c r="C16" s="5"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25" t="s">
         <v>2575</v>
       </c>
+      <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -20793,29 +20729,26 @@
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24">
+      <c r="W16" s="24">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="13">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="24">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25" t="s">
+      <c r="C17" s="5"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25" t="s">
         <v>2576</v>
       </c>
+      <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
@@ -20828,66 +20761,60 @@
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
       <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24">
+      <c r="W17" s="24">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="33">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="25" t="s">
+      <c r="C18" s="5"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="25" t="s">
         <v>2577</v>
       </c>
+      <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" t="s">
+      <c r="U18" t="s">
         <v>2578</v>
       </c>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24">
+      <c r="V18" s="24"/>
+      <c r="W18" s="24">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="13">
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25" t="s">
-        <v>2580</v>
-      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -20900,66 +20827,60 @@
       <c r="T19" s="24"/>
       <c r="U19" s="24"/>
       <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24">
+      <c r="W19" s="24">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="13">
         <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="33">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="F20" s="33"/>
-      <c r="G20" t="s">
-        <v>2581</v>
-      </c>
+      <c r="C20" s="5"/>
+      <c r="E20" s="33"/>
+      <c r="F20" t="s">
+        <v>2580</v>
+      </c>
+      <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25" t="s">
+      <c r="S20" s="25" t="s">
         <v>1855</v>
       </c>
+      <c r="T20" s="24"/>
       <c r="U20" s="24"/>
       <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24">
+      <c r="W20" s="24">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="24">
-        <v>1</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25" t="s">
-        <v>2582</v>
-      </c>
+      <c r="C21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -20972,29 +20893,26 @@
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24">
+      <c r="W21" s="24">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="13">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="24">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" t="s">
-        <v>2583</v>
-      </c>
+      <c r="C22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" t="s">
+        <v>2582</v>
+      </c>
+      <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
@@ -21007,29 +20925,26 @@
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
       <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24">
+      <c r="W22" s="24">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="24">
-        <v>1</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25" t="s">
-        <v>2584</v>
-      </c>
+      <c r="C23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25" t="s">
+        <v>2583</v>
+      </c>
+      <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
@@ -21042,29 +20957,26 @@
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
       <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24">
+      <c r="W23" s="24">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="13">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25" t="s">
-        <v>2585</v>
-      </c>
+      <c r="C24" s="5"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -21077,68 +20989,62 @@
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
       <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24">
+      <c r="W24" s="24">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="33">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25" t="s">
-        <v>2586</v>
-      </c>
+      <c r="C25" s="5"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" t="s">
-        <v>2587</v>
-      </c>
+      <c r="Q25" t="s">
+        <v>2586</v>
+      </c>
+      <c r="R25" s="24"/>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" t="s">
-        <v>2588</v>
-      </c>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24">
+      <c r="U25" t="s">
+        <v>2587</v>
+      </c>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="25" t="s">
-        <v>2589</v>
-      </c>
+      <c r="C26" s="5"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="25" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
@@ -21151,29 +21057,26 @@
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24">
+      <c r="W26" s="24">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25" t="s">
-        <v>2590</v>
-      </c>
+      <c r="C27" s="5"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25" t="s">
+        <v>2589</v>
+      </c>
+      <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
@@ -21186,29 +21089,26 @@
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24">
+      <c r="W27" s="24">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25" t="s">
-        <v>2591</v>
-      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G28" s="25"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
@@ -21221,29 +21121,26 @@
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
       <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24">
+      <c r="W28" s="24">
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="13">
         <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25" t="s">
-        <v>2592</v>
-      </c>
+      <c r="C29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
+        <v>2591</v>
+      </c>
+      <c r="G29" s="25"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
@@ -21256,70 +21153,64 @@
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
       <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24">
+      <c r="W29" s="24">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>9</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="F30" s="26" t="s">
+      <c r="C30" s="5"/>
+      <c r="E30" s="26" t="s">
+        <v>2592</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>2593</v>
       </c>
-      <c r="G30" s="25" t="s">
-        <v>2594</v>
-      </c>
+      <c r="G30" s="25"/>
       <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="25" t="s">
+      <c r="Q30" s="25" t="s">
+        <v>2594</v>
+      </c>
+      <c r="R30" s="24"/>
+      <c r="S30" s="25" t="s">
         <v>2595</v>
       </c>
-      <c r="S30" s="24"/>
-      <c r="T30" s="25" t="s">
-        <v>2596</v>
-      </c>
+      <c r="T30" s="24"/>
       <c r="U30" s="24"/>
       <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24">
+      <c r="W30" s="24">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="24">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25" t="s">
-        <v>2597</v>
-      </c>
+      <c r="C31" s="5"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G31" s="25"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
@@ -21332,31 +21223,28 @@
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
       <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24">
+      <c r="W31" s="24">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>12</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="24">
-        <v>1</v>
-      </c>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25" t="s">
-        <v>2598</v>
-      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G32" s="25"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
@@ -21365,113 +21253,104 @@
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="25" t="s">
-        <v>2599</v>
-      </c>
+      <c r="S32" s="25" t="s">
+        <v>2598</v>
+      </c>
+      <c r="T32" s="24"/>
       <c r="U32" s="24"/>
       <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24">
+      <c r="W32" s="24">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="25" t="s">
-        <v>2600</v>
-      </c>
+      <c r="C33" s="5"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="25" t="s">
+        <v>2599</v>
+      </c>
+      <c r="G33" s="25"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="25" t="s">
-        <v>2601</v>
-      </c>
+      <c r="S33" s="25" t="s">
+        <v>2600</v>
+      </c>
+      <c r="T33" s="24"/>
       <c r="U33" s="24"/>
       <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24">
+      <c r="W33" s="24">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="13">
         <v>28</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="33">
-        <v>1</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="25" t="s">
-        <v>2602</v>
-      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="25" t="s">
+        <v>2601</v>
+      </c>
+      <c r="G34" s="25"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
       <c r="O34" s="33"/>
       <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="24"/>
-      <c r="S34" t="s">
+      <c r="Q34" s="24"/>
+      <c r="R34" t="s">
+        <v>2602</v>
+      </c>
+      <c r="S34" s="25" t="s">
         <v>2603</v>
       </c>
-      <c r="T34" s="25" t="s">
-        <v>2604</v>
-      </c>
+      <c r="T34" s="25"/>
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="24">
+      <c r="W34" s="24">
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="24">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25" t="s">
-        <v>2605</v>
-      </c>
+      <c r="C35" s="5"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G35" s="25"/>
       <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
@@ -21484,29 +21363,26 @@
       <c r="T35" s="24"/>
       <c r="U35" s="24"/>
       <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24">
+      <c r="W35" s="24">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="C36" s="24">
-        <v>2</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25" t="s">
-        <v>2606</v>
-      </c>
+      <c r="C36" s="5"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25" t="s">
+        <v>2605</v>
+      </c>
+      <c r="G36" s="25"/>
       <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
@@ -21519,29 +21395,26 @@
       <c r="T36" s="24"/>
       <c r="U36" s="24"/>
       <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24">
+      <c r="W36" s="24">
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37" s="13">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C37" s="24">
-        <v>2</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25" t="s">
-        <v>2607</v>
-      </c>
+      <c r="C37" s="5"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G37" s="25"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -21554,29 +21427,26 @@
       <c r="T37" s="24"/>
       <c r="U37" s="24"/>
       <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24">
+      <c r="W37" s="24">
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="13">
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="24">
-        <v>2</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25" t="s">
-        <v>2608</v>
-      </c>
+      <c r="C38" s="5"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25" t="s">
+        <v>2607</v>
+      </c>
+      <c r="G38" s="25"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -21589,29 +21459,26 @@
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
       <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24">
+      <c r="W38" s="24">
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39" s="13">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="24">
-        <v>2</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25" t="s">
-        <v>2609</v>
-      </c>
+      <c r="C39" s="5"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25" t="s">
+        <v>2608</v>
+      </c>
+      <c r="G39" s="25"/>
       <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -21624,29 +21491,26 @@
       <c r="T39" s="24"/>
       <c r="U39" s="24"/>
       <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24">
+      <c r="W39" s="24">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="24">
-        <v>2</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25" t="s">
-        <v>2610</v>
-      </c>
+      <c r="C40" s="5"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G40" s="25"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -21659,1063 +21523,970 @@
       <c r="T40" s="24"/>
       <c r="U40" s="24"/>
       <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24">
+      <c r="W40" s="24">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41" s="13">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C41" s="24">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25" t="s">
+      <c r="C41" s="5"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="25" t="s">
         <v>2611</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="25" t="s">
-        <v>2612</v>
-      </c>
+      <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
+      <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="24"/>
       <c r="T41" s="24"/>
       <c r="U41" s="24"/>
       <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24">
+      <c r="W41" s="24">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A42" s="13">
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="24">
-        <v>3</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="F42" s="24"/>
-      <c r="G42" t="s">
-        <v>2613</v>
-      </c>
+      <c r="C42" s="5"/>
+      <c r="E42" s="24"/>
+      <c r="F42" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G42" s="25"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="32"/>
-      <c r="K42" t="s">
+      <c r="I42" s="32"/>
+      <c r="J42" t="s">
         <v>163</v>
       </c>
+      <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
       <c r="U42" s="24"/>
       <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24">
+      <c r="W42" s="24">
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A43" s="13">
         <v>62</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C43" s="24">
-        <v>3</v>
-      </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="25" t="s">
+        <v>2613</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="35" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J43" t="s">
         <v>2614</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="35" t="s">
-        <v>1860</v>
-      </c>
-      <c r="K43" t="s">
-        <v>2615</v>
-      </c>
+      <c r="Q43" s="24"/>
       <c r="R43" s="24"/>
       <c r="S43" s="24"/>
       <c r="T43" s="24"/>
       <c r="U43" s="24"/>
       <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24">
+      <c r="W43" s="24">
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="C44" s="24">
-        <v>3</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="F44" s="24"/>
-      <c r="G44" t="s">
-        <v>2616</v>
-      </c>
+      <c r="C44" s="5"/>
+      <c r="E44" s="24"/>
+      <c r="F44" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G44" s="25"/>
       <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="25" t="s">
-        <v>2612</v>
-      </c>
+      <c r="I44" s="32"/>
+      <c r="J44" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="K44" s="25"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
+      <c r="Q44" s="24"/>
       <c r="R44" s="24"/>
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
       <c r="U44" s="24"/>
       <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24">
+      <c r="W44" s="24">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A45" s="13">
         <v>53</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="24">
-        <v>3</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="F45" s="24"/>
-      <c r="G45" t="s">
+      <c r="C45" s="5"/>
+      <c r="E45" s="24"/>
+      <c r="F45" t="s">
+        <v>2616</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="32"/>
+      <c r="J45" t="s">
         <v>2617</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="32"/>
-      <c r="K45" t="s">
-        <v>2618</v>
-      </c>
+      <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
       <c r="U45" s="24"/>
       <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24">
+      <c r="W45" s="24">
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>63</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="24">
-        <v>3</v>
-      </c>
-      <c r="F46" s="24"/>
-      <c r="G46" t="s">
+      <c r="E46" s="24"/>
+      <c r="F46" t="s">
+        <v>2616</v>
+      </c>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="35" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J46" t="s">
         <v>2617</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="35" t="s">
-        <v>1860</v>
-      </c>
-      <c r="K46" t="s">
-        <v>2618</v>
-      </c>
+      <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
       <c r="U46" s="24"/>
       <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24">
+      <c r="W46" s="24">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A47" s="13">
         <v>65</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="24">
-        <v>3</v>
-      </c>
-      <c r="F47" s="24"/>
-      <c r="G47" t="s">
+      <c r="E47" s="24"/>
+      <c r="F47" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="32"/>
+      <c r="J47" t="s">
         <v>2619</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="32"/>
-      <c r="K47" t="s">
-        <v>2620</v>
-      </c>
+      <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
       <c r="U47" s="24"/>
       <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24">
+      <c r="W47" s="24">
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A48" s="13">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="24">
-        <v>3</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25" t="s">
+      <c r="C48" s="5"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="34" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J48" t="s">
         <v>2621</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="34" t="s">
-        <v>1856</v>
-      </c>
-      <c r="K48" t="s">
-        <v>2622</v>
-      </c>
+      <c r="K48" s="25"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
+      <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
       <c r="U48" s="24"/>
       <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24">
+      <c r="W48" s="24">
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A49" s="13">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="24">
-        <v>3</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="F49" s="24"/>
-      <c r="G49" t="s">
-        <v>2623</v>
-      </c>
+      <c r="C49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G49" s="25"/>
       <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="25" t="s">
-        <v>2612</v>
-      </c>
+      <c r="I49" s="32"/>
+      <c r="J49" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="K49" s="25"/>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
+      <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="24"/>
       <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24">
+      <c r="W49" s="24">
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="C50" s="24">
-        <v>3</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="F50" s="24"/>
-      <c r="G50" t="s">
-        <v>2624</v>
-      </c>
+      <c r="C50" s="5"/>
+      <c r="E50" s="24"/>
+      <c r="F50" t="s">
+        <v>2623</v>
+      </c>
+      <c r="G50" s="25"/>
       <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="35" t="s">
+      <c r="I50" s="35" t="s">
         <v>1857</v>
       </c>
-      <c r="K50" t="s">
-        <v>2620</v>
-      </c>
+      <c r="J50" t="s">
+        <v>2619</v>
+      </c>
+      <c r="K50" s="25"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
+      <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="U50" s="24"/>
       <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24">
+      <c r="W50" s="24">
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51" s="13">
         <v>67</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="C51" s="24">
-        <v>3</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="F51" s="24"/>
-      <c r="G51" t="s">
+      <c r="C51" s="5"/>
+      <c r="E51" s="24"/>
+      <c r="F51" t="s">
+        <v>2624</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="35" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J51" t="s">
         <v>2625</v>
       </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="35" t="s">
-        <v>1858</v>
-      </c>
-      <c r="K51" t="s">
-        <v>2626</v>
-      </c>
+      <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
       <c r="S51" s="24"/>
       <c r="T51" s="24"/>
       <c r="U51" s="24"/>
       <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24">
+      <c r="W51" s="24">
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A52" s="13">
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C52" s="24">
-        <v>3</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25" t="s">
-        <v>2627</v>
-      </c>
+      <c r="C52" s="5"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25" t="s">
+        <v>2626</v>
+      </c>
+      <c r="G52" s="25"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="32">
+      <c r="I52" s="32">
         <v>0</v>
       </c>
-      <c r="K52" t="s">
+      <c r="J52" t="s">
         <v>168</v>
       </c>
+      <c r="Q52" s="24"/>
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
       <c r="U52" s="24"/>
       <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24">
+      <c r="W52" s="24">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A53" s="13">
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C53" s="24">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="F53" s="24"/>
-      <c r="G53" t="s">
+      <c r="C53" s="5"/>
+      <c r="E53" s="24"/>
+      <c r="F53" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="32">
+        <v>-2</v>
+      </c>
+      <c r="J53" t="s">
         <v>2628</v>
       </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="32">
-        <v>-2</v>
-      </c>
-      <c r="K53" t="s">
-        <v>2629</v>
-      </c>
+      <c r="K53" s="25"/>
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
+      <c r="Q53" s="24"/>
       <c r="R53" s="24"/>
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
       <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24">
+      <c r="W53" s="24">
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54" s="13">
         <v>64</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="C54" s="24">
-        <v>3</v>
-      </c>
-      <c r="F54" s="24"/>
-      <c r="G54" t="s">
-        <v>2630</v>
-      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" t="s">
+        <v>2629</v>
+      </c>
+      <c r="G54" s="25"/>
       <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="25" t="s">
-        <v>2612</v>
-      </c>
+      <c r="I54" s="32"/>
+      <c r="J54" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="K54" s="25"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
       <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
+      <c r="Q54" s="24"/>
       <c r="R54" s="24"/>
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
       <c r="U54" s="24"/>
       <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24">
+      <c r="W54" s="24">
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55" s="13">
         <v>41</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="C55" s="24">
-        <v>3</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25" t="s">
-        <v>2631</v>
-      </c>
+      <c r="C55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25" t="s">
+        <v>2739</v>
+      </c>
+      <c r="G55" s="25"/>
       <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="25" t="s">
-        <v>2612</v>
-      </c>
+      <c r="I55" s="32"/>
+      <c r="J55" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="K55" s="25"/>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
+      <c r="Q55" s="24"/>
       <c r="R55" s="24"/>
       <c r="S55" s="24"/>
       <c r="T55" s="24"/>
       <c r="U55" s="24"/>
       <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24">
+      <c r="W55" s="24">
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A56" s="13">
         <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="24">
-        <v>3</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25" t="s">
-        <v>2632</v>
-      </c>
+      <c r="C56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G56" s="25"/>
       <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="32"/>
-      <c r="K56" t="s">
-        <v>2633</v>
-      </c>
+      <c r="I56" s="32"/>
+      <c r="J56" t="s">
+        <v>2631</v>
+      </c>
+      <c r="K56" s="25"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
+      <c r="Q56" s="24"/>
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
       <c r="U56" s="24"/>
       <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24">
+      <c r="W56" s="24">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A57" s="13">
         <v>43</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="24">
-        <v>3</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="F57" s="24"/>
-      <c r="G57" t="s">
-        <v>2634</v>
-      </c>
+      <c r="C57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G57" s="25"/>
       <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="25" t="s">
-        <v>2612</v>
-      </c>
+      <c r="I57" s="32"/>
+      <c r="J57" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="K57" s="25"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
+      <c r="Q57" s="24"/>
       <c r="R57" s="24"/>
       <c r="S57" s="24"/>
       <c r="T57" s="24"/>
       <c r="U57" s="24"/>
       <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="24">
+      <c r="W57" s="24">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>45</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="24">
-        <v>3</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="F58" s="24"/>
-      <c r="G58" t="s">
-        <v>2635</v>
-      </c>
+      <c r="C58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G58" s="25"/>
       <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="32"/>
-      <c r="K58" t="s">
-        <v>2636</v>
-      </c>
+      <c r="I58" s="32"/>
+      <c r="J58" t="s">
+        <v>2634</v>
+      </c>
+      <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
       <c r="U58" s="24"/>
       <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="24">
+      <c r="W58" s="24">
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="24">
-        <v>3</v>
-      </c>
-      <c r="F59" s="24"/>
-      <c r="G59" t="s">
-        <v>2637</v>
-      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" t="s">
+        <v>2635</v>
+      </c>
+      <c r="G59" s="25"/>
       <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="32"/>
-      <c r="K59" t="s">
-        <v>2638</v>
-      </c>
+      <c r="I59" s="32"/>
+      <c r="J59" t="s">
+        <v>2636</v>
+      </c>
+      <c r="Q59" s="24"/>
       <c r="R59" s="24"/>
       <c r="S59" s="24"/>
       <c r="T59" s="24"/>
       <c r="U59" s="24"/>
       <c r="V59" s="24"/>
-      <c r="W59" s="24"/>
-      <c r="X59" s="24">
+      <c r="W59" s="24">
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A60" s="13">
         <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="C60" s="24">
-        <v>3</v>
-      </c>
-      <c r="F60" s="24"/>
-      <c r="G60" t="s">
-        <v>2639</v>
-      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G60" s="25"/>
       <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="35" t="s">
+      <c r="I60" s="35" t="s">
         <v>1858</v>
       </c>
-      <c r="K60" t="s">
-        <v>2633</v>
-      </c>
+      <c r="J60" t="s">
+        <v>2631</v>
+      </c>
+      <c r="K60" s="25"/>
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
+      <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
       <c r="U60" s="24"/>
       <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24">
+      <c r="W60" s="24">
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A61" s="13">
         <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="C61" s="24">
-        <v>3</v>
-      </c>
-      <c r="F61" s="24"/>
-      <c r="G61" t="s">
-        <v>2640</v>
-      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" t="s">
+        <v>2638</v>
+      </c>
+      <c r="G61" s="25"/>
       <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="35" t="s">
+      <c r="I61" s="35" t="s">
         <v>1858</v>
       </c>
-      <c r="K61" t="s">
-        <v>2618</v>
-      </c>
+      <c r="J61" t="s">
+        <v>2617</v>
+      </c>
+      <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
       <c r="T61" s="24"/>
       <c r="U61" s="24"/>
       <c r="V61" s="24"/>
-      <c r="W61" s="24"/>
-      <c r="X61" s="24">
+      <c r="W61" s="24">
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A62" s="13">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="24">
-        <v>3</v>
-      </c>
-      <c r="F62" s="24"/>
-      <c r="G62" t="s">
-        <v>2641</v>
-      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" t="s">
+        <v>2639</v>
+      </c>
+      <c r="G62" s="25"/>
       <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="32"/>
-      <c r="K62" t="s">
-        <v>2642</v>
-      </c>
+      <c r="I62" s="32"/>
+      <c r="J62" t="s">
+        <v>2640</v>
+      </c>
+      <c r="K62" s="25"/>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
+      <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
       <c r="T62" s="24"/>
       <c r="U62" s="24"/>
       <c r="V62" s="24"/>
-      <c r="W62" s="24"/>
-      <c r="X62" s="24">
+      <c r="W62" s="24">
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C63" s="33">
-        <v>3</v>
-      </c>
-      <c r="D63" s="18" t="s">
+      <c r="C63" s="18" t="s">
         <v>1134</v>
       </c>
-      <c r="F63" s="26" t="s">
-        <v>2669</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>2643</v>
-      </c>
+      <c r="E63" s="26" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>2641</v>
+      </c>
+      <c r="G63" s="25"/>
       <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="32"/>
-      <c r="K63" t="s">
-        <v>2633</v>
-      </c>
+      <c r="I63" s="32"/>
+      <c r="J63" t="s">
+        <v>2631</v>
+      </c>
+      <c r="Q63" s="24"/>
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
       <c r="T63" s="24"/>
       <c r="U63" s="24"/>
       <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24">
+      <c r="W63" s="24">
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>57</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="24">
-        <v>3</v>
-      </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25" t="s">
-        <v>2644</v>
-      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G64" s="25"/>
       <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="34" t="s">
-        <v>2645</v>
-      </c>
-      <c r="K64" t="s">
-        <v>2618</v>
-      </c>
+      <c r="I64" s="34" t="s">
+        <v>2643</v>
+      </c>
+      <c r="J64" t="s">
+        <v>2617</v>
+      </c>
+      <c r="Q64" s="24"/>
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
       <c r="U64" s="24"/>
       <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24">
+      <c r="W64" s="24">
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A65" s="13">
         <v>59</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C65" s="24">
-        <v>3</v>
-      </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25" t="s">
-        <v>2646</v>
-      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25" t="s">
+        <v>2644</v>
+      </c>
+      <c r="G65" s="25"/>
       <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="35" t="s">
+      <c r="I65" s="35" t="s">
         <v>1859</v>
       </c>
-      <c r="K65" t="s">
-        <v>2647</v>
-      </c>
+      <c r="J65" t="s">
+        <v>2645</v>
+      </c>
+      <c r="Q65" s="24"/>
       <c r="R65" s="24"/>
       <c r="S65" s="24"/>
       <c r="T65" s="24"/>
       <c r="U65" s="24"/>
       <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="24">
+      <c r="W65" s="24">
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A66" s="13">
         <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="C66" s="24">
-        <v>3</v>
-      </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="25" t="s">
+      <c r="E66" s="24"/>
+      <c r="F66" s="25" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" t="s">
+        <v>2647</v>
+      </c>
+      <c r="J66" t="s">
         <v>2648</v>
       </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" t="s">
-        <v>2649</v>
-      </c>
-      <c r="K66" t="s">
-        <v>2650</v>
-      </c>
+      <c r="K66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
+      <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
       <c r="T66" s="24"/>
       <c r="U66" s="24"/>
       <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24">
+      <c r="W66" s="24">
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="24">
-        <v>3</v>
-      </c>
-      <c r="D67" s="23"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25" t="s">
-        <v>2651</v>
-      </c>
+      <c r="C67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25" t="s">
+        <v>2649</v>
+      </c>
+      <c r="G67" s="25"/>
       <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="35" t="s">
+      <c r="I67" s="35" t="s">
         <v>1861</v>
       </c>
-      <c r="K67" t="s">
+      <c r="J67" t="s">
         <v>171</v>
       </c>
+      <c r="Q67" s="24"/>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
       <c r="T67" s="24"/>
       <c r="U67" s="24"/>
       <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="24">
+      <c r="W67" s="24">
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A68" s="13">
         <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="24">
-        <v>3</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="25" t="s">
-        <v>2652</v>
-      </c>
+      <c r="C68" s="5"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G68" s="25"/>
       <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="35" t="s">
+      <c r="I68" s="35" t="s">
         <v>1860</v>
       </c>
-      <c r="K68" t="s">
+      <c r="J68" t="s">
         <v>168</v>
       </c>
+      <c r="Q68" s="24"/>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="24"/>
       <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="24">
+      <c r="W68" s="24">
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>54</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C69" s="24">
-        <v>3</v>
-      </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="25" t="s">
-        <v>2653</v>
-      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25" t="s">
+        <v>2651</v>
+      </c>
+      <c r="G69" s="25"/>
       <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="32"/>
-      <c r="K69" t="s">
+      <c r="I69" s="32"/>
+      <c r="J69" t="s">
         <v>167</v>
       </c>
+      <c r="Q69" s="24"/>
       <c r="R69" s="24"/>
       <c r="S69" s="24"/>
       <c r="T69" s="24"/>
       <c r="U69" s="24"/>
       <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24">
+      <c r="W69" s="24">
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>42</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="C70" s="24">
-        <v>3</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="25" t="s">
-        <v>2654</v>
-      </c>
+      <c r="C70" s="5"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25" t="s">
+        <v>2652</v>
+      </c>
+      <c r="G70" s="25"/>
       <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="32"/>
-      <c r="K70" t="s">
-        <v>2655</v>
-      </c>
+      <c r="I70" s="32"/>
+      <c r="J70" t="s">
+        <v>2653</v>
+      </c>
+      <c r="K70" s="25"/>
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
+      <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="24"/>
       <c r="U70" s="24"/>
       <c r="V70" s="24"/>
-      <c r="W70" s="24"/>
-      <c r="X70" s="24">
+      <c r="W70" s="24">
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A71" s="13">
         <v>74</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="24">
-        <v>4</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="25" t="s">
-        <v>2656</v>
-      </c>
+      <c r="C71" s="5"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G71" s="25"/>
       <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="24"/>
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
@@ -22728,29 +22499,26 @@
       <c r="T71" s="24"/>
       <c r="U71" s="24"/>
       <c r="V71" s="24"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="24">
+      <c r="W71" s="24">
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A72" s="13">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="24">
-        <v>4</v>
-      </c>
-      <c r="D72" s="23"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25" t="s">
-        <v>2657</v>
-      </c>
+      <c r="C72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25" t="s">
+        <v>2655</v>
+      </c>
+      <c r="G72" s="25"/>
       <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="24"/>
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
@@ -22763,105 +22531,96 @@
       <c r="T72" s="24"/>
       <c r="U72" s="24"/>
       <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24">
+      <c r="W72" s="24">
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>75</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="24">
-        <v>4</v>
-      </c>
-      <c r="D73" s="23"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="25" t="s">
-        <v>2658</v>
-      </c>
+      <c r="C73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="25" t="s">
+        <v>2656</v>
+      </c>
+      <c r="G73" s="25"/>
       <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="35"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="25"/>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
+      <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
       <c r="T73" s="24"/>
       <c r="U73" s="24"/>
       <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="24">
+      <c r="W73" s="24">
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C74" s="33">
-        <v>4</v>
-      </c>
-      <c r="D74" s="18" t="s">
+      <c r="C74" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F74" s="33"/>
-      <c r="G74" s="25" t="s">
-        <v>2659</v>
-      </c>
+      <c r="E74" s="33"/>
+      <c r="F74" s="25" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G74" s="25"/>
       <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="33"/>
       <c r="K74" s="33"/>
       <c r="L74" s="33"/>
       <c r="M74" s="33"/>
       <c r="N74" s="33"/>
       <c r="O74" s="33"/>
       <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="25" t="s">
-        <v>2688</v>
-      </c>
+      <c r="Q74" s="25" t="s">
+        <v>2686</v>
+      </c>
+      <c r="R74" s="24"/>
       <c r="S74" s="24"/>
       <c r="T74" s="24"/>
       <c r="U74" s="24"/>
-      <c r="V74" s="24"/>
-      <c r="W74" t="s">
-        <v>2660</v>
-      </c>
-      <c r="X74" s="24">
+      <c r="V74" t="s">
+        <v>2658</v>
+      </c>
+      <c r="W74" s="24">
         <v>285</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A75" s="13">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C75" s="24">
-        <v>4</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="F75" s="24"/>
-      <c r="G75" t="s">
-        <v>2661</v>
-      </c>
+      <c r="C75" s="5"/>
+      <c r="E75" s="24"/>
+      <c r="F75" t="s">
+        <v>2659</v>
+      </c>
+      <c r="G75" s="25"/>
       <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="24"/>
       <c r="K75" s="24"/>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
@@ -22874,35 +22633,32 @@
       <c r="T75" s="24"/>
       <c r="U75" s="24"/>
       <c r="V75" s="24"/>
-      <c r="W75" s="24"/>
-      <c r="X75" s="24">
+      <c r="W75" s="24">
         <v>285</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A76" s="13">
         <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="24">
-        <v>5</v>
-      </c>
-      <c r="D76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
+      <c r="G76" s="25" t="s">
+        <v>2660</v>
+      </c>
       <c r="H76" s="25" t="s">
-        <v>2662</v>
-      </c>
-      <c r="I76" s="25" t="s">
+        <v>2661</v>
+      </c>
+      <c r="I76" s="32"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="25" t="s">
         <v>2663</v>
       </c>
-      <c r="J76" s="32"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="25" t="s">
-        <v>2665</v>
-      </c>
+      <c r="L76" s="24"/>
       <c r="M76" s="24"/>
       <c r="N76" s="24"/>
       <c r="O76" s="24"/>
@@ -22913,38 +22669,35 @@
       <c r="T76" s="24"/>
       <c r="U76" s="24"/>
       <c r="V76" s="24"/>
-      <c r="W76" s="24"/>
-      <c r="X76" s="24">
+      <c r="W76" s="24">
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A77" s="13">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="24">
-        <v>5</v>
-      </c>
-      <c r="D77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
+      <c r="G77" s="25" t="s">
+        <v>2664</v>
+      </c>
       <c r="H77" s="25" t="s">
-        <v>2666</v>
-      </c>
-      <c r="I77" s="25" t="s">
-        <v>2667</v>
-      </c>
-      <c r="J77" s="32"/>
+        <v>2665</v>
+      </c>
+      <c r="I77" s="32"/>
+      <c r="J77" s="24"/>
       <c r="K77" s="24"/>
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="25" t="s">
-        <v>2668</v>
-      </c>
+      <c r="N77" s="25" t="s">
+        <v>2666</v>
+      </c>
+      <c r="O77" s="24"/>
       <c r="P77" s="24"/>
       <c r="Q77" s="24"/>
       <c r="R77" s="24"/>
@@ -22952,35 +22705,32 @@
       <c r="T77" s="24"/>
       <c r="U77" s="24"/>
       <c r="V77" s="24"/>
-      <c r="W77" s="24"/>
-      <c r="X77" s="24">
+      <c r="W77" s="24">
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A78" s="13">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="24">
-        <v>5</v>
-      </c>
-      <c r="D78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
+      <c r="G78" s="25" t="s">
+        <v>2668</v>
+      </c>
       <c r="H78" s="25" t="s">
-        <v>2670</v>
-      </c>
-      <c r="I78" s="25" t="s">
+        <v>2661</v>
+      </c>
+      <c r="I78" s="32"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="25" t="s">
         <v>2663</v>
       </c>
-      <c r="J78" s="32"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="25" t="s">
-        <v>2665</v>
-      </c>
+      <c r="L78" s="24"/>
       <c r="M78" s="24"/>
       <c r="N78" s="24"/>
       <c r="O78" s="24"/>
@@ -22991,35 +22741,32 @@
       <c r="T78" s="24"/>
       <c r="U78" s="24"/>
       <c r="V78" s="24"/>
-      <c r="W78" s="24"/>
-      <c r="X78" s="24">
+      <c r="W78" s="24">
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="24">
-        <v>5</v>
-      </c>
-      <c r="D79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
+      <c r="G79" s="25" t="s">
+        <v>2672</v>
+      </c>
       <c r="H79" s="25" t="s">
-        <v>2674</v>
-      </c>
-      <c r="I79" s="25" t="s">
+        <v>2661</v>
+      </c>
+      <c r="I79" s="32"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="25" t="s">
         <v>2663</v>
       </c>
-      <c r="J79" s="32"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="25" t="s">
-        <v>2665</v>
-      </c>
+      <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24"/>
       <c r="O79" s="24"/>
@@ -23030,31 +22777,28 @@
       <c r="T79" s="24"/>
       <c r="U79" s="24"/>
       <c r="V79" s="24"/>
-      <c r="W79" s="24"/>
-      <c r="X79" s="24">
+      <c r="W79" s="24">
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A80" s="13">
         <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C80" s="24">
-        <v>5</v>
-      </c>
-      <c r="D80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
+      <c r="G80" s="25" t="s">
+        <v>2673</v>
+      </c>
       <c r="H80" s="25" t="s">
-        <v>2675</v>
-      </c>
-      <c r="I80" s="25" t="s">
-        <v>2671</v>
-      </c>
-      <c r="J80" s="32"/>
+        <v>2669</v>
+      </c>
+      <c r="I80" s="32"/>
+      <c r="J80" s="24"/>
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
@@ -23067,78 +22811,72 @@
       <c r="T80" s="24"/>
       <c r="U80" s="24"/>
       <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="24">
+      <c r="W80" s="24">
         <v>277</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C81" s="33">
-        <v>5</v>
-      </c>
-      <c r="D81" s="18" t="s">
+      <c r="C81" s="18" t="s">
         <v>274</v>
       </c>
+      <c r="E81" s="24"/>
       <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
+      <c r="G81" s="25" t="s">
+        <v>2674</v>
+      </c>
       <c r="H81" s="25" t="s">
-        <v>2676</v>
-      </c>
-      <c r="I81" s="25" t="s">
-        <v>2672</v>
-      </c>
-      <c r="J81" s="32"/>
+        <v>2670</v>
+      </c>
+      <c r="I81" s="32"/>
+      <c r="J81" s="33"/>
       <c r="K81" s="33"/>
       <c r="L81" s="33"/>
       <c r="M81" s="33"/>
       <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" t="s">
-        <v>2678</v>
-      </c>
-      <c r="Q81" s="33"/>
+      <c r="O81" t="s">
+        <v>2676</v>
+      </c>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="24"/>
       <c r="R81" s="24"/>
       <c r="S81" s="24"/>
       <c r="T81" s="24"/>
       <c r="U81" s="24"/>
-      <c r="V81" s="24"/>
-      <c r="W81" t="s">
-        <v>2677</v>
-      </c>
-      <c r="X81" s="24">
+      <c r="V81" t="s">
+        <v>2675</v>
+      </c>
+      <c r="W81" s="24">
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A82" s="13">
         <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="24">
-        <v>5</v>
-      </c>
-      <c r="D82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="E82" s="24"/>
       <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
+      <c r="G82" s="25" t="s">
+        <v>2677</v>
+      </c>
       <c r="H82" s="25" t="s">
-        <v>2679</v>
-      </c>
-      <c r="I82" s="25" t="s">
-        <v>2664</v>
-      </c>
-      <c r="J82" s="32"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="25" t="s">
-        <v>2665</v>
-      </c>
+        <v>2662</v>
+      </c>
+      <c r="I82" s="32"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="25" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L82" s="24"/>
       <c r="M82" s="24"/>
       <c r="N82" s="24"/>
       <c r="O82" s="24"/>
@@ -23149,35 +22887,32 @@
       <c r="T82" s="24"/>
       <c r="U82" s="24"/>
       <c r="V82" s="24"/>
-      <c r="W82" s="24"/>
-      <c r="X82" s="24">
+      <c r="W82" s="24">
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A83" s="13">
         <v>79</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C83" s="24">
-        <v>5</v>
-      </c>
-      <c r="D83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="E83" s="24"/>
       <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
+      <c r="G83" s="25" t="s">
+        <v>2678</v>
+      </c>
       <c r="H83" s="25" t="s">
-        <v>2680</v>
-      </c>
-      <c r="I83" s="25" t="s">
-        <v>2673</v>
-      </c>
-      <c r="J83" s="32"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="25" t="s">
-        <v>2681</v>
-      </c>
+        <v>2671</v>
+      </c>
+      <c r="I83" s="32"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="25" t="s">
+        <v>2679</v>
+      </c>
+      <c r="L83" s="24"/>
       <c r="M83" s="24"/>
       <c r="N83" s="24"/>
       <c r="O83" s="24"/>
@@ -23188,29 +22923,26 @@
       <c r="T83" s="24"/>
       <c r="U83" s="24"/>
       <c r="V83" s="24"/>
-      <c r="W83" s="24"/>
-      <c r="X83" s="24">
+      <c r="W83" s="24">
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>84</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C84" s="24">
-        <v>6</v>
-      </c>
-      <c r="D84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="E84" s="24"/>
       <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="25" t="s">
-        <v>2682</v>
-      </c>
-      <c r="I84" s="25"/>
-      <c r="J84" s="32"/>
+      <c r="G84" s="25" t="s">
+        <v>2680</v>
+      </c>
+      <c r="H84" s="25"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="24"/>
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
       <c r="M84" s="24"/>
@@ -23219,35 +22951,32 @@
       <c r="P84" s="24"/>
       <c r="Q84" s="24"/>
       <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
-      <c r="T84" s="25" t="s">
-        <v>2683</v>
-      </c>
+      <c r="S84" s="25" t="s">
+        <v>2681</v>
+      </c>
+      <c r="T84" s="24"/>
       <c r="U84" s="24"/>
       <c r="V84" s="24"/>
-      <c r="W84" s="24"/>
-      <c r="X84" s="24">
+      <c r="W84" s="24">
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A85" s="13">
         <v>85</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="24">
-        <v>6</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="25" t="s">
-        <v>2684</v>
-      </c>
+      <c r="C85" s="5"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25" t="s">
+        <v>2682</v>
+      </c>
+      <c r="G85" s="25"/>
       <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="24"/>
       <c r="K85" s="24"/>
       <c r="L85" s="24"/>
       <c r="M85" s="24"/>
@@ -23260,70 +22989,64 @@
       <c r="T85" s="24"/>
       <c r="U85" s="24"/>
       <c r="V85" s="24"/>
-      <c r="W85" s="24"/>
-      <c r="X85" s="24">
+      <c r="W85" s="24">
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>87</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C86" s="33">
-        <v>7</v>
-      </c>
-      <c r="D86" s="18" t="s">
+      <c r="C86" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="25" t="s">
-        <v>2685</v>
-      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="25" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G86" s="24"/>
       <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="33"/>
       <c r="K86" s="33"/>
       <c r="L86" s="33"/>
       <c r="M86" s="33"/>
       <c r="N86" s="33"/>
       <c r="O86" s="33"/>
       <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="25" t="s">
-        <v>2686</v>
-      </c>
+      <c r="Q86" s="25" t="s">
+        <v>2684</v>
+      </c>
+      <c r="R86" s="24"/>
       <c r="S86" s="24"/>
       <c r="T86" s="24"/>
       <c r="U86" s="24"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="25" t="s">
-        <v>2687</v>
-      </c>
-      <c r="X86" s="24">
+      <c r="V86" s="25" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W86" s="24">
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A87" s="13">
         <v>88</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="24">
-        <v>7</v>
-      </c>
-      <c r="D87" s="23"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="25" t="s">
-        <v>2689</v>
-      </c>
+      <c r="C87" s="23"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="25" t="s">
+        <v>2687</v>
+      </c>
+      <c r="G87" s="24"/>
       <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="24"/>
       <c r="K87" s="24"/>
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
@@ -23336,29 +23059,26 @@
       <c r="T87" s="24"/>
       <c r="U87" s="24"/>
       <c r="V87" s="24"/>
-      <c r="W87" s="24"/>
-      <c r="X87" s="24">
+      <c r="W87" s="24">
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A88" s="13">
         <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C88" s="24">
-        <v>7</v>
-      </c>
-      <c r="D88" s="23"/>
-      <c r="F88" s="24"/>
-      <c r="G88" t="s">
-        <v>2690</v>
-      </c>
+      <c r="C88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" t="s">
+        <v>2688</v>
+      </c>
+      <c r="G88" s="24"/>
       <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="24"/>
       <c r="K88" s="24"/>
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
@@ -23371,29 +23091,26 @@
       <c r="T88" s="24"/>
       <c r="U88" s="24"/>
       <c r="V88" s="24"/>
-      <c r="W88" s="24"/>
-      <c r="X88" s="24">
+      <c r="W88" s="24">
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C89" s="24">
-        <v>7</v>
-      </c>
-      <c r="D89" s="23"/>
-      <c r="F89" s="24"/>
-      <c r="G89" t="s">
-        <v>2691</v>
-      </c>
+      <c r="C89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" t="s">
+        <v>2689</v>
+      </c>
+      <c r="G89" s="24"/>
       <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="24"/>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
       <c r="M89" s="24"/>
@@ -23406,899 +23123,824 @@
       <c r="T89" s="24"/>
       <c r="U89" s="24"/>
       <c r="V89" s="24"/>
-      <c r="W89" s="24"/>
-      <c r="X89" s="24">
+      <c r="W89" s="24">
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A90" s="13">
         <v>92</v>
       </c>
       <c r="B90" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C90" s="24">
-        <v>8</v>
-      </c>
-      <c r="D90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="E90" s="24"/>
       <c r="F90" s="24"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="37" t="s">
-        <v>2698</v>
+      <c r="I90" s="32"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="37" t="s">
+        <v>2696</v>
+      </c>
+      <c r="L90" s="25" t="s">
+        <v>2692</v>
       </c>
       <c r="M90" s="25" t="s">
-        <v>2694</v>
-      </c>
-      <c r="N90" s="25" t="s">
-        <v>2695</v>
-      </c>
+        <v>2693</v>
+      </c>
+      <c r="N90" s="25"/>
       <c r="O90" s="25"/>
       <c r="P90" s="25"/>
-      <c r="Q90" s="25"/>
+      <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
       <c r="S90" s="24"/>
       <c r="T90" s="24"/>
       <c r="U90" s="24"/>
       <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24">
+      <c r="W90" s="24">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A91" s="13">
         <v>91</v>
       </c>
       <c r="B91" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C91" s="24">
-        <v>8</v>
-      </c>
-      <c r="D91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="E91" s="24"/>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="24"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="25" t="s">
+        <v>2697</v>
+      </c>
       <c r="L91" s="25" t="s">
-        <v>2699</v>
+        <v>2690</v>
       </c>
       <c r="M91" s="25" t="s">
-        <v>2692</v>
-      </c>
-      <c r="N91" s="25" t="s">
-        <v>2693</v>
-      </c>
+        <v>2691</v>
+      </c>
+      <c r="N91" s="25"/>
       <c r="O91" s="25"/>
       <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
+      <c r="Q91" s="24"/>
       <c r="R91" s="24"/>
       <c r="S91" s="24"/>
       <c r="T91" s="24"/>
       <c r="U91" s="24"/>
       <c r="V91" s="24"/>
-      <c r="W91" s="24"/>
-      <c r="X91" s="24">
+      <c r="W91" s="24">
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A92" s="13">
         <v>94</v>
       </c>
       <c r="B92" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="24">
-        <v>8</v>
-      </c>
-      <c r="D92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="E92" s="24"/>
       <c r="F92" s="24"/>
       <c r="G92" s="24"/>
       <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="37" t="s">
+      <c r="I92" s="32"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="37" t="s">
+        <v>2696</v>
+      </c>
+      <c r="L92" s="25" t="s">
         <v>2698</v>
       </c>
       <c r="M92" s="25" t="s">
-        <v>2700</v>
-      </c>
-      <c r="N92" s="25" t="s">
-        <v>2701</v>
-      </c>
+        <v>2699</v>
+      </c>
+      <c r="N92" s="25"/>
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
-      <c r="Q92" s="25"/>
+      <c r="Q92" s="24"/>
       <c r="R92" s="24"/>
       <c r="S92" s="24"/>
       <c r="T92" s="24"/>
       <c r="U92" s="24"/>
       <c r="V92" s="24"/>
-      <c r="W92" s="24"/>
-      <c r="X92" s="24">
+      <c r="W92" s="24">
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>93</v>
       </c>
       <c r="B93" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C93" s="24">
-        <v>8</v>
-      </c>
-      <c r="D93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="E93" s="24"/>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
       <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="24"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="25" t="s">
+        <v>2697</v>
+      </c>
       <c r="L93" s="25" t="s">
-        <v>2699</v>
+        <v>2694</v>
       </c>
       <c r="M93" s="25" t="s">
-        <v>2696</v>
-      </c>
-      <c r="N93" s="25" t="s">
-        <v>2697</v>
-      </c>
+        <v>2695</v>
+      </c>
+      <c r="N93" s="25"/>
       <c r="O93" s="25"/>
       <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
+      <c r="Q93" s="24"/>
       <c r="R93" s="24"/>
       <c r="S93" s="24"/>
       <c r="T93" s="24"/>
       <c r="U93" s="24"/>
       <c r="V93" s="24"/>
-      <c r="W93" s="24"/>
-      <c r="X93" s="24">
+      <c r="W93" s="24">
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A94" s="13">
         <v>176</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C94" s="24">
-        <v>9</v>
-      </c>
-      <c r="D94" s="5"/>
-      <c r="G94" s="25" t="s">
-        <v>2713</v>
-      </c>
+      <c r="C94" s="5"/>
+      <c r="F94" s="25" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G94" s="25"/>
       <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="25" t="s">
-        <v>2714</v>
-      </c>
+      <c r="I94" s="32"/>
+      <c r="J94" s="25" t="s">
+        <v>2708</v>
+      </c>
+      <c r="K94" s="25"/>
       <c r="L94" s="25"/>
       <c r="M94" s="25"/>
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
-      <c r="Q94" s="25"/>
+      <c r="Q94" s="24"/>
       <c r="R94" s="24"/>
       <c r="S94" s="24"/>
-      <c r="T94" s="24"/>
-      <c r="X94" s="24">
+      <c r="W94" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A95" s="13">
         <v>177</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C95" s="24">
-        <v>9</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="G95" s="25" t="s">
-        <v>2715</v>
-      </c>
+      <c r="C95" s="5"/>
+      <c r="F95" s="25" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G95" s="25"/>
       <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="25" t="s">
-        <v>2612</v>
-      </c>
+      <c r="I95" s="32"/>
+      <c r="J95" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="K95" s="25"/>
       <c r="L95" s="25"/>
       <c r="M95" s="25"/>
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
-      <c r="Q95" s="25"/>
+      <c r="Q95" s="24"/>
       <c r="R95" s="24"/>
       <c r="S95" s="24"/>
-      <c r="T95" s="24"/>
-      <c r="X95" s="24">
+      <c r="W95" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>180</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C96" s="24">
-        <v>9</v>
-      </c>
-      <c r="D96" s="23"/>
-      <c r="G96" s="25" t="s">
-        <v>2716</v>
-      </c>
+      <c r="C96" s="23"/>
+      <c r="F96" s="25" t="s">
+        <v>2710</v>
+      </c>
+      <c r="G96" s="25"/>
       <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="25" t="s">
-        <v>2717</v>
-      </c>
+      <c r="I96" s="32"/>
+      <c r="J96" s="25" t="s">
+        <v>2711</v>
+      </c>
+      <c r="K96" s="25"/>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
-      <c r="Q96" s="25"/>
+      <c r="Q96" s="24"/>
       <c r="R96" s="24"/>
       <c r="S96" s="24"/>
-      <c r="T96" s="24"/>
-      <c r="X96" s="24">
+      <c r="W96" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>181</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C97" s="24">
-        <v>9</v>
-      </c>
+      <c r="C97" s="24"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="25" t="s">
-        <v>2718</v>
-      </c>
+      <c r="F97" s="25" t="s">
+        <v>2712</v>
+      </c>
+      <c r="G97" s="25"/>
       <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="25" t="s">
+      <c r="I97" s="32"/>
+      <c r="J97" s="25" t="s">
         <v>174</v>
       </c>
+      <c r="K97" s="25"/>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
-      <c r="Q97" s="25"/>
+      <c r="Q97" s="24"/>
       <c r="R97" s="24"/>
       <c r="S97" s="24"/>
       <c r="T97" s="24"/>
       <c r="U97" s="24"/>
       <c r="V97" s="24"/>
-      <c r="W97" s="24"/>
-      <c r="X97" s="24">
+      <c r="W97" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>187</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C98" s="24">
-        <v>9</v>
-      </c>
+      <c r="C98" s="24"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="25" t="s">
-        <v>2719</v>
-      </c>
+      <c r="F98" s="25" t="s">
+        <v>2713</v>
+      </c>
+      <c r="G98" s="25"/>
       <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="25" t="s">
+      <c r="I98" s="32"/>
+      <c r="J98" s="25" t="s">
         <v>171</v>
       </c>
+      <c r="K98" s="25"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
       <c r="P98" s="25"/>
-      <c r="Q98" s="25"/>
+      <c r="Q98" s="24"/>
       <c r="R98" s="24"/>
       <c r="S98" s="24"/>
       <c r="T98" s="24"/>
       <c r="U98" s="24"/>
       <c r="V98" s="24"/>
-      <c r="W98" s="24"/>
-      <c r="X98" s="24">
+      <c r="W98" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A99" s="13">
         <v>188</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C99" s="24">
-        <v>9</v>
-      </c>
-      <c r="D99" s="23"/>
-      <c r="G99" s="25" t="s">
-        <v>2720</v>
-      </c>
+      <c r="C99" s="23"/>
+      <c r="F99" s="25" t="s">
+        <v>2714</v>
+      </c>
+      <c r="G99" s="25"/>
       <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="25" t="s">
-        <v>2721</v>
-      </c>
+      <c r="I99" s="32"/>
+      <c r="J99" s="25" t="s">
+        <v>2715</v>
+      </c>
+      <c r="K99" s="25"/>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
       <c r="N99" s="25"/>
       <c r="O99" s="25"/>
       <c r="P99" s="25"/>
-      <c r="Q99" s="25"/>
+      <c r="Q99" s="24"/>
       <c r="R99" s="24"/>
       <c r="S99" s="24"/>
-      <c r="T99" s="24"/>
-      <c r="X99" s="24">
+      <c r="W99" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>191</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C100" s="24">
-        <v>9</v>
-      </c>
-      <c r="D100" s="23"/>
-      <c r="G100" s="25" t="s">
-        <v>2722</v>
-      </c>
+      <c r="C100" s="23"/>
+      <c r="F100" s="25" t="s">
+        <v>2716</v>
+      </c>
+      <c r="G100" s="25"/>
       <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="25" t="s">
-        <v>2612</v>
-      </c>
+      <c r="I100" s="32"/>
+      <c r="J100" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="K100" s="25"/>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
       <c r="N100" s="25"/>
       <c r="O100" s="25"/>
       <c r="P100" s="25"/>
-      <c r="Q100" s="25"/>
+      <c r="Q100" s="24"/>
       <c r="R100" s="24"/>
       <c r="S100" s="24"/>
       <c r="T100" s="24"/>
       <c r="U100" s="24"/>
       <c r="V100" s="24"/>
-      <c r="W100" s="24"/>
-      <c r="X100" s="24">
+      <c r="W100" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>197</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C101" s="24">
-        <v>11</v>
-      </c>
-      <c r="D101" s="23"/>
-      <c r="G101" s="35" t="s">
-        <v>2723</v>
-      </c>
+      <c r="C101" s="23"/>
+      <c r="F101" s="35" t="s">
+        <v>2717</v>
+      </c>
+      <c r="G101" s="25"/>
       <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="35" t="s">
-        <v>2724</v>
-      </c>
-      <c r="K101" s="25" t="s">
-        <v>2725</v>
-      </c>
+      <c r="I101" s="35" t="s">
+        <v>2718</v>
+      </c>
+      <c r="J101" s="25" t="s">
+        <v>2719</v>
+      </c>
+      <c r="K101" s="25"/>
       <c r="L101" s="25"/>
       <c r="M101" s="25"/>
       <c r="N101" s="25"/>
       <c r="O101" s="25"/>
       <c r="P101" s="25"/>
-      <c r="Q101" s="25"/>
+      <c r="Q101" s="24"/>
       <c r="R101" s="24"/>
       <c r="S101" s="24"/>
       <c r="T101" s="24"/>
       <c r="U101" s="24"/>
       <c r="V101" s="24"/>
-      <c r="W101" s="24"/>
-      <c r="X101" s="24">
+      <c r="W101" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>219</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C102" s="24">
-        <v>11</v>
-      </c>
-      <c r="D102" s="23"/>
-      <c r="G102" s="25" t="s">
-        <v>2726</v>
-      </c>
+      <c r="C102" s="23"/>
+      <c r="F102" s="25" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G102" s="25"/>
       <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="35" t="s">
+      <c r="I102" s="35" t="s">
         <v>1860</v>
       </c>
-      <c r="K102" s="25" t="s">
-        <v>2727</v>
-      </c>
+      <c r="J102" s="25" t="s">
+        <v>2721</v>
+      </c>
+      <c r="K102" s="25"/>
       <c r="L102" s="25"/>
       <c r="M102" s="25"/>
       <c r="N102" s="25"/>
       <c r="O102" s="25"/>
       <c r="P102" s="25"/>
-      <c r="Q102" s="25"/>
+      <c r="Q102" s="24"/>
       <c r="R102" s="24"/>
       <c r="S102" s="24"/>
       <c r="T102" s="24"/>
       <c r="U102" s="24"/>
       <c r="V102" s="24"/>
-      <c r="W102" s="24"/>
-      <c r="X102" s="24">
+      <c r="W102" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>204</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C103" s="24">
-        <v>11</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="G103" s="25" t="s">
-        <v>2728</v>
-      </c>
+      <c r="C103" s="5"/>
+      <c r="F103" s="25" t="s">
+        <v>2722</v>
+      </c>
+      <c r="G103" s="25"/>
       <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="25" t="s">
-        <v>2729</v>
-      </c>
+      <c r="I103" s="32"/>
+      <c r="J103" s="25" t="s">
+        <v>2723</v>
+      </c>
+      <c r="K103" s="25"/>
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
       <c r="N103" s="25"/>
       <c r="O103" s="25"/>
       <c r="P103" s="25"/>
-      <c r="Q103" s="25"/>
+      <c r="Q103" s="24"/>
       <c r="R103" s="24"/>
       <c r="S103" s="24"/>
       <c r="T103" s="24"/>
       <c r="U103" s="24"/>
       <c r="V103" s="24"/>
-      <c r="W103" s="24"/>
-      <c r="X103" s="24">
+      <c r="W103" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A104" s="13">
         <v>212</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C104" s="24">
-        <v>11</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="G104" s="25" t="s">
-        <v>2730</v>
-      </c>
+      <c r="C104" s="5"/>
+      <c r="F104" s="25" t="s">
+        <v>2724</v>
+      </c>
+      <c r="G104" s="25"/>
       <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="25" t="s">
-        <v>2731</v>
-      </c>
+      <c r="I104" s="32"/>
+      <c r="J104" s="25" t="s">
+        <v>2725</v>
+      </c>
+      <c r="K104" s="25"/>
       <c r="L104" s="25"/>
       <c r="M104" s="25"/>
       <c r="N104" s="25"/>
       <c r="O104" s="25"/>
       <c r="P104" s="25"/>
-      <c r="Q104" s="25"/>
+      <c r="Q104" s="24"/>
       <c r="R104" s="24"/>
       <c r="S104" s="24"/>
       <c r="T104" s="24"/>
       <c r="U104" s="24"/>
       <c r="V104" s="24"/>
-      <c r="W104" s="24"/>
-      <c r="X104" s="24">
+      <c r="W104" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A105" s="13">
         <v>196</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>1154</v>
       </c>
-      <c r="C105" s="24">
-        <v>11</v>
-      </c>
-      <c r="D105" s="23"/>
-      <c r="G105" s="35" t="s">
-        <v>2732</v>
-      </c>
+      <c r="C105" s="23"/>
+      <c r="F105" s="35" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
+      <c r="I105" s="35" t="s">
+        <v>1862</v>
+      </c>
       <c r="J105" s="35" t="s">
-        <v>1862</v>
-      </c>
-      <c r="K105" s="35" t="s">
         <v>171</v>
       </c>
+      <c r="K105" s="35"/>
       <c r="L105" s="35"/>
       <c r="M105" s="35"/>
       <c r="N105" s="35"/>
       <c r="O105" s="35"/>
       <c r="P105" s="35"/>
-      <c r="Q105" s="35"/>
+      <c r="Q105" s="24"/>
       <c r="R105" s="24"/>
       <c r="S105" s="24"/>
       <c r="T105" s="24"/>
       <c r="U105" s="24"/>
       <c r="V105" s="24"/>
-      <c r="W105" s="24"/>
-      <c r="X105" s="24">
+      <c r="W105" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>207</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C106" s="24">
-        <v>11</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="G106" s="25" t="s">
-        <v>2733</v>
-      </c>
+      <c r="C106" s="5"/>
+      <c r="F106" s="25" t="s">
+        <v>2727</v>
+      </c>
+      <c r="G106" s="25"/>
       <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="25" t="s">
-        <v>2734</v>
-      </c>
+      <c r="I106" s="32"/>
+      <c r="J106" s="25" t="s">
+        <v>2728</v>
+      </c>
+      <c r="K106" s="25"/>
       <c r="L106" s="25"/>
       <c r="M106" s="25"/>
       <c r="N106" s="25"/>
       <c r="O106" s="25"/>
       <c r="P106" s="25"/>
-      <c r="Q106" s="25"/>
+      <c r="Q106" s="24"/>
       <c r="R106" s="24"/>
       <c r="S106" s="24"/>
       <c r="T106" s="24"/>
       <c r="U106" s="24"/>
       <c r="V106" s="24"/>
-      <c r="W106" s="24"/>
-      <c r="X106" s="24">
+      <c r="W106" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A107" s="13">
         <v>221</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="C107" s="24">
-        <v>11</v>
-      </c>
-      <c r="D107" s="23"/>
-      <c r="G107" s="25" t="s">
-        <v>2735</v>
-      </c>
+      <c r="C107" s="23"/>
+      <c r="F107" s="25" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G107" s="25"/>
       <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="25" t="s">
-        <v>2736</v>
-      </c>
+      <c r="I107" s="32"/>
+      <c r="J107" s="25" t="s">
+        <v>2730</v>
+      </c>
+      <c r="K107" s="25"/>
       <c r="L107" s="25"/>
       <c r="M107" s="25"/>
       <c r="N107" s="25"/>
       <c r="O107" s="25"/>
       <c r="P107" s="25"/>
-      <c r="Q107" s="25"/>
+      <c r="Q107" s="24"/>
       <c r="R107" s="24"/>
       <c r="S107" s="24"/>
       <c r="T107" s="24"/>
       <c r="U107" s="24"/>
       <c r="V107" s="24"/>
-      <c r="W107" s="24"/>
-      <c r="X107" s="24">
+      <c r="W107" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A108" s="13">
         <v>199</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C108" s="24">
-        <v>11</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="G108" s="25" t="s">
-        <v>2737</v>
-      </c>
+      <c r="C108" s="5"/>
+      <c r="F108" s="25" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G108" s="25"/>
       <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="32"/>
-      <c r="K108" t="s">
-        <v>2738</v>
-      </c>
+      <c r="I108" s="32"/>
+      <c r="J108" t="s">
+        <v>2732</v>
+      </c>
+      <c r="Q108" s="24"/>
       <c r="R108" s="24"/>
       <c r="S108" s="24"/>
       <c r="T108" s="24"/>
       <c r="U108" s="24"/>
       <c r="V108" s="24"/>
-      <c r="W108" s="24"/>
-      <c r="X108" s="24">
+      <c r="W108" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A109" s="13">
         <v>209</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C109" s="24">
-        <v>11</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="G109" s="25" t="s">
-        <v>2739</v>
-      </c>
+      <c r="C109" s="5"/>
+      <c r="F109" s="25" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G109" s="25"/>
       <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="25" t="s">
+      <c r="I109" s="32"/>
+      <c r="J109" s="25" t="s">
         <v>169</v>
       </c>
+      <c r="K109" s="25"/>
       <c r="L109" s="25"/>
       <c r="M109" s="25"/>
       <c r="N109" s="25"/>
       <c r="O109" s="25"/>
       <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
+      <c r="Q109" s="24"/>
       <c r="R109" s="24"/>
       <c r="S109" s="24"/>
       <c r="T109" s="24"/>
       <c r="U109" s="24"/>
       <c r="V109" s="24"/>
-      <c r="W109" s="24"/>
-      <c r="X109" s="24">
+      <c r="W109" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A110" s="13">
         <v>216</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="24">
-        <v>11</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="G110" s="25" t="s">
-        <v>2740</v>
-      </c>
+      <c r="C110" s="5"/>
+      <c r="F110" s="25" t="s">
+        <v>2734</v>
+      </c>
+      <c r="G110" s="25"/>
       <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="25" t="s">
-        <v>2615</v>
-      </c>
+      <c r="I110" s="32"/>
+      <c r="J110" s="25" t="s">
+        <v>2614</v>
+      </c>
+      <c r="K110" s="25"/>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
       <c r="N110" s="25"/>
       <c r="O110" s="25"/>
       <c r="P110" s="25"/>
-      <c r="Q110" s="25"/>
+      <c r="Q110" s="24"/>
       <c r="R110" s="24"/>
       <c r="S110" s="24"/>
       <c r="T110" s="24"/>
       <c r="U110" s="24"/>
       <c r="V110" s="24"/>
-      <c r="W110" s="24"/>
-      <c r="X110" s="24">
+      <c r="W110" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A111" s="13">
         <v>223</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C111" s="24">
-        <v>11</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="G111" s="25" t="s">
-        <v>2741</v>
-      </c>
+      <c r="C111" s="5"/>
+      <c r="F111" s="25" t="s">
+        <v>2735</v>
+      </c>
+      <c r="G111" s="25"/>
       <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="25" t="s">
-        <v>2742</v>
-      </c>
+      <c r="I111" s="32"/>
+      <c r="J111" s="25" t="s">
+        <v>2736</v>
+      </c>
+      <c r="K111" s="25"/>
       <c r="L111" s="25"/>
       <c r="M111" s="25"/>
       <c r="N111" s="25"/>
       <c r="O111" s="25"/>
       <c r="P111" s="25"/>
-      <c r="Q111" s="25"/>
+      <c r="Q111" s="24"/>
       <c r="R111" s="24"/>
       <c r="S111" s="24"/>
       <c r="T111" s="24"/>
       <c r="U111" s="24"/>
       <c r="V111" s="24"/>
-      <c r="W111" s="24"/>
-      <c r="X111" s="24">
+      <c r="W111" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A112" s="13">
         <v>220</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C112" s="24">
-        <v>11</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="G112" s="25" t="s">
-        <v>2743</v>
-      </c>
+      <c r="C112" s="5"/>
+      <c r="F112" s="25" t="s">
+        <v>2737</v>
+      </c>
+      <c r="G112" s="25"/>
       <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="35" t="s">
-        <v>2744</v>
-      </c>
-      <c r="K112" s="25" t="s">
-        <v>2615</v>
-      </c>
+      <c r="I112" s="35" t="s">
+        <v>2738</v>
+      </c>
+      <c r="J112" s="25" t="s">
+        <v>2614</v>
+      </c>
+      <c r="K112" s="25"/>
       <c r="L112" s="25"/>
       <c r="M112" s="25"/>
       <c r="N112" s="25"/>
       <c r="O112" s="25"/>
       <c r="P112" s="25"/>
-      <c r="Q112" s="25"/>
+      <c r="Q112" s="24"/>
       <c r="R112" s="24"/>
       <c r="S112" s="24"/>
       <c r="T112" s="24"/>
       <c r="U112" s="24"/>
       <c r="V112" s="24"/>
-      <c r="W112" s="24"/>
-      <c r="X112" s="24">
+      <c r="W112" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A113" s="24">
         <v>345</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C113" s="24">
-        <v>28</v>
-      </c>
+        <v>2742</v>
+      </c>
+      <c r="C113" s="24"/>
       <c r="D113" s="24"/>
       <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="36" t="s">
-        <v>2703</v>
-      </c>
+      <c r="F113" s="36" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G113" s="25"/>
       <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="38"/>
       <c r="K113" s="38"/>
       <c r="L113" s="38"/>
       <c r="M113" s="38"/>
       <c r="N113" s="38"/>
       <c r="O113" s="38"/>
       <c r="P113" s="38"/>
-      <c r="Q113" s="38"/>
-      <c r="R113" s="25"/>
+      <c r="Q113" s="25"/>
+      <c r="R113" s="24"/>
       <c r="S113" s="24"/>
       <c r="T113" s="24"/>
       <c r="U113" s="24"/>
       <c r="V113" s="24"/>
-      <c r="W113" s="24"/>
-      <c r="X113" s="24">
+      <c r="W113" s="24">
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A114" s="13">
         <v>70</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>1165</v>
       </c>
-      <c r="C114" s="24">
-        <v>28</v>
-      </c>
-      <c r="D114" s="23"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="36" t="s">
-        <v>2705</v>
-      </c>
+      <c r="C114" s="23"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="36" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G114" s="24"/>
       <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="24"/>
       <c r="K114" s="24"/>
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
@@ -24311,201 +23953,183 @@
       <c r="T114" s="24"/>
       <c r="U114" s="24"/>
       <c r="V114" s="24"/>
-      <c r="W114" s="24"/>
-      <c r="X114" s="24">
+      <c r="W114" s="24">
         <v>275</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A115" s="24">
         <v>255</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C115" s="24">
-        <v>28</v>
-      </c>
+        <v>2741</v>
+      </c>
+      <c r="C115" s="24"/>
       <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="36" t="s">
-        <v>2706</v>
-      </c>
+      <c r="E115" s="25"/>
+      <c r="F115" s="36" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G115" s="25"/>
       <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="35"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="35"/>
+      <c r="K115" s="25"/>
       <c r="L115" s="25"/>
       <c r="M115" s="25"/>
       <c r="N115" s="25"/>
       <c r="O115" s="25"/>
       <c r="P115" s="25"/>
-      <c r="Q115" s="25"/>
+      <c r="Q115" s="24"/>
       <c r="R115" s="24"/>
-      <c r="S115" s="24"/>
+      <c r="S115" s="25"/>
       <c r="T115" s="25"/>
       <c r="U115" s="25"/>
       <c r="V115" s="25"/>
-      <c r="W115" s="25"/>
-      <c r="X115" s="25">
+      <c r="W115" s="25">
         <v>278</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A116" s="24">
         <v>683</v>
       </c>
       <c r="B116" s="26" t="s">
         <v>1168</v>
       </c>
-      <c r="C116" s="24">
-        <v>29</v>
-      </c>
-      <c r="D116" s="23"/>
-      <c r="G116" s="36" t="s">
-        <v>2707</v>
-      </c>
+      <c r="C116" s="23"/>
+      <c r="F116" s="36" t="s">
+        <v>2702</v>
+      </c>
+      <c r="G116" s="25"/>
       <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="35"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="35"/>
+      <c r="K116" s="25"/>
       <c r="L116" s="25"/>
       <c r="M116" s="25"/>
       <c r="N116" s="25"/>
       <c r="O116" s="25"/>
       <c r="P116" s="25"/>
-      <c r="Q116" s="25"/>
+      <c r="Q116" s="24"/>
       <c r="R116" s="24"/>
-      <c r="S116" s="24"/>
+      <c r="S116" s="25"/>
       <c r="T116" s="25"/>
       <c r="U116" s="25"/>
       <c r="V116" s="25"/>
-      <c r="W116" s="25"/>
-      <c r="X116" s="25">
+      <c r="W116" s="25">
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A117" s="24">
         <v>684</v>
       </c>
       <c r="B117" s="26" t="s">
         <v>1169</v>
       </c>
-      <c r="C117" s="24">
-        <v>29</v>
-      </c>
-      <c r="D117" s="23"/>
-      <c r="G117" s="36" t="s">
-        <v>2708</v>
-      </c>
+      <c r="C117" s="23"/>
+      <c r="F117" s="36" t="s">
+        <v>2740</v>
+      </c>
+      <c r="G117" s="25"/>
       <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="35"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="25"/>
       <c r="L117" s="25"/>
       <c r="M117" s="25"/>
       <c r="N117" s="25"/>
       <c r="O117" s="25"/>
       <c r="P117" s="25"/>
-      <c r="Q117" s="25"/>
+      <c r="Q117" s="24"/>
       <c r="R117" s="24"/>
-      <c r="S117" s="24"/>
+      <c r="S117" s="25"/>
       <c r="T117" s="25"/>
       <c r="U117" s="25"/>
       <c r="V117" s="25"/>
-      <c r="W117" s="25"/>
-      <c r="X117" s="25">
+      <c r="W117" s="25">
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A118" s="24">
         <v>686</v>
       </c>
       <c r="B118" s="26" t="s">
         <v>1171</v>
       </c>
-      <c r="C118" s="24">
-        <v>29</v>
-      </c>
-      <c r="D118" s="23"/>
-      <c r="G118" s="36" t="s">
-        <v>2709</v>
-      </c>
+      <c r="C118" s="23"/>
+      <c r="F118" s="36" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G118" s="25"/>
       <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="32"/>
-      <c r="K118" s="35"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="25"/>
       <c r="L118" s="25"/>
       <c r="M118" s="25"/>
       <c r="N118" s="25"/>
       <c r="O118" s="25"/>
       <c r="P118" s="25"/>
-      <c r="Q118" s="25"/>
+      <c r="Q118" s="24"/>
       <c r="R118" s="24"/>
-      <c r="S118" s="24"/>
+      <c r="S118" s="25"/>
       <c r="T118" s="25"/>
       <c r="U118" s="25"/>
       <c r="V118" s="25"/>
-      <c r="W118" s="25"/>
-      <c r="X118" s="25">
+      <c r="W118" s="25">
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A119" s="24">
         <v>685</v>
       </c>
       <c r="B119" s="26" t="s">
         <v>1170</v>
       </c>
-      <c r="C119" s="24">
-        <v>29</v>
-      </c>
-      <c r="D119" s="23"/>
-      <c r="G119" s="36" t="s">
-        <v>2712</v>
-      </c>
+      <c r="C119" s="23"/>
+      <c r="F119" s="36" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G119" s="25"/>
       <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="35"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="25"/>
       <c r="L119" s="25"/>
       <c r="M119" s="25"/>
       <c r="N119" s="25"/>
       <c r="O119" s="25"/>
       <c r="P119" s="25"/>
-      <c r="Q119" s="25"/>
+      <c r="Q119" s="24"/>
       <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
+      <c r="S119" s="25"/>
       <c r="T119" s="25"/>
       <c r="U119" s="25"/>
       <c r="V119" s="25"/>
-      <c r="W119" s="25"/>
-      <c r="X119" s="25">
+      <c r="W119" s="25">
         <v>320</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A120" s="13">
         <v>86</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>1166</v>
       </c>
-      <c r="C120" s="24">
-        <v>29</v>
-      </c>
-      <c r="D120" s="23"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="36" t="s">
-        <v>2710</v>
-      </c>
+      <c r="C120" s="23"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="36" t="s">
+        <v>2704</v>
+      </c>
+      <c r="G120" s="24"/>
       <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="24"/>
       <c r="K120" s="24"/>
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
@@ -24518,42 +24142,38 @@
       <c r="T120" s="24"/>
       <c r="U120" s="24"/>
       <c r="V120" s="24"/>
-      <c r="W120" s="24"/>
-      <c r="X120" s="25">
+      <c r="W120" s="25">
         <v>317</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A121" s="24">
         <v>682</v>
       </c>
       <c r="B121" s="26" t="s">
         <v>1167</v>
       </c>
-      <c r="C121" s="24">
-        <v>29</v>
-      </c>
-      <c r="D121" s="18"/>
-      <c r="G121" s="36" t="s">
-        <v>2711</v>
-      </c>
+      <c r="C121" s="18"/>
+      <c r="F121" s="36" t="s">
+        <v>2705</v>
+      </c>
+      <c r="G121" s="25"/>
       <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="35"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="35"/>
+      <c r="K121" s="25"/>
       <c r="L121" s="25"/>
       <c r="M121" s="25"/>
       <c r="N121" s="25"/>
       <c r="O121" s="25"/>
       <c r="P121" s="25"/>
-      <c r="Q121" s="25"/>
+      <c r="Q121" s="24"/>
       <c r="R121" s="24"/>
-      <c r="S121" s="24"/>
+      <c r="S121" s="25"/>
       <c r="T121" s="25"/>
       <c r="U121" s="25"/>
       <c r="V121" s="25"/>
-      <c r="W121" s="25"/>
-      <c r="X121" s="25">
+      <c r="W121" s="25">
         <v>318</v>
       </c>
     </row>

--- a/src/data/TDE5_en-US.xlsx
+++ b/src/data/TDE5_en-US.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="2468" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOKS" sheetId="16" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="2441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="2444">
   <si>
     <t>id</t>
   </si>
@@ -9778,6 +9778,15 @@
   </si>
   <si>
     <t>To buy an elf bow during hero creation, the character must be from an elven culture.</t>
+  </si>
+  <si>
+    <t>Language Specialization</t>
+  </si>
+  <si>
+    <t>Knowing and using a Language Specialization grants the hero a bonus of 1 for *Fast-Talk (Hard Sell)*, as long as the other person speaks the same dialect. The GM decides if the bonus applies. A character with a dialect might suffer a penalty of 1 in some situations, such as when the other person has trouble understanding what is being said.\nThe use of this optional rule makes the game a little more complex.</t>
+  </si>
+  <si>
+    <t>the relevant language at Level III</t>
   </si>
 </sst>
 </file>
@@ -9892,12 +9901,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10003,13 +10013,252 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Erklärender Text 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{B06DF788-D2AB-4699-8EA8-C2CC1DBAADEC}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{3F62BF4F-0F52-4DDA-A66D-D96FCAAA1927}"/>
   </cellStyles>
   <dxfs count="140">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10245,25 +10494,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -10273,31 +10503,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -10317,113 +10522,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -10470,9 +10568,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -10482,74 +10577,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -11205,72 +11232,72 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{20810958-2B1F-489B-85BB-A71CA319D3BE}" name="Tabelle12" displayName="Tabelle12" ref="A1:H13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{20810958-2B1F-489B-85BB-A71CA319D3BE}" name="Tabelle12" displayName="Tabelle12" ref="A1:H13" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:H13" xr:uid="{FA47A379-2233-4074-9AB1-152EE983B10E}"/>
   <sortState ref="A2:H13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{80423AAF-9A13-4048-90DA-956235CA7B70}" name="id" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{53F47762-1B13-471B-AED9-BF2C490D5CD8}" name="name" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{D0C580B0-3F04-439D-9F30-4147BC1B68C0}" name="effect" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{75585642-4807-407A-9124-0B604AF9D272}" name="range" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{5CF4ADF6-B805-4539-B1EB-BEA810029856}" name="duration" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{8883C844-90D8-4ED4-97EB-136CF8FED8B1}" name="target" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{E51FF880-E2D0-4954-8C6C-29177C28EDBC}" name="note" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{1C430D7A-5610-4443-BFFF-4336DE092717}" name="src" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{80423AAF-9A13-4048-90DA-956235CA7B70}" name="id" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{53F47762-1B13-471B-AED9-BF2C490D5CD8}" name="name" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{D0C580B0-3F04-439D-9F30-4147BC1B68C0}" name="effect" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{75585642-4807-407A-9124-0B604AF9D272}" name="range" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{5CF4ADF6-B805-4539-B1EB-BEA810029856}" name="duration" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{8883C844-90D8-4ED4-97EB-136CF8FED8B1}" name="target" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{E51FF880-E2D0-4954-8C6C-29177C28EDBC}" name="note" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{1C430D7A-5610-4443-BFFF-4336DE092717}" name="src" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A4AF9304-CECC-4706-BE3D-6C02E19EB7DE}" name="Tabelle14" displayName="Tabelle14" ref="A1:M41" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A4AF9304-CECC-4706-BE3D-6C02E19EB7DE}" name="Tabelle14" displayName="Tabelle14" ref="A1:M41" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:M41" xr:uid="{7C560F19-2483-4764-A4E9-59A9B4A4DAC4}"/>
   <sortState ref="A2:M41">
     <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{38B0EF5B-69CE-4E41-B5E8-D46D558C4B98}" name="id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{D6AA4D77-9FBB-4EA0-BBAD-AD239EB9AAD5}" name="name" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D2756D7F-8900-4980-B57E-7CE762BEFFDE}" name="effect" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{99685749-C1CC-4C60-AAD7-1C87F2BA9A75}" name="castingtime" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{7EEE05E4-4512-407B-842A-1FD00585DDD2}" name="castingtimeShort" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{9DFECF77-BCF0-4763-9062-58BFD91CF7F9}" name="kpcost" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{3D4EF3CF-F964-45A4-B7C4-DBDEFC1C81A6}" name="kpcostShort" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{CCE83C8E-D682-41C8-8786-C98691C246AD}" name="range" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{7652F0CC-E291-423C-AC62-F06CE8503F50}" name="rangeShort" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{2BE682CA-1853-4237-8DD1-CEC3E68129BD}" name="duration" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{CA193524-7BA2-41F8-AFCF-1E68017E2279}" name="durationShort" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{474BE732-F74C-44A8-BC43-96E09F985B63}" name="target" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{22BBA61D-F2BE-4593-AA32-78E151203060}" name="src" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{38B0EF5B-69CE-4E41-B5E8-D46D558C4B98}" name="id" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{D6AA4D77-9FBB-4EA0-BBAD-AD239EB9AAD5}" name="name" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{D2756D7F-8900-4980-B57E-7CE762BEFFDE}" name="effect" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{99685749-C1CC-4C60-AAD7-1C87F2BA9A75}" name="castingtime" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{7EEE05E4-4512-407B-842A-1FD00585DDD2}" name="castingtimeShort" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{9DFECF77-BCF0-4763-9062-58BFD91CF7F9}" name="kpcost" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{3D4EF3CF-F964-45A4-B7C4-DBDEFC1C81A6}" name="kpcostShort" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{CCE83C8E-D682-41C8-8786-C98691C246AD}" name="range" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{7652F0CC-E291-423C-AC62-F06CE8503F50}" name="rangeShort" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{2BE682CA-1853-4237-8DD1-CEC3E68129BD}" name="duration" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{CA193524-7BA2-41F8-AFCF-1E68017E2279}" name="durationShort" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{474BE732-F74C-44A8-BC43-96E09F985B63}" name="target" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{22BBA61D-F2BE-4593-AA32-78E151203060}" name="src" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DE1F12EC-7104-418A-9BFC-32F94E60D1E9}" name="Tabelle13" displayName="Tabelle13" ref="A1:G13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DE1F12EC-7104-418A-9BFC-32F94E60D1E9}" name="Tabelle13" displayName="Tabelle13" ref="A1:G13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:G13" xr:uid="{5CD72CB2-8095-4D11-AA09-6E7628D67F6C}"/>
   <sortState ref="A2:G13">
     <sortCondition ref="B1:B13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{75CB1DE0-E276-4C7F-BCC6-FF2FA18B017D}" name="id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{6B251442-2574-4230-AB18-D00D65F0DF9A}" name="name" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{E1197E89-64F9-4FC2-A9B4-4BC1813A85B6}" name="effect" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{C0232011-1F33-4ACB-AA8C-5B870FAB1352}" name="range" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{A95BD016-CF17-4F91-A309-2DE22B395A7A}" name="duration" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{2C7B8E03-7DF4-4F22-90E4-7035A2F0168B}" name="target" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{6FA15D05-BB98-49DB-B47D-2F14FEAFDF45}" name="src" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{75CB1DE0-E276-4C7F-BCC6-FF2FA18B017D}" name="id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{6B251442-2574-4230-AB18-D00D65F0DF9A}" name="name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{E1197E89-64F9-4FC2-A9B4-4BC1813A85B6}" name="effect" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{C0232011-1F33-4ACB-AA8C-5B870FAB1352}" name="range" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{A95BD016-CF17-4F91-A309-2DE22B395A7A}" name="duration" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{2C7B8E03-7DF4-4F22-90E4-7035A2F0168B}" name="target" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{6FA15D05-BB98-49DB-B47D-2F14FEAFDF45}" name="src" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:W121" totalsRowShown="0" headerRowDxfId="45">
-  <autoFilter ref="A1:W121" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:W122" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:W122" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -11296,9 +11323,9 @@
     <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="sel" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="input"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="nameInWiki"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="rules"/>
@@ -11325,7 +11352,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23FB0876-5312-4CF4-A3ED-A9E081662530}" name="Tabelle10" displayName="Tabelle10" ref="A1:G382" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23FB0876-5312-4CF4-A3ED-A9E081662530}" name="Tabelle10" displayName="Tabelle10" ref="A1:G382" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:G382" xr:uid="{8EA38458-CF38-4B8F-90A8-E0991E0382F0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11334,13 +11361,13 @@
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B9AA81B7-8A64-4E82-9669-9D0FF8515AFC}" name="id" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{756DB8FB-83BA-4370-9112-C04F1AC7B4F1}" name="name" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{3F5C0939-9CF7-421A-8CAC-010D3F3E38A7}" name="note" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{4BAAB64F-94E7-4F1C-AE98-BA763FE5AC60}" name="rules" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{8B1B9365-52B9-4D00-AE3A-B0A3DF58603A}" name="advantage" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{1A0E8832-34C7-4BD0-A4F1-E8AC8CDBEA7B}" name="disadvantage" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{056266E9-8DF6-44B7-9E87-B389BD9EAE34}" name="src" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{B9AA81B7-8A64-4E82-9669-9D0FF8515AFC}" name="id" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{756DB8FB-83BA-4370-9112-C04F1AC7B4F1}" name="name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3F5C0939-9CF7-421A-8CAC-010D3F3E38A7}" name="note" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4BAAB64F-94E7-4F1C-AE98-BA763FE5AC60}" name="rules" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8B1B9365-52B9-4D00-AE3A-B0A3DF58603A}" name="advantage" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{1A0E8832-34C7-4BD0-A4F1-E8AC8CDBEA7B}" name="disadvantage" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{056266E9-8DF6-44B7-9E87-B389BD9EAE34}" name="src" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20463,11 +20490,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:W121"/>
+  <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24480,6 +24507,41 @@
       <c r="V121" s="25"/>
       <c r="W121" s="25">
         <v>318</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A122" s="43">
+        <v>699</v>
+      </c>
+      <c r="B122" s="46" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C122" s="23"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="45"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="42"/>
+      <c r="O122" s="42"/>
+      <c r="P122" s="42"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="41"/>
+      <c r="S122" s="42" t="s">
+        <v>2443</v>
+      </c>
+      <c r="T122" s="42"/>
+      <c r="U122" s="42"/>
+      <c r="V122" s="42"/>
+      <c r="W122" s="43">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -25256,7 +25318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G382"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
